--- a/notes/java_syllbus.xlsx
+++ b/notes/java_syllbus.xlsx
@@ -1074,13 +1074,13 @@
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -1859,24 +1859,14 @@
             <a:buChar char="•"/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-IN" sz="2000" b="1">
+            <a:rPr lang="en-IN" sz="2000" b="1" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="accent6">
                   <a:lumMod val="75000"/>
                 </a:schemeClr>
               </a:solidFill>
             </a:rPr>
-            <a:t>Gargbage</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-IN" sz="2000" b="1" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:lumMod val="75000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:rPr>
-            <a:t> collection</a:t>
+            <a:t>Java threading</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -1892,7 +1882,7 @@
                 </a:schemeClr>
               </a:solidFill>
             </a:rPr>
-            <a:t>Strings </a:t>
+            <a:t>Serialization</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -1908,7 +1898,7 @@
                 </a:schemeClr>
               </a:solidFill>
             </a:rPr>
-            <a:t>Serialization</a:t>
+            <a:t>Object class</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -1924,8 +1914,66 @@
                 </a:schemeClr>
               </a:solidFill>
             </a:rPr>
-            <a:t>Exception Handling</a:t>
-          </a:r>
+            <a:t>Io streams</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="342900" indent="-342900">
+            <a:buFont typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:buChar char="•"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-IN" sz="2000" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>collections</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="342900" indent="-342900">
+            <a:buFont typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:buChar char="•"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-IN" sz="2000" b="1" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="342900" indent="-342900">
+            <a:buFont typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:buChar char="•"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-IN" sz="2000" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>with in the 3 days i want complete these topics .</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="342900" indent="-342900">
+            <a:buFont typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:buChar char="•"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-IN" sz="2000" b="1" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr marL="342900" indent="-342900">
@@ -2156,6 +2204,75 @@
               <a:srgbClr val="0070C0"/>
             </a:solidFill>
           </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>111760</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>203200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="TextBox 6"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3566160" y="2550160"/>
+          <a:ext cx="7752080" cy="975360"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-IN" sz="2400"/>
+            <a:t>11/03/2022    ----------------11/04/2022 i want</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IN" sz="2400" baseline="0"/>
+            <a:t> to clime 1 year java developer experience and i want to complete </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-IN" sz="2400"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2429,8 +2546,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q412"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J2" zoomScale="87" zoomScaleNormal="10" zoomScalePageLayoutView="134" workbookViewId="0">
-      <selection activeCell="S14" sqref="S14"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="10" zoomScalePageLayoutView="134" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12:O79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.4" x14ac:dyDescent="0.45"/>
@@ -2442,144 +2559,184 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="6"/>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6"/>
+      <c r="A1" s="7"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
     </row>
     <row r="2" spans="1:17" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
     </row>
     <row r="3" spans="1:17" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="6"/>
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
     </row>
     <row r="4" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6"/>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="6"/>
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="7"/>
     </row>
     <row r="5" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="6"/>
-      <c r="P5" s="6"/>
-      <c r="Q5" s="6"/>
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="7"/>
     </row>
     <row r="6" spans="1:17" ht="70.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="6"/>
-      <c r="P6" s="6"/>
-      <c r="Q6" s="6"/>
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
     </row>
     <row r="7" spans="1:17" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
-      <c r="O7" s="6"/>
-      <c r="P7" s="6"/>
-      <c r="Q7" s="6"/>
-    </row>
-    <row r="8" spans="1:17" ht="46.2" customHeight="1" x14ac:dyDescent="0.45"/>
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="7"/>
+    </row>
+    <row r="8" spans="1:17" ht="46.2" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
+    </row>
     <row r="9" spans="1:17" ht="23.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="Q9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+      <c r="Q9" s="5"/>
     </row>
     <row r="10" spans="1:17" ht="23.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="Q10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+      <c r="Q10" s="5"/>
     </row>
     <row r="11" spans="1:17" ht="23.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11">
@@ -2599,23 +2756,23 @@
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
-      <c r="Q11" s="7"/>
+      <c r="Q11" s="5"/>
     </row>
     <row r="12" spans="1:17" ht="23.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
-      <c r="N12" s="5"/>
-      <c r="O12" s="5"/>
-      <c r="Q12" s="7"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6"/>
+      <c r="Q12" s="5"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A13">
@@ -2624,34 +2781,34 @@
       <c r="B13" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
-      <c r="N13" s="5"/>
-      <c r="O13" s="5"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
-      <c r="N14" s="5"/>
-      <c r="O14" s="5"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="6"/>
       <c r="Q14" s="3" t="s">
         <v>31</v>
       </c>
@@ -2663,37 +2820,37 @@
       <c r="B15" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="5"/>
-      <c r="N15" s="5"/>
-      <c r="O15" s="5"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="6"/>
       <c r="Q15" s="3" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="5"/>
-      <c r="N16" s="5"/>
-      <c r="O16" s="5"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="6"/>
       <c r="Q16" s="3" t="s">
         <v>33</v>
       </c>
@@ -2705,37 +2862,37 @@
       <c r="B17" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
-      <c r="M17" s="5"/>
-      <c r="N17" s="5"/>
-      <c r="O17" s="5"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
+      <c r="O17" s="6"/>
       <c r="Q17" s="3" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
-      <c r="M18" s="5"/>
-      <c r="N18" s="5"/>
-      <c r="O18" s="5"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="6"/>
       <c r="Q18" s="3" t="s">
         <v>35</v>
       </c>
@@ -2747,37 +2904,37 @@
       <c r="B19" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
-      <c r="M19" s="5"/>
-      <c r="N19" s="5"/>
-      <c r="O19" s="5"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="6"/>
+      <c r="O19" s="6"/>
       <c r="Q19" s="3" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="5"/>
-      <c r="M20" s="5"/>
-      <c r="N20" s="5"/>
-      <c r="O20" s="5"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="6"/>
+      <c r="N20" s="6"/>
+      <c r="O20" s="6"/>
       <c r="Q20" s="3" t="s">
         <v>37</v>
       </c>
@@ -2789,37 +2946,37 @@
       <c r="B21" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="5"/>
-      <c r="M21" s="5"/>
-      <c r="N21" s="5"/>
-      <c r="O21" s="5"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="6"/>
+      <c r="N21" s="6"/>
+      <c r="O21" s="6"/>
       <c r="Q21" s="3" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="5"/>
-      <c r="L22" s="5"/>
-      <c r="M22" s="5"/>
-      <c r="N22" s="5"/>
-      <c r="O22" s="5"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="6"/>
+      <c r="N22" s="6"/>
+      <c r="O22" s="6"/>
       <c r="Q22" s="3" t="s">
         <v>39</v>
       </c>
@@ -2831,37 +2988,37 @@
       <c r="B23" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="5"/>
-      <c r="L23" s="5"/>
-      <c r="M23" s="5"/>
-      <c r="N23" s="5"/>
-      <c r="O23" s="5"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="6"/>
+      <c r="M23" s="6"/>
+      <c r="N23" s="6"/>
+      <c r="O23" s="6"/>
       <c r="Q23" s="3" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="5"/>
-      <c r="K24" s="5"/>
-      <c r="L24" s="5"/>
-      <c r="M24" s="5"/>
-      <c r="N24" s="5"/>
-      <c r="O24" s="5"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="6"/>
+      <c r="M24" s="6"/>
+      <c r="N24" s="6"/>
+      <c r="O24" s="6"/>
       <c r="Q24" s="3" t="s">
         <v>41</v>
       </c>
@@ -2873,37 +3030,37 @@
       <c r="B25" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="5"/>
-      <c r="K25" s="5"/>
-      <c r="L25" s="5"/>
-      <c r="M25" s="5"/>
-      <c r="N25" s="5"/>
-      <c r="O25" s="5"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="6"/>
+      <c r="M25" s="6"/>
+      <c r="N25" s="6"/>
+      <c r="O25" s="6"/>
       <c r="Q25" s="3" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
-      <c r="J26" s="5"/>
-      <c r="K26" s="5"/>
-      <c r="L26" s="5"/>
-      <c r="M26" s="5"/>
-      <c r="N26" s="5"/>
-      <c r="O26" s="5"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="6"/>
+      <c r="L26" s="6"/>
+      <c r="M26" s="6"/>
+      <c r="N26" s="6"/>
+      <c r="O26" s="6"/>
       <c r="Q26" s="3" t="s">
         <v>43</v>
       </c>
@@ -2915,37 +3072,37 @@
       <c r="B27" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
-      <c r="J27" s="5"/>
-      <c r="K27" s="5"/>
-      <c r="L27" s="5"/>
-      <c r="M27" s="5"/>
-      <c r="N27" s="5"/>
-      <c r="O27" s="5"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="6"/>
+      <c r="K27" s="6"/>
+      <c r="L27" s="6"/>
+      <c r="M27" s="6"/>
+      <c r="N27" s="6"/>
+      <c r="O27" s="6"/>
       <c r="Q27" s="3" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="5"/>
-      <c r="J28" s="5"/>
-      <c r="K28" s="5"/>
-      <c r="L28" s="5"/>
-      <c r="M28" s="5"/>
-      <c r="N28" s="5"/>
-      <c r="O28" s="5"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="6"/>
+      <c r="K28" s="6"/>
+      <c r="L28" s="6"/>
+      <c r="M28" s="6"/>
+      <c r="N28" s="6"/>
+      <c r="O28" s="6"/>
       <c r="Q28" s="3" t="s">
         <v>45</v>
       </c>
@@ -2957,37 +3114,37 @@
       <c r="B29" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
-      <c r="J29" s="5"/>
-      <c r="K29" s="5"/>
-      <c r="L29" s="5"/>
-      <c r="M29" s="5"/>
-      <c r="N29" s="5"/>
-      <c r="O29" s="5"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
+      <c r="J29" s="6"/>
+      <c r="K29" s="6"/>
+      <c r="L29" s="6"/>
+      <c r="M29" s="6"/>
+      <c r="N29" s="6"/>
+      <c r="O29" s="6"/>
       <c r="Q29" s="3" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="5"/>
-      <c r="J30" s="5"/>
-      <c r="K30" s="5"/>
-      <c r="L30" s="5"/>
-      <c r="M30" s="5"/>
-      <c r="N30" s="5"/>
-      <c r="O30" s="5"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="6"/>
+      <c r="J30" s="6"/>
+      <c r="K30" s="6"/>
+      <c r="L30" s="6"/>
+      <c r="M30" s="6"/>
+      <c r="N30" s="6"/>
+      <c r="O30" s="6"/>
       <c r="Q30" s="3" t="s">
         <v>47</v>
       </c>
@@ -2999,37 +3156,37 @@
       <c r="B31" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="5"/>
-      <c r="I31" s="5"/>
-      <c r="J31" s="5"/>
-      <c r="K31" s="5"/>
-      <c r="L31" s="5"/>
-      <c r="M31" s="5"/>
-      <c r="N31" s="5"/>
-      <c r="O31" s="5"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="6"/>
+      <c r="J31" s="6"/>
+      <c r="K31" s="6"/>
+      <c r="L31" s="6"/>
+      <c r="M31" s="6"/>
+      <c r="N31" s="6"/>
+      <c r="O31" s="6"/>
       <c r="Q31" s="3" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="5"/>
-      <c r="H32" s="5"/>
-      <c r="I32" s="5"/>
-      <c r="J32" s="5"/>
-      <c r="K32" s="5"/>
-      <c r="L32" s="5"/>
-      <c r="M32" s="5"/>
-      <c r="N32" s="5"/>
-      <c r="O32" s="5"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6"/>
+      <c r="I32" s="6"/>
+      <c r="J32" s="6"/>
+      <c r="K32" s="6"/>
+      <c r="L32" s="6"/>
+      <c r="M32" s="6"/>
+      <c r="N32" s="6"/>
+      <c r="O32" s="6"/>
       <c r="Q32" s="3" t="s">
         <v>49</v>
       </c>
@@ -3041,37 +3198,37 @@
       <c r="B33" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="5"/>
-      <c r="H33" s="5"/>
-      <c r="I33" s="5"/>
-      <c r="J33" s="5"/>
-      <c r="K33" s="5"/>
-      <c r="L33" s="5"/>
-      <c r="M33" s="5"/>
-      <c r="N33" s="5"/>
-      <c r="O33" s="5"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6"/>
+      <c r="I33" s="6"/>
+      <c r="J33" s="6"/>
+      <c r="K33" s="6"/>
+      <c r="L33" s="6"/>
+      <c r="M33" s="6"/>
+      <c r="N33" s="6"/>
+      <c r="O33" s="6"/>
       <c r="Q33" s="3" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
-      <c r="F34" s="5"/>
-      <c r="G34" s="5"/>
-      <c r="H34" s="5"/>
-      <c r="I34" s="5"/>
-      <c r="J34" s="5"/>
-      <c r="K34" s="5"/>
-      <c r="L34" s="5"/>
-      <c r="M34" s="5"/>
-      <c r="N34" s="5"/>
-      <c r="O34" s="5"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="6"/>
+      <c r="I34" s="6"/>
+      <c r="J34" s="6"/>
+      <c r="K34" s="6"/>
+      <c r="L34" s="6"/>
+      <c r="M34" s="6"/>
+      <c r="N34" s="6"/>
+      <c r="O34" s="6"/>
       <c r="Q34" s="3" t="s">
         <v>51</v>
       </c>
@@ -3083,37 +3240,37 @@
       <c r="B35" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C35" s="5"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="5"/>
-      <c r="F35" s="5"/>
-      <c r="G35" s="5"/>
-      <c r="H35" s="5"/>
-      <c r="I35" s="5"/>
-      <c r="J35" s="5"/>
-      <c r="K35" s="5"/>
-      <c r="L35" s="5"/>
-      <c r="M35" s="5"/>
-      <c r="N35" s="5"/>
-      <c r="O35" s="5"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="6"/>
+      <c r="I35" s="6"/>
+      <c r="J35" s="6"/>
+      <c r="K35" s="6"/>
+      <c r="L35" s="6"/>
+      <c r="M35" s="6"/>
+      <c r="N35" s="6"/>
+      <c r="O35" s="6"/>
       <c r="Q35" s="3" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
-      <c r="G36" s="5"/>
-      <c r="H36" s="5"/>
-      <c r="I36" s="5"/>
-      <c r="J36" s="5"/>
-      <c r="K36" s="5"/>
-      <c r="L36" s="5"/>
-      <c r="M36" s="5"/>
-      <c r="N36" s="5"/>
-      <c r="O36" s="5"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6"/>
+      <c r="H36" s="6"/>
+      <c r="I36" s="6"/>
+      <c r="J36" s="6"/>
+      <c r="K36" s="6"/>
+      <c r="L36" s="6"/>
+      <c r="M36" s="6"/>
+      <c r="N36" s="6"/>
+      <c r="O36" s="6"/>
       <c r="Q36" s="3" t="s">
         <v>53</v>
       </c>
@@ -3125,37 +3282,37 @@
       <c r="B37" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="5"/>
-      <c r="F37" s="5"/>
-      <c r="G37" s="5"/>
-      <c r="H37" s="5"/>
-      <c r="I37" s="5"/>
-      <c r="J37" s="5"/>
-      <c r="K37" s="5"/>
-      <c r="L37" s="5"/>
-      <c r="M37" s="5"/>
-      <c r="N37" s="5"/>
-      <c r="O37" s="5"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="6"/>
+      <c r="I37" s="6"/>
+      <c r="J37" s="6"/>
+      <c r="K37" s="6"/>
+      <c r="L37" s="6"/>
+      <c r="M37" s="6"/>
+      <c r="N37" s="6"/>
+      <c r="O37" s="6"/>
       <c r="Q37" s="3" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="C38" s="5"/>
-      <c r="D38" s="5"/>
-      <c r="E38" s="5"/>
-      <c r="F38" s="5"/>
-      <c r="G38" s="5"/>
-      <c r="H38" s="5"/>
-      <c r="I38" s="5"/>
-      <c r="J38" s="5"/>
-      <c r="K38" s="5"/>
-      <c r="L38" s="5"/>
-      <c r="M38" s="5"/>
-      <c r="N38" s="5"/>
-      <c r="O38" s="5"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="6"/>
+      <c r="H38" s="6"/>
+      <c r="I38" s="6"/>
+      <c r="J38" s="6"/>
+      <c r="K38" s="6"/>
+      <c r="L38" s="6"/>
+      <c r="M38" s="6"/>
+      <c r="N38" s="6"/>
+      <c r="O38" s="6"/>
       <c r="Q38" s="3" t="s">
         <v>55</v>
       </c>
@@ -3167,37 +3324,37 @@
       <c r="B39" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C39" s="5"/>
-      <c r="D39" s="5"/>
-      <c r="E39" s="5"/>
-      <c r="F39" s="5"/>
-      <c r="G39" s="5"/>
-      <c r="H39" s="5"/>
-      <c r="I39" s="5"/>
-      <c r="J39" s="5"/>
-      <c r="K39" s="5"/>
-      <c r="L39" s="5"/>
-      <c r="M39" s="5"/>
-      <c r="N39" s="5"/>
-      <c r="O39" s="5"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="6"/>
+      <c r="H39" s="6"/>
+      <c r="I39" s="6"/>
+      <c r="J39" s="6"/>
+      <c r="K39" s="6"/>
+      <c r="L39" s="6"/>
+      <c r="M39" s="6"/>
+      <c r="N39" s="6"/>
+      <c r="O39" s="6"/>
       <c r="Q39" s="3" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="C40" s="5"/>
-      <c r="D40" s="5"/>
-      <c r="E40" s="5"/>
-      <c r="F40" s="5"/>
-      <c r="G40" s="5"/>
-      <c r="H40" s="5"/>
-      <c r="I40" s="5"/>
-      <c r="J40" s="5"/>
-      <c r="K40" s="5"/>
-      <c r="L40" s="5"/>
-      <c r="M40" s="5"/>
-      <c r="N40" s="5"/>
-      <c r="O40" s="5"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="6"/>
+      <c r="H40" s="6"/>
+      <c r="I40" s="6"/>
+      <c r="J40" s="6"/>
+      <c r="K40" s="6"/>
+      <c r="L40" s="6"/>
+      <c r="M40" s="6"/>
+      <c r="N40" s="6"/>
+      <c r="O40" s="6"/>
       <c r="Q40" s="3" t="s">
         <v>57</v>
       </c>
@@ -3209,37 +3366,37 @@
       <c r="B41" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C41" s="5"/>
-      <c r="D41" s="5"/>
-      <c r="E41" s="5"/>
-      <c r="F41" s="5"/>
-      <c r="G41" s="5"/>
-      <c r="H41" s="5"/>
-      <c r="I41" s="5"/>
-      <c r="J41" s="5"/>
-      <c r="K41" s="5"/>
-      <c r="L41" s="5"/>
-      <c r="M41" s="5"/>
-      <c r="N41" s="5"/>
-      <c r="O41" s="5"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="6"/>
+      <c r="H41" s="6"/>
+      <c r="I41" s="6"/>
+      <c r="J41" s="6"/>
+      <c r="K41" s="6"/>
+      <c r="L41" s="6"/>
+      <c r="M41" s="6"/>
+      <c r="N41" s="6"/>
+      <c r="O41" s="6"/>
       <c r="Q41" s="3" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="C42" s="5"/>
-      <c r="D42" s="5"/>
-      <c r="E42" s="5"/>
-      <c r="F42" s="5"/>
-      <c r="G42" s="5"/>
-      <c r="H42" s="5"/>
-      <c r="I42" s="5"/>
-      <c r="J42" s="5"/>
-      <c r="K42" s="5"/>
-      <c r="L42" s="5"/>
-      <c r="M42" s="5"/>
-      <c r="N42" s="5"/>
-      <c r="O42" s="5"/>
+      <c r="C42" s="6"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="6"/>
+      <c r="H42" s="6"/>
+      <c r="I42" s="6"/>
+      <c r="J42" s="6"/>
+      <c r="K42" s="6"/>
+      <c r="L42" s="6"/>
+      <c r="M42" s="6"/>
+      <c r="N42" s="6"/>
+      <c r="O42" s="6"/>
       <c r="Q42" s="3" t="s">
         <v>59</v>
       </c>
@@ -3251,37 +3408,37 @@
       <c r="B43" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C43" s="5"/>
-      <c r="D43" s="5"/>
-      <c r="E43" s="5"/>
-      <c r="F43" s="5"/>
-      <c r="G43" s="5"/>
-      <c r="H43" s="5"/>
-      <c r="I43" s="5"/>
-      <c r="J43" s="5"/>
-      <c r="K43" s="5"/>
-      <c r="L43" s="5"/>
-      <c r="M43" s="5"/>
-      <c r="N43" s="5"/>
-      <c r="O43" s="5"/>
+      <c r="C43" s="6"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="6"/>
+      <c r="H43" s="6"/>
+      <c r="I43" s="6"/>
+      <c r="J43" s="6"/>
+      <c r="K43" s="6"/>
+      <c r="L43" s="6"/>
+      <c r="M43" s="6"/>
+      <c r="N43" s="6"/>
+      <c r="O43" s="6"/>
       <c r="Q43" s="3" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="C44" s="5"/>
-      <c r="D44" s="5"/>
-      <c r="E44" s="5"/>
-      <c r="F44" s="5"/>
-      <c r="G44" s="5"/>
-      <c r="H44" s="5"/>
-      <c r="I44" s="5"/>
-      <c r="J44" s="5"/>
-      <c r="K44" s="5"/>
-      <c r="L44" s="5"/>
-      <c r="M44" s="5"/>
-      <c r="N44" s="5"/>
-      <c r="O44" s="5"/>
+      <c r="C44" s="6"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="6"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="6"/>
+      <c r="H44" s="6"/>
+      <c r="I44" s="6"/>
+      <c r="J44" s="6"/>
+      <c r="K44" s="6"/>
+      <c r="L44" s="6"/>
+      <c r="M44" s="6"/>
+      <c r="N44" s="6"/>
+      <c r="O44" s="6"/>
       <c r="Q44" s="3" t="s">
         <v>61</v>
       </c>
@@ -3290,40 +3447,40 @@
       <c r="A45">
         <v>18</v>
       </c>
-      <c r="B45" s="4" t="s">
+      <c r="B45" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C45" s="5"/>
-      <c r="D45" s="5"/>
-      <c r="E45" s="5"/>
-      <c r="F45" s="5"/>
-      <c r="G45" s="5"/>
-      <c r="H45" s="5"/>
-      <c r="I45" s="5"/>
-      <c r="J45" s="5"/>
-      <c r="K45" s="5"/>
-      <c r="L45" s="5"/>
-      <c r="M45" s="5"/>
-      <c r="N45" s="5"/>
-      <c r="O45" s="5"/>
+      <c r="C45" s="6"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="6"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="6"/>
+      <c r="H45" s="6"/>
+      <c r="I45" s="6"/>
+      <c r="J45" s="6"/>
+      <c r="K45" s="6"/>
+      <c r="L45" s="6"/>
+      <c r="M45" s="6"/>
+      <c r="N45" s="6"/>
+      <c r="O45" s="6"/>
       <c r="Q45" s="3" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="C46" s="5"/>
-      <c r="D46" s="5"/>
-      <c r="E46" s="5"/>
-      <c r="F46" s="5"/>
-      <c r="G46" s="5"/>
-      <c r="H46" s="5"/>
-      <c r="I46" s="5"/>
-      <c r="J46" s="5"/>
-      <c r="K46" s="5"/>
-      <c r="L46" s="5"/>
-      <c r="M46" s="5"/>
-      <c r="N46" s="5"/>
-      <c r="O46" s="5"/>
+      <c r="C46" s="6"/>
+      <c r="D46" s="6"/>
+      <c r="E46" s="6"/>
+      <c r="F46" s="6"/>
+      <c r="G46" s="6"/>
+      <c r="H46" s="6"/>
+      <c r="I46" s="6"/>
+      <c r="J46" s="6"/>
+      <c r="K46" s="6"/>
+      <c r="L46" s="6"/>
+      <c r="M46" s="6"/>
+      <c r="N46" s="6"/>
+      <c r="O46" s="6"/>
       <c r="Q46" s="3" t="s">
         <v>63</v>
       </c>
@@ -3332,40 +3489,40 @@
       <c r="A47">
         <v>19</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C47" s="5"/>
-      <c r="D47" s="5"/>
-      <c r="E47" s="5"/>
-      <c r="F47" s="5"/>
-      <c r="G47" s="5"/>
-      <c r="H47" s="5"/>
-      <c r="I47" s="5"/>
-      <c r="J47" s="5"/>
-      <c r="K47" s="5"/>
-      <c r="L47" s="5"/>
-      <c r="M47" s="5"/>
-      <c r="N47" s="5"/>
-      <c r="O47" s="5"/>
+      <c r="C47" s="6"/>
+      <c r="D47" s="6"/>
+      <c r="E47" s="6"/>
+      <c r="F47" s="6"/>
+      <c r="G47" s="6"/>
+      <c r="H47" s="6"/>
+      <c r="I47" s="6"/>
+      <c r="J47" s="6"/>
+      <c r="K47" s="6"/>
+      <c r="L47" s="6"/>
+      <c r="M47" s="6"/>
+      <c r="N47" s="6"/>
+      <c r="O47" s="6"/>
       <c r="Q47" s="3" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="C48" s="5"/>
-      <c r="D48" s="5"/>
-      <c r="E48" s="5"/>
-      <c r="F48" s="5"/>
-      <c r="G48" s="5"/>
-      <c r="H48" s="5"/>
-      <c r="I48" s="5"/>
-      <c r="J48" s="5"/>
-      <c r="K48" s="5"/>
-      <c r="L48" s="5"/>
-      <c r="M48" s="5"/>
-      <c r="N48" s="5"/>
-      <c r="O48" s="5"/>
+      <c r="C48" s="6"/>
+      <c r="D48" s="6"/>
+      <c r="E48" s="6"/>
+      <c r="F48" s="6"/>
+      <c r="G48" s="6"/>
+      <c r="H48" s="6"/>
+      <c r="I48" s="6"/>
+      <c r="J48" s="6"/>
+      <c r="K48" s="6"/>
+      <c r="L48" s="6"/>
+      <c r="M48" s="6"/>
+      <c r="N48" s="6"/>
+      <c r="O48" s="6"/>
       <c r="Q48" s="3" t="s">
         <v>65</v>
       </c>
@@ -3374,40 +3531,40 @@
       <c r="A49">
         <v>20</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C49" s="5"/>
-      <c r="D49" s="5"/>
-      <c r="E49" s="5"/>
-      <c r="F49" s="5"/>
-      <c r="G49" s="5"/>
-      <c r="H49" s="5"/>
-      <c r="I49" s="5"/>
-      <c r="J49" s="5"/>
-      <c r="K49" s="5"/>
-      <c r="L49" s="5"/>
-      <c r="M49" s="5"/>
-      <c r="N49" s="5"/>
-      <c r="O49" s="5"/>
+      <c r="C49" s="6"/>
+      <c r="D49" s="6"/>
+      <c r="E49" s="6"/>
+      <c r="F49" s="6"/>
+      <c r="G49" s="6"/>
+      <c r="H49" s="6"/>
+      <c r="I49" s="6"/>
+      <c r="J49" s="6"/>
+      <c r="K49" s="6"/>
+      <c r="L49" s="6"/>
+      <c r="M49" s="6"/>
+      <c r="N49" s="6"/>
+      <c r="O49" s="6"/>
       <c r="Q49" s="3" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="C50" s="5"/>
-      <c r="D50" s="5"/>
-      <c r="E50" s="5"/>
-      <c r="F50" s="5"/>
-      <c r="G50" s="5"/>
-      <c r="H50" s="5"/>
-      <c r="I50" s="5"/>
-      <c r="J50" s="5"/>
-      <c r="K50" s="5"/>
-      <c r="L50" s="5"/>
-      <c r="M50" s="5"/>
-      <c r="N50" s="5"/>
-      <c r="O50" s="5"/>
+      <c r="C50" s="6"/>
+      <c r="D50" s="6"/>
+      <c r="E50" s="6"/>
+      <c r="F50" s="6"/>
+      <c r="G50" s="6"/>
+      <c r="H50" s="6"/>
+      <c r="I50" s="6"/>
+      <c r="J50" s="6"/>
+      <c r="K50" s="6"/>
+      <c r="L50" s="6"/>
+      <c r="M50" s="6"/>
+      <c r="N50" s="6"/>
+      <c r="O50" s="6"/>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A51">
@@ -3416,73 +3573,73 @@
       <c r="B51" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C51" s="5"/>
-      <c r="D51" s="5"/>
-      <c r="E51" s="5"/>
-      <c r="F51" s="5"/>
-      <c r="G51" s="5"/>
-      <c r="H51" s="5"/>
-      <c r="I51" s="5"/>
-      <c r="J51" s="5"/>
-      <c r="K51" s="5"/>
-      <c r="L51" s="5"/>
-      <c r="M51" s="5"/>
-      <c r="N51" s="5"/>
-      <c r="O51" s="5"/>
+      <c r="C51" s="6"/>
+      <c r="D51" s="6"/>
+      <c r="E51" s="6"/>
+      <c r="F51" s="6"/>
+      <c r="G51" s="6"/>
+      <c r="H51" s="6"/>
+      <c r="I51" s="6"/>
+      <c r="J51" s="6"/>
+      <c r="K51" s="6"/>
+      <c r="L51" s="6"/>
+      <c r="M51" s="6"/>
+      <c r="N51" s="6"/>
+      <c r="O51" s="6"/>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="C52" s="5"/>
-      <c r="D52" s="5"/>
-      <c r="E52" s="5"/>
-      <c r="F52" s="5"/>
-      <c r="G52" s="5"/>
-      <c r="H52" s="5"/>
-      <c r="I52" s="5"/>
-      <c r="J52" s="5"/>
-      <c r="K52" s="5"/>
-      <c r="L52" s="5"/>
-      <c r="M52" s="5"/>
-      <c r="N52" s="5"/>
-      <c r="O52" s="5"/>
+      <c r="C52" s="6"/>
+      <c r="D52" s="6"/>
+      <c r="E52" s="6"/>
+      <c r="F52" s="6"/>
+      <c r="G52" s="6"/>
+      <c r="H52" s="6"/>
+      <c r="I52" s="6"/>
+      <c r="J52" s="6"/>
+      <c r="K52" s="6"/>
+      <c r="L52" s="6"/>
+      <c r="M52" s="6"/>
+      <c r="N52" s="6"/>
+      <c r="O52" s="6"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A53">
         <v>22</v>
       </c>
-      <c r="B53" s="4" t="s">
+      <c r="B53" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C53" s="5"/>
-      <c r="D53" s="5"/>
-      <c r="E53" s="5"/>
-      <c r="F53" s="5"/>
-      <c r="G53" s="5"/>
-      <c r="H53" s="5"/>
-      <c r="I53" s="5"/>
-      <c r="J53" s="5"/>
-      <c r="K53" s="5"/>
-      <c r="L53" s="5"/>
-      <c r="M53" s="5"/>
-      <c r="N53" s="5"/>
-      <c r="O53" s="5"/>
+      <c r="C53" s="6"/>
+      <c r="D53" s="6"/>
+      <c r="E53" s="6"/>
+      <c r="F53" s="6"/>
+      <c r="G53" s="6"/>
+      <c r="H53" s="6"/>
+      <c r="I53" s="6"/>
+      <c r="J53" s="6"/>
+      <c r="K53" s="6"/>
+      <c r="L53" s="6"/>
+      <c r="M53" s="6"/>
+      <c r="N53" s="6"/>
+      <c r="O53" s="6"/>
       <c r="Q53" s="3" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="C54" s="5"/>
-      <c r="D54" s="5"/>
-      <c r="E54" s="5"/>
-      <c r="F54" s="5"/>
-      <c r="G54" s="5"/>
-      <c r="H54" s="5"/>
-      <c r="I54" s="5"/>
-      <c r="J54" s="5"/>
-      <c r="K54" s="5"/>
-      <c r="L54" s="5"/>
-      <c r="M54" s="5"/>
-      <c r="N54" s="5"/>
-      <c r="O54" s="5"/>
+      <c r="C54" s="6"/>
+      <c r="D54" s="6"/>
+      <c r="E54" s="6"/>
+      <c r="F54" s="6"/>
+      <c r="G54" s="6"/>
+      <c r="H54" s="6"/>
+      <c r="I54" s="6"/>
+      <c r="J54" s="6"/>
+      <c r="K54" s="6"/>
+      <c r="L54" s="6"/>
+      <c r="M54" s="6"/>
+      <c r="N54" s="6"/>
+      <c r="O54" s="6"/>
       <c r="Q54" s="3" t="s">
         <v>68</v>
       </c>
@@ -3494,37 +3651,37 @@
       <c r="B55" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C55" s="5"/>
-      <c r="D55" s="5"/>
-      <c r="E55" s="5"/>
-      <c r="F55" s="5"/>
-      <c r="G55" s="5"/>
-      <c r="H55" s="5"/>
-      <c r="I55" s="5"/>
-      <c r="J55" s="5"/>
-      <c r="K55" s="5"/>
-      <c r="L55" s="5"/>
-      <c r="M55" s="5"/>
-      <c r="N55" s="5"/>
-      <c r="O55" s="5"/>
+      <c r="C55" s="6"/>
+      <c r="D55" s="6"/>
+      <c r="E55" s="6"/>
+      <c r="F55" s="6"/>
+      <c r="G55" s="6"/>
+      <c r="H55" s="6"/>
+      <c r="I55" s="6"/>
+      <c r="J55" s="6"/>
+      <c r="K55" s="6"/>
+      <c r="L55" s="6"/>
+      <c r="M55" s="6"/>
+      <c r="N55" s="6"/>
+      <c r="O55" s="6"/>
       <c r="Q55" s="3" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="C56" s="5"/>
-      <c r="D56" s="5"/>
-      <c r="E56" s="5"/>
-      <c r="F56" s="5"/>
-      <c r="G56" s="5"/>
-      <c r="H56" s="5"/>
-      <c r="I56" s="5"/>
-      <c r="J56" s="5"/>
-      <c r="K56" s="5"/>
-      <c r="L56" s="5"/>
-      <c r="M56" s="5"/>
-      <c r="N56" s="5"/>
-      <c r="O56" s="5"/>
+      <c r="C56" s="6"/>
+      <c r="D56" s="6"/>
+      <c r="E56" s="6"/>
+      <c r="F56" s="6"/>
+      <c r="G56" s="6"/>
+      <c r="H56" s="6"/>
+      <c r="I56" s="6"/>
+      <c r="J56" s="6"/>
+      <c r="K56" s="6"/>
+      <c r="L56" s="6"/>
+      <c r="M56" s="6"/>
+      <c r="N56" s="6"/>
+      <c r="O56" s="6"/>
       <c r="Q56" s="3" t="s">
         <v>70</v>
       </c>
@@ -3536,37 +3693,37 @@
       <c r="B57" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C57" s="5"/>
-      <c r="D57" s="5"/>
-      <c r="E57" s="5"/>
-      <c r="F57" s="5"/>
-      <c r="G57" s="5"/>
-      <c r="H57" s="5"/>
-      <c r="I57" s="5"/>
-      <c r="J57" s="5"/>
-      <c r="K57" s="5"/>
-      <c r="L57" s="5"/>
-      <c r="M57" s="5"/>
-      <c r="N57" s="5"/>
-      <c r="O57" s="5"/>
+      <c r="C57" s="6"/>
+      <c r="D57" s="6"/>
+      <c r="E57" s="6"/>
+      <c r="F57" s="6"/>
+      <c r="G57" s="6"/>
+      <c r="H57" s="6"/>
+      <c r="I57" s="6"/>
+      <c r="J57" s="6"/>
+      <c r="K57" s="6"/>
+      <c r="L57" s="6"/>
+      <c r="M57" s="6"/>
+      <c r="N57" s="6"/>
+      <c r="O57" s="6"/>
       <c r="Q57" s="3" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="C58" s="5"/>
-      <c r="D58" s="5"/>
-      <c r="E58" s="5"/>
-      <c r="F58" s="5"/>
-      <c r="G58" s="5"/>
-      <c r="H58" s="5"/>
-      <c r="I58" s="5"/>
-      <c r="J58" s="5"/>
-      <c r="K58" s="5"/>
-      <c r="L58" s="5"/>
-      <c r="M58" s="5"/>
-      <c r="N58" s="5"/>
-      <c r="O58" s="5"/>
+      <c r="C58" s="6"/>
+      <c r="D58" s="6"/>
+      <c r="E58" s="6"/>
+      <c r="F58" s="6"/>
+      <c r="G58" s="6"/>
+      <c r="H58" s="6"/>
+      <c r="I58" s="6"/>
+      <c r="J58" s="6"/>
+      <c r="K58" s="6"/>
+      <c r="L58" s="6"/>
+      <c r="M58" s="6"/>
+      <c r="N58" s="6"/>
+      <c r="O58" s="6"/>
       <c r="Q58" s="3" t="s">
         <v>72</v>
       </c>
@@ -3578,37 +3735,37 @@
       <c r="B59" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C59" s="5"/>
-      <c r="D59" s="5"/>
-      <c r="E59" s="5"/>
-      <c r="F59" s="5"/>
-      <c r="G59" s="5"/>
-      <c r="H59" s="5"/>
-      <c r="I59" s="5"/>
-      <c r="J59" s="5"/>
-      <c r="K59" s="5"/>
-      <c r="L59" s="5"/>
-      <c r="M59" s="5"/>
-      <c r="N59" s="5"/>
-      <c r="O59" s="5"/>
+      <c r="C59" s="6"/>
+      <c r="D59" s="6"/>
+      <c r="E59" s="6"/>
+      <c r="F59" s="6"/>
+      <c r="G59" s="6"/>
+      <c r="H59" s="6"/>
+      <c r="I59" s="6"/>
+      <c r="J59" s="6"/>
+      <c r="K59" s="6"/>
+      <c r="L59" s="6"/>
+      <c r="M59" s="6"/>
+      <c r="N59" s="6"/>
+      <c r="O59" s="6"/>
       <c r="Q59" s="3" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="C60" s="5"/>
-      <c r="D60" s="5"/>
-      <c r="E60" s="5"/>
-      <c r="F60" s="5"/>
-      <c r="G60" s="5"/>
-      <c r="H60" s="5"/>
-      <c r="I60" s="5"/>
-      <c r="J60" s="5"/>
-      <c r="K60" s="5"/>
-      <c r="L60" s="5"/>
-      <c r="M60" s="5"/>
-      <c r="N60" s="5"/>
-      <c r="O60" s="5"/>
+      <c r="C60" s="6"/>
+      <c r="D60" s="6"/>
+      <c r="E60" s="6"/>
+      <c r="F60" s="6"/>
+      <c r="G60" s="6"/>
+      <c r="H60" s="6"/>
+      <c r="I60" s="6"/>
+      <c r="J60" s="6"/>
+      <c r="K60" s="6"/>
+      <c r="L60" s="6"/>
+      <c r="M60" s="6"/>
+      <c r="N60" s="6"/>
+      <c r="O60" s="6"/>
       <c r="Q60" s="3" t="s">
         <v>74</v>
       </c>
@@ -3620,73 +3777,73 @@
       <c r="B61" t="s">
         <v>15</v>
       </c>
-      <c r="C61" s="5"/>
-      <c r="D61" s="5"/>
-      <c r="E61" s="5"/>
-      <c r="F61" s="5"/>
-      <c r="G61" s="5"/>
-      <c r="H61" s="5"/>
-      <c r="I61" s="5"/>
-      <c r="J61" s="5"/>
-      <c r="K61" s="5"/>
-      <c r="L61" s="5"/>
-      <c r="M61" s="5"/>
-      <c r="N61" s="5"/>
-      <c r="O61" s="5"/>
+      <c r="C61" s="6"/>
+      <c r="D61" s="6"/>
+      <c r="E61" s="6"/>
+      <c r="F61" s="6"/>
+      <c r="G61" s="6"/>
+      <c r="H61" s="6"/>
+      <c r="I61" s="6"/>
+      <c r="J61" s="6"/>
+      <c r="K61" s="6"/>
+      <c r="L61" s="6"/>
+      <c r="M61" s="6"/>
+      <c r="N61" s="6"/>
+      <c r="O61" s="6"/>
       <c r="Q61" s="3" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="C62" s="5"/>
-      <c r="D62" s="5"/>
-      <c r="E62" s="5"/>
-      <c r="F62" s="5"/>
-      <c r="G62" s="5"/>
-      <c r="H62" s="5"/>
-      <c r="I62" s="5"/>
-      <c r="J62" s="5"/>
-      <c r="K62" s="5"/>
-      <c r="L62" s="5"/>
-      <c r="M62" s="5"/>
-      <c r="N62" s="5"/>
-      <c r="O62" s="5"/>
+      <c r="C62" s="6"/>
+      <c r="D62" s="6"/>
+      <c r="E62" s="6"/>
+      <c r="F62" s="6"/>
+      <c r="G62" s="6"/>
+      <c r="H62" s="6"/>
+      <c r="I62" s="6"/>
+      <c r="J62" s="6"/>
+      <c r="K62" s="6"/>
+      <c r="L62" s="6"/>
+      <c r="M62" s="6"/>
+      <c r="N62" s="6"/>
+      <c r="O62" s="6"/>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A63">
         <v>27</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B63" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C63" s="5"/>
-      <c r="D63" s="5"/>
-      <c r="E63" s="5"/>
-      <c r="F63" s="5"/>
-      <c r="G63" s="5"/>
-      <c r="H63" s="5"/>
-      <c r="I63" s="5"/>
-      <c r="J63" s="5"/>
-      <c r="K63" s="5"/>
-      <c r="L63" s="5"/>
-      <c r="M63" s="5"/>
-      <c r="N63" s="5"/>
-      <c r="O63" s="5"/>
+      <c r="C63" s="6"/>
+      <c r="D63" s="6"/>
+      <c r="E63" s="6"/>
+      <c r="F63" s="6"/>
+      <c r="G63" s="6"/>
+      <c r="H63" s="6"/>
+      <c r="I63" s="6"/>
+      <c r="J63" s="6"/>
+      <c r="K63" s="6"/>
+      <c r="L63" s="6"/>
+      <c r="M63" s="6"/>
+      <c r="N63" s="6"/>
+      <c r="O63" s="6"/>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="C64" s="5"/>
-      <c r="D64" s="5"/>
-      <c r="E64" s="5"/>
-      <c r="F64" s="5"/>
-      <c r="G64" s="5"/>
-      <c r="H64" s="5"/>
-      <c r="I64" s="5"/>
-      <c r="J64" s="5"/>
-      <c r="K64" s="5"/>
-      <c r="L64" s="5"/>
-      <c r="M64" s="5"/>
-      <c r="N64" s="5"/>
-      <c r="O64" s="5"/>
+      <c r="C64" s="6"/>
+      <c r="D64" s="6"/>
+      <c r="E64" s="6"/>
+      <c r="F64" s="6"/>
+      <c r="G64" s="6"/>
+      <c r="H64" s="6"/>
+      <c r="I64" s="6"/>
+      <c r="J64" s="6"/>
+      <c r="K64" s="6"/>
+      <c r="L64" s="6"/>
+      <c r="M64" s="6"/>
+      <c r="N64" s="6"/>
+      <c r="O64" s="6"/>
       <c r="Q64" s="3" t="s">
         <v>76</v>
       </c>
@@ -3698,37 +3855,37 @@
       <c r="B65" t="s">
         <v>17</v>
       </c>
-      <c r="C65" s="5"/>
-      <c r="D65" s="5"/>
-      <c r="E65" s="5"/>
-      <c r="F65" s="5"/>
-      <c r="G65" s="5"/>
-      <c r="H65" s="5"/>
-      <c r="I65" s="5"/>
-      <c r="J65" s="5"/>
-      <c r="K65" s="5"/>
-      <c r="L65" s="5"/>
-      <c r="M65" s="5"/>
-      <c r="N65" s="5"/>
-      <c r="O65" s="5"/>
+      <c r="C65" s="6"/>
+      <c r="D65" s="6"/>
+      <c r="E65" s="6"/>
+      <c r="F65" s="6"/>
+      <c r="G65" s="6"/>
+      <c r="H65" s="6"/>
+      <c r="I65" s="6"/>
+      <c r="J65" s="6"/>
+      <c r="K65" s="6"/>
+      <c r="L65" s="6"/>
+      <c r="M65" s="6"/>
+      <c r="N65" s="6"/>
+      <c r="O65" s="6"/>
       <c r="Q65" s="3" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="C66" s="5"/>
-      <c r="D66" s="5"/>
-      <c r="E66" s="5"/>
-      <c r="F66" s="5"/>
-      <c r="G66" s="5"/>
-      <c r="H66" s="5"/>
-      <c r="I66" s="5"/>
-      <c r="J66" s="5"/>
-      <c r="K66" s="5"/>
-      <c r="L66" s="5"/>
-      <c r="M66" s="5"/>
-      <c r="N66" s="5"/>
-      <c r="O66" s="5"/>
+      <c r="C66" s="6"/>
+      <c r="D66" s="6"/>
+      <c r="E66" s="6"/>
+      <c r="F66" s="6"/>
+      <c r="G66" s="6"/>
+      <c r="H66" s="6"/>
+      <c r="I66" s="6"/>
+      <c r="J66" s="6"/>
+      <c r="K66" s="6"/>
+      <c r="L66" s="6"/>
+      <c r="M66" s="6"/>
+      <c r="N66" s="6"/>
+      <c r="O66" s="6"/>
       <c r="Q66" s="3" t="s">
         <v>78</v>
       </c>
@@ -3740,37 +3897,37 @@
       <c r="B67" t="s">
         <v>18</v>
       </c>
-      <c r="C67" s="5"/>
-      <c r="D67" s="5"/>
-      <c r="E67" s="5"/>
-      <c r="F67" s="5"/>
-      <c r="G67" s="5"/>
-      <c r="H67" s="5"/>
-      <c r="I67" s="5"/>
-      <c r="J67" s="5"/>
-      <c r="K67" s="5"/>
-      <c r="L67" s="5"/>
-      <c r="M67" s="5"/>
-      <c r="N67" s="5"/>
-      <c r="O67" s="5"/>
+      <c r="C67" s="6"/>
+      <c r="D67" s="6"/>
+      <c r="E67" s="6"/>
+      <c r="F67" s="6"/>
+      <c r="G67" s="6"/>
+      <c r="H67" s="6"/>
+      <c r="I67" s="6"/>
+      <c r="J67" s="6"/>
+      <c r="K67" s="6"/>
+      <c r="L67" s="6"/>
+      <c r="M67" s="6"/>
+      <c r="N67" s="6"/>
+      <c r="O67" s="6"/>
       <c r="Q67" s="3" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="C68" s="5"/>
-      <c r="D68" s="5"/>
-      <c r="E68" s="5"/>
-      <c r="F68" s="5"/>
-      <c r="G68" s="5"/>
-      <c r="H68" s="5"/>
-      <c r="I68" s="5"/>
-      <c r="J68" s="5"/>
-      <c r="K68" s="5"/>
-      <c r="L68" s="5"/>
-      <c r="M68" s="5"/>
-      <c r="N68" s="5"/>
-      <c r="O68" s="5"/>
+      <c r="C68" s="6"/>
+      <c r="D68" s="6"/>
+      <c r="E68" s="6"/>
+      <c r="F68" s="6"/>
+      <c r="G68" s="6"/>
+      <c r="H68" s="6"/>
+      <c r="I68" s="6"/>
+      <c r="J68" s="6"/>
+      <c r="K68" s="6"/>
+      <c r="L68" s="6"/>
+      <c r="M68" s="6"/>
+      <c r="N68" s="6"/>
+      <c r="O68" s="6"/>
       <c r="Q68" s="3" t="s">
         <v>80</v>
       </c>
@@ -3782,37 +3939,37 @@
       <c r="B69" t="s">
         <v>19</v>
       </c>
-      <c r="C69" s="5"/>
-      <c r="D69" s="5"/>
-      <c r="E69" s="5"/>
-      <c r="F69" s="5"/>
-      <c r="G69" s="5"/>
-      <c r="H69" s="5"/>
-      <c r="I69" s="5"/>
-      <c r="J69" s="5"/>
-      <c r="K69" s="5"/>
-      <c r="L69" s="5"/>
-      <c r="M69" s="5"/>
-      <c r="N69" s="5"/>
-      <c r="O69" s="5"/>
+      <c r="C69" s="6"/>
+      <c r="D69" s="6"/>
+      <c r="E69" s="6"/>
+      <c r="F69" s="6"/>
+      <c r="G69" s="6"/>
+      <c r="H69" s="6"/>
+      <c r="I69" s="6"/>
+      <c r="J69" s="6"/>
+      <c r="K69" s="6"/>
+      <c r="L69" s="6"/>
+      <c r="M69" s="6"/>
+      <c r="N69" s="6"/>
+      <c r="O69" s="6"/>
       <c r="Q69" s="3" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="C70" s="5"/>
-      <c r="D70" s="5"/>
-      <c r="E70" s="5"/>
-      <c r="F70" s="5"/>
-      <c r="G70" s="5"/>
-      <c r="H70" s="5"/>
-      <c r="I70" s="5"/>
-      <c r="J70" s="5"/>
-      <c r="K70" s="5"/>
-      <c r="L70" s="5"/>
-      <c r="M70" s="5"/>
-      <c r="N70" s="5"/>
-      <c r="O70" s="5"/>
+      <c r="C70" s="6"/>
+      <c r="D70" s="6"/>
+      <c r="E70" s="6"/>
+      <c r="F70" s="6"/>
+      <c r="G70" s="6"/>
+      <c r="H70" s="6"/>
+      <c r="I70" s="6"/>
+      <c r="J70" s="6"/>
+      <c r="K70" s="6"/>
+      <c r="L70" s="6"/>
+      <c r="M70" s="6"/>
+      <c r="N70" s="6"/>
+      <c r="O70" s="6"/>
       <c r="Q70" s="3" t="s">
         <v>82</v>
       </c>
@@ -3824,154 +3981,154 @@
       <c r="B71" t="s">
         <v>20</v>
       </c>
-      <c r="C71" s="5"/>
-      <c r="D71" s="5"/>
-      <c r="E71" s="5"/>
-      <c r="F71" s="5"/>
-      <c r="G71" s="5"/>
-      <c r="H71" s="5"/>
-      <c r="I71" s="5"/>
-      <c r="J71" s="5"/>
-      <c r="K71" s="5"/>
-      <c r="L71" s="5"/>
-      <c r="M71" s="5"/>
-      <c r="N71" s="5"/>
-      <c r="O71" s="5"/>
+      <c r="C71" s="6"/>
+      <c r="D71" s="6"/>
+      <c r="E71" s="6"/>
+      <c r="F71" s="6"/>
+      <c r="G71" s="6"/>
+      <c r="H71" s="6"/>
+      <c r="I71" s="6"/>
+      <c r="J71" s="6"/>
+      <c r="K71" s="6"/>
+      <c r="L71" s="6"/>
+      <c r="M71" s="6"/>
+      <c r="N71" s="6"/>
+      <c r="O71" s="6"/>
       <c r="Q71" s="3" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="C72" s="5"/>
-      <c r="D72" s="5"/>
-      <c r="E72" s="5"/>
-      <c r="F72" s="5"/>
-      <c r="G72" s="5"/>
-      <c r="H72" s="5"/>
-      <c r="I72" s="5"/>
-      <c r="J72" s="5"/>
-      <c r="K72" s="5"/>
-      <c r="L72" s="5"/>
-      <c r="M72" s="5"/>
-      <c r="N72" s="5"/>
-      <c r="O72" s="5"/>
+      <c r="C72" s="6"/>
+      <c r="D72" s="6"/>
+      <c r="E72" s="6"/>
+      <c r="F72" s="6"/>
+      <c r="G72" s="6"/>
+      <c r="H72" s="6"/>
+      <c r="I72" s="6"/>
+      <c r="J72" s="6"/>
+      <c r="K72" s="6"/>
+      <c r="L72" s="6"/>
+      <c r="M72" s="6"/>
+      <c r="N72" s="6"/>
+      <c r="O72" s="6"/>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="C73" s="5"/>
-      <c r="D73" s="5"/>
-      <c r="E73" s="5"/>
-      <c r="F73" s="5"/>
-      <c r="G73" s="5"/>
-      <c r="H73" s="5"/>
-      <c r="I73" s="5"/>
-      <c r="J73" s="5"/>
-      <c r="K73" s="5"/>
-      <c r="L73" s="5"/>
-      <c r="M73" s="5"/>
-      <c r="N73" s="5"/>
-      <c r="O73" s="5"/>
+      <c r="C73" s="6"/>
+      <c r="D73" s="6"/>
+      <c r="E73" s="6"/>
+      <c r="F73" s="6"/>
+      <c r="G73" s="6"/>
+      <c r="H73" s="6"/>
+      <c r="I73" s="6"/>
+      <c r="J73" s="6"/>
+      <c r="K73" s="6"/>
+      <c r="L73" s="6"/>
+      <c r="M73" s="6"/>
+      <c r="N73" s="6"/>
+      <c r="O73" s="6"/>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="C74" s="5"/>
-      <c r="D74" s="5"/>
-      <c r="E74" s="5"/>
-      <c r="F74" s="5"/>
-      <c r="G74" s="5"/>
-      <c r="H74" s="5"/>
-      <c r="I74" s="5"/>
-      <c r="J74" s="5"/>
-      <c r="K74" s="5"/>
-      <c r="L74" s="5"/>
-      <c r="M74" s="5"/>
-      <c r="N74" s="5"/>
-      <c r="O74" s="5"/>
+      <c r="C74" s="6"/>
+      <c r="D74" s="6"/>
+      <c r="E74" s="6"/>
+      <c r="F74" s="6"/>
+      <c r="G74" s="6"/>
+      <c r="H74" s="6"/>
+      <c r="I74" s="6"/>
+      <c r="J74" s="6"/>
+      <c r="K74" s="6"/>
+      <c r="L74" s="6"/>
+      <c r="M74" s="6"/>
+      <c r="N74" s="6"/>
+      <c r="O74" s="6"/>
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="C75" s="5"/>
-      <c r="D75" s="5"/>
-      <c r="E75" s="5"/>
-      <c r="F75" s="5"/>
-      <c r="G75" s="5"/>
-      <c r="H75" s="5"/>
-      <c r="I75" s="5"/>
-      <c r="J75" s="5"/>
-      <c r="K75" s="5"/>
-      <c r="L75" s="5"/>
-      <c r="M75" s="5"/>
-      <c r="N75" s="5"/>
-      <c r="O75" s="5"/>
+      <c r="C75" s="6"/>
+      <c r="D75" s="6"/>
+      <c r="E75" s="6"/>
+      <c r="F75" s="6"/>
+      <c r="G75" s="6"/>
+      <c r="H75" s="6"/>
+      <c r="I75" s="6"/>
+      <c r="J75" s="6"/>
+      <c r="K75" s="6"/>
+      <c r="L75" s="6"/>
+      <c r="M75" s="6"/>
+      <c r="N75" s="6"/>
+      <c r="O75" s="6"/>
       <c r="Q75" s="3" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="C76" s="5"/>
-      <c r="D76" s="5"/>
-      <c r="E76" s="5"/>
-      <c r="F76" s="5"/>
-      <c r="G76" s="5"/>
-      <c r="H76" s="5"/>
-      <c r="I76" s="5"/>
-      <c r="J76" s="5"/>
-      <c r="K76" s="5"/>
-      <c r="L76" s="5"/>
-      <c r="M76" s="5"/>
-      <c r="N76" s="5"/>
-      <c r="O76" s="5"/>
+      <c r="C76" s="6"/>
+      <c r="D76" s="6"/>
+      <c r="E76" s="6"/>
+      <c r="F76" s="6"/>
+      <c r="G76" s="6"/>
+      <c r="H76" s="6"/>
+      <c r="I76" s="6"/>
+      <c r="J76" s="6"/>
+      <c r="K76" s="6"/>
+      <c r="L76" s="6"/>
+      <c r="M76" s="6"/>
+      <c r="N76" s="6"/>
+      <c r="O76" s="6"/>
       <c r="Q76" s="3" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="C77" s="5"/>
-      <c r="D77" s="5"/>
-      <c r="E77" s="5"/>
-      <c r="F77" s="5"/>
-      <c r="G77" s="5"/>
-      <c r="H77" s="5"/>
-      <c r="I77" s="5"/>
-      <c r="J77" s="5"/>
-      <c r="K77" s="5"/>
-      <c r="L77" s="5"/>
-      <c r="M77" s="5"/>
-      <c r="N77" s="5"/>
-      <c r="O77" s="5"/>
+      <c r="C77" s="6"/>
+      <c r="D77" s="6"/>
+      <c r="E77" s="6"/>
+      <c r="F77" s="6"/>
+      <c r="G77" s="6"/>
+      <c r="H77" s="6"/>
+      <c r="I77" s="6"/>
+      <c r="J77" s="6"/>
+      <c r="K77" s="6"/>
+      <c r="L77" s="6"/>
+      <c r="M77" s="6"/>
+      <c r="N77" s="6"/>
+      <c r="O77" s="6"/>
       <c r="Q77" s="3" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="C78" s="5"/>
-      <c r="D78" s="5"/>
-      <c r="E78" s="5"/>
-      <c r="F78" s="5"/>
-      <c r="G78" s="5"/>
-      <c r="H78" s="5"/>
-      <c r="I78" s="5"/>
-      <c r="J78" s="5"/>
-      <c r="K78" s="5"/>
-      <c r="L78" s="5"/>
-      <c r="M78" s="5"/>
-      <c r="N78" s="5"/>
-      <c r="O78" s="5"/>
+      <c r="C78" s="6"/>
+      <c r="D78" s="6"/>
+      <c r="E78" s="6"/>
+      <c r="F78" s="6"/>
+      <c r="G78" s="6"/>
+      <c r="H78" s="6"/>
+      <c r="I78" s="6"/>
+      <c r="J78" s="6"/>
+      <c r="K78" s="6"/>
+      <c r="L78" s="6"/>
+      <c r="M78" s="6"/>
+      <c r="N78" s="6"/>
+      <c r="O78" s="6"/>
       <c r="Q78" s="3" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="C79" s="5"/>
-      <c r="D79" s="5"/>
-      <c r="E79" s="5"/>
-      <c r="F79" s="5"/>
-      <c r="G79" s="5"/>
-      <c r="H79" s="5"/>
-      <c r="I79" s="5"/>
-      <c r="J79" s="5"/>
-      <c r="K79" s="5"/>
-      <c r="L79" s="5"/>
-      <c r="M79" s="5"/>
-      <c r="N79" s="5"/>
-      <c r="O79" s="5"/>
+      <c r="C79" s="6"/>
+      <c r="D79" s="6"/>
+      <c r="E79" s="6"/>
+      <c r="F79" s="6"/>
+      <c r="G79" s="6"/>
+      <c r="H79" s="6"/>
+      <c r="I79" s="6"/>
+      <c r="J79" s="6"/>
+      <c r="K79" s="6"/>
+      <c r="L79" s="6"/>
+      <c r="M79" s="6"/>
+      <c r="N79" s="6"/>
+      <c r="O79" s="6"/>
       <c r="Q79" s="3" t="s">
         <v>88</v>
       </c>
@@ -5182,9 +5339,10 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="C12:O79"/>
     <mergeCell ref="A1:Q7"/>
+    <mergeCell ref="C8:O10"/>
   </mergeCells>
   <conditionalFormatting sqref="C12:O79">
     <cfRule type="colorScale" priority="1">

--- a/notes/java_syllbus.xlsx
+++ b/notes/java_syllbus.xlsx
@@ -1893,9 +1893,7 @@
           <a:r>
             <a:rPr lang="en-IN" sz="2000" b="1" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:lumMod val="75000"/>
-                </a:schemeClr>
+                <a:srgbClr val="FF0000"/>
               </a:solidFill>
             </a:rPr>
             <a:t>Object class</a:t>
@@ -2546,7 +2544,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q412"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="10" zoomScalePageLayoutView="134" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="10" zoomScalePageLayoutView="134" workbookViewId="0">
       <selection activeCell="C12" sqref="C12:O79"/>
     </sheetView>
   </sheetViews>

--- a/notes/java_syllbus.xlsx
+++ b/notes/java_syllbus.xlsx
@@ -81,9 +81,6 @@
     <t>Design Patterns</t>
   </si>
   <si>
-    <t>Database</t>
-  </si>
-  <si>
     <t>Data Types in Java (completed)</t>
   </si>
   <si>
@@ -997,6 +994,9 @@
   </si>
   <si>
     <t>Thank</t>
+  </si>
+  <si>
+    <t>Database sql???</t>
   </si>
 </sst>
 </file>
@@ -1006,7 +1006,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_ &quot;₹&quot;\ * #,##0.00_ ;_ &quot;₹&quot;\ * \-#,##0.00_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1035,8 +1035,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1053,8 +1068,18 @@
         <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1062,13 +1087,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1081,10 +1123,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="4"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="5">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
+    <cellStyle name="Calculation" xfId="4" builtinId="22"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1861,9 +1907,7 @@
           <a:r>
             <a:rPr lang="en-IN" sz="2000" b="1" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:lumMod val="75000"/>
-                </a:schemeClr>
+                <a:schemeClr val="accent2"/>
               </a:solidFill>
             </a:rPr>
             <a:t>Java threading</a:t>
@@ -1882,7 +1926,7 @@
                 </a:schemeClr>
               </a:solidFill>
             </a:rPr>
-            <a:t>Serialization</a:t>
+            <a:t>Io streams</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -1893,10 +1937,12 @@
           <a:r>
             <a:rPr lang="en-IN" sz="2000" b="1" baseline="0">
               <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Object class</a:t>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>collections</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -1912,23 +1958,7 @@
                 </a:schemeClr>
               </a:solidFill>
             </a:rPr>
-            <a:t>Io streams</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="342900" indent="-342900">
-            <a:buFont typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            <a:buChar char="•"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-IN" sz="2000" b="1" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:lumMod val="75000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>collections</a:t>
+            <a:t>Serialization</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -2544,8 +2574,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q412"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="10" zoomScalePageLayoutView="134" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12:O79"/>
+    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="86" zoomScaleNormal="10" zoomScalePageLayoutView="134" workbookViewId="0">
+      <selection activeCell="B75" sqref="B75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.4" x14ac:dyDescent="0.45"/>
@@ -2808,7 +2838,7 @@
       <c r="N14" s="6"/>
       <c r="O14" s="6"/>
       <c r="Q14" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.45">
@@ -2816,7 +2846,7 @@
         <v>3</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
@@ -2832,7 +2862,7 @@
       <c r="N15" s="6"/>
       <c r="O15" s="6"/>
       <c r="Q15" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.45">
@@ -2850,7 +2880,7 @@
       <c r="N16" s="6"/>
       <c r="O16" s="6"/>
       <c r="Q16" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.45">
@@ -2858,7 +2888,7 @@
         <v>4</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
@@ -2874,7 +2904,7 @@
       <c r="N17" s="6"/>
       <c r="O17" s="6"/>
       <c r="Q17" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.45">
@@ -2892,7 +2922,7 @@
       <c r="N18" s="6"/>
       <c r="O18" s="6"/>
       <c r="Q18" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.45">
@@ -2900,7 +2930,7 @@
         <v>5</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
@@ -2916,7 +2946,7 @@
       <c r="N19" s="6"/>
       <c r="O19" s="6"/>
       <c r="Q19" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.45">
@@ -2934,7 +2964,7 @@
       <c r="N20" s="6"/>
       <c r="O20" s="6"/>
       <c r="Q20" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.45">
@@ -2958,7 +2988,7 @@
       <c r="N21" s="6"/>
       <c r="O21" s="6"/>
       <c r="Q21" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.45">
@@ -2976,7 +3006,7 @@
       <c r="N22" s="6"/>
       <c r="O22" s="6"/>
       <c r="Q22" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.45">
@@ -3000,7 +3030,7 @@
       <c r="N23" s="6"/>
       <c r="O23" s="6"/>
       <c r="Q23" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.45">
@@ -3018,7 +3048,7 @@
       <c r="N24" s="6"/>
       <c r="O24" s="6"/>
       <c r="Q24" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.45">
@@ -3042,7 +3072,7 @@
       <c r="N25" s="6"/>
       <c r="O25" s="6"/>
       <c r="Q25" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.45">
@@ -3060,7 +3090,7 @@
       <c r="N26" s="6"/>
       <c r="O26" s="6"/>
       <c r="Q26" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.45">
@@ -3084,7 +3114,7 @@
       <c r="N27" s="6"/>
       <c r="O27" s="6"/>
       <c r="Q27" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.45">
@@ -3102,7 +3132,7 @@
       <c r="N28" s="6"/>
       <c r="O28" s="6"/>
       <c r="Q28" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.45">
@@ -3110,7 +3140,7 @@
         <v>10</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C29" s="6"/>
       <c r="D29" s="6"/>
@@ -3126,7 +3156,7 @@
       <c r="N29" s="6"/>
       <c r="O29" s="6"/>
       <c r="Q29" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.45">
@@ -3144,7 +3174,7 @@
       <c r="N30" s="6"/>
       <c r="O30" s="6"/>
       <c r="Q30" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.45">
@@ -3168,7 +3198,7 @@
       <c r="N31" s="6"/>
       <c r="O31" s="6"/>
       <c r="Q31" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.45">
@@ -3186,7 +3216,7 @@
       <c r="N32" s="6"/>
       <c r="O32" s="6"/>
       <c r="Q32" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.45">
@@ -3210,7 +3240,7 @@
       <c r="N33" s="6"/>
       <c r="O33" s="6"/>
       <c r="Q33" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.45">
@@ -3228,7 +3258,7 @@
       <c r="N34" s="6"/>
       <c r="O34" s="6"/>
       <c r="Q34" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.45">
@@ -3252,7 +3282,7 @@
       <c r="N35" s="6"/>
       <c r="O35" s="6"/>
       <c r="Q35" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.45">
@@ -3270,7 +3300,7 @@
       <c r="N36" s="6"/>
       <c r="O36" s="6"/>
       <c r="Q36" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.45">
@@ -3294,7 +3324,7 @@
       <c r="N37" s="6"/>
       <c r="O37" s="6"/>
       <c r="Q37" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.45">
@@ -3312,7 +3342,7 @@
       <c r="N38" s="6"/>
       <c r="O38" s="6"/>
       <c r="Q38" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.45">
@@ -3320,7 +3350,7 @@
         <v>15</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C39" s="6"/>
       <c r="D39" s="6"/>
@@ -3336,7 +3366,7 @@
       <c r="N39" s="6"/>
       <c r="O39" s="6"/>
       <c r="Q39" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.45">
@@ -3354,7 +3384,7 @@
       <c r="N40" s="6"/>
       <c r="O40" s="6"/>
       <c r="Q40" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.45">
@@ -3362,7 +3392,7 @@
         <v>16</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C41" s="6"/>
       <c r="D41" s="6"/>
@@ -3378,7 +3408,7 @@
       <c r="N41" s="6"/>
       <c r="O41" s="6"/>
       <c r="Q41" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.45">
@@ -3396,7 +3426,7 @@
       <c r="N42" s="6"/>
       <c r="O42" s="6"/>
       <c r="Q42" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.45">
@@ -3404,7 +3434,7 @@
         <v>17</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C43" s="6"/>
       <c r="D43" s="6"/>
@@ -3420,7 +3450,7 @@
       <c r="N43" s="6"/>
       <c r="O43" s="6"/>
       <c r="Q43" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.45">
@@ -3438,7 +3468,7 @@
       <c r="N44" s="6"/>
       <c r="O44" s="6"/>
       <c r="Q44" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.45">
@@ -3462,7 +3492,7 @@
       <c r="N45" s="6"/>
       <c r="O45" s="6"/>
       <c r="Q45" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.45">
@@ -3480,7 +3510,7 @@
       <c r="N46" s="6"/>
       <c r="O46" s="6"/>
       <c r="Q46" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.45">
@@ -3504,7 +3534,7 @@
       <c r="N47" s="6"/>
       <c r="O47" s="6"/>
       <c r="Q47" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.45">
@@ -3522,7 +3552,7 @@
       <c r="N48" s="6"/>
       <c r="O48" s="6"/>
       <c r="Q48" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.45">
@@ -3546,7 +3576,7 @@
       <c r="N49" s="6"/>
       <c r="O49" s="6"/>
       <c r="Q49" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.45">
@@ -3621,7 +3651,7 @@
       <c r="N53" s="6"/>
       <c r="O53" s="6"/>
       <c r="Q53" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.45">
@@ -3639,7 +3669,7 @@
       <c r="N54" s="6"/>
       <c r="O54" s="6"/>
       <c r="Q54" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.45">
@@ -3647,7 +3677,7 @@
         <v>23</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C55" s="6"/>
       <c r="D55" s="6"/>
@@ -3663,7 +3693,7 @@
       <c r="N55" s="6"/>
       <c r="O55" s="6"/>
       <c r="Q55" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.45">
@@ -3681,7 +3711,7 @@
       <c r="N56" s="6"/>
       <c r="O56" s="6"/>
       <c r="Q56" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.45">
@@ -3689,7 +3719,7 @@
         <v>24</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C57" s="6"/>
       <c r="D57" s="6"/>
@@ -3705,7 +3735,7 @@
       <c r="N57" s="6"/>
       <c r="O57" s="6"/>
       <c r="Q57" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.45">
@@ -3723,7 +3753,7 @@
       <c r="N58" s="6"/>
       <c r="O58" s="6"/>
       <c r="Q58" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.45">
@@ -3731,7 +3761,7 @@
         <v>25</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C59" s="6"/>
       <c r="D59" s="6"/>
@@ -3747,7 +3777,7 @@
       <c r="N59" s="6"/>
       <c r="O59" s="6"/>
       <c r="Q59" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.45">
@@ -3765,7 +3795,7 @@
       <c r="N60" s="6"/>
       <c r="O60" s="6"/>
       <c r="Q60" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.45">
@@ -3789,7 +3819,7 @@
       <c r="N61" s="6"/>
       <c r="O61" s="6"/>
       <c r="Q61" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.45">
@@ -3843,14 +3873,14 @@
       <c r="N64" s="6"/>
       <c r="O64" s="6"/>
       <c r="Q64" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A65">
+      <c r="A65" s="9">
         <v>28</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B65" s="9" t="s">
         <v>17</v>
       </c>
       <c r="C65" s="6"/>
@@ -3867,10 +3897,12 @@
       <c r="N65" s="6"/>
       <c r="O65" s="6"/>
       <c r="Q65" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A66" s="9"/>
+      <c r="B66" s="9"/>
       <c r="C66" s="6"/>
       <c r="D66" s="6"/>
       <c r="E66" s="6"/>
@@ -3885,14 +3917,14 @@
       <c r="N66" s="6"/>
       <c r="O66" s="6"/>
       <c r="Q66" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A67">
+      <c r="A67" s="9">
         <v>29</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B67" s="9" t="s">
         <v>18</v>
       </c>
       <c r="C67" s="6"/>
@@ -3909,10 +3941,12 @@
       <c r="N67" s="6"/>
       <c r="O67" s="6"/>
       <c r="Q67" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A68" s="9"/>
+      <c r="B68" s="9"/>
       <c r="C68" s="6"/>
       <c r="D68" s="6"/>
       <c r="E68" s="6"/>
@@ -3927,14 +3961,14 @@
       <c r="N68" s="6"/>
       <c r="O68" s="6"/>
       <c r="Q68" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A69">
+      <c r="A69" s="9">
         <v>30</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B69" s="9" t="s">
         <v>19</v>
       </c>
       <c r="C69" s="6"/>
@@ -3951,7 +3985,7 @@
       <c r="N69" s="6"/>
       <c r="O69" s="6"/>
       <c r="Q69" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.45">
@@ -3969,15 +4003,15 @@
       <c r="N70" s="6"/>
       <c r="O70" s="6"/>
       <c r="Q70" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A71">
         <v>31</v>
       </c>
-      <c r="B71" t="s">
-        <v>20</v>
+      <c r="B71" s="8" t="s">
+        <v>325</v>
       </c>
       <c r="C71" s="6"/>
       <c r="D71" s="6"/>
@@ -3993,7 +4027,7 @@
       <c r="N71" s="6"/>
       <c r="O71" s="6"/>
       <c r="Q71" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.45">
@@ -4056,7 +4090,7 @@
       <c r="N75" s="6"/>
       <c r="O75" s="6"/>
       <c r="Q75" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.45">
@@ -4074,7 +4108,7 @@
       <c r="N76" s="6"/>
       <c r="O76" s="6"/>
       <c r="Q76" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.45">
@@ -4092,7 +4126,7 @@
       <c r="N77" s="6"/>
       <c r="O77" s="6"/>
       <c r="Q77" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.45">
@@ -4110,7 +4144,7 @@
       <c r="N78" s="6"/>
       <c r="O78" s="6"/>
       <c r="Q78" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.45">
@@ -4128,1212 +4162,1212 @@
       <c r="N79" s="6"/>
       <c r="O79" s="6"/>
       <c r="Q79" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.45">
       <c r="Q80" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="83" spans="17:17" x14ac:dyDescent="0.45">
       <c r="Q83" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="84" spans="17:17" x14ac:dyDescent="0.45">
       <c r="Q84" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="85" spans="17:17" x14ac:dyDescent="0.45">
       <c r="Q85" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="86" spans="17:17" x14ac:dyDescent="0.45">
       <c r="Q86" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="87" spans="17:17" x14ac:dyDescent="0.45">
       <c r="Q87" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="88" spans="17:17" x14ac:dyDescent="0.45">
       <c r="Q88" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="89" spans="17:17" x14ac:dyDescent="0.45">
       <c r="Q89" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="90" spans="17:17" x14ac:dyDescent="0.45">
       <c r="Q90" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="91" spans="17:17" x14ac:dyDescent="0.45">
       <c r="Q91" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="92" spans="17:17" x14ac:dyDescent="0.45">
       <c r="Q92" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="93" spans="17:17" x14ac:dyDescent="0.45">
       <c r="Q93" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="97" spans="17:17" x14ac:dyDescent="0.45">
       <c r="Q97" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="98" spans="17:17" x14ac:dyDescent="0.45">
       <c r="Q98" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="99" spans="17:17" x14ac:dyDescent="0.45">
       <c r="Q99" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="100" spans="17:17" x14ac:dyDescent="0.45">
       <c r="Q100" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="101" spans="17:17" x14ac:dyDescent="0.45">
       <c r="Q101" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="102" spans="17:17" x14ac:dyDescent="0.45">
       <c r="Q102" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="103" spans="17:17" x14ac:dyDescent="0.45">
       <c r="Q103" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="104" spans="17:17" x14ac:dyDescent="0.45">
       <c r="Q104" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="105" spans="17:17" x14ac:dyDescent="0.45">
       <c r="Q105" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="109" spans="17:17" x14ac:dyDescent="0.45">
       <c r="Q109" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="110" spans="17:17" x14ac:dyDescent="0.45">
       <c r="Q110" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="111" spans="17:17" x14ac:dyDescent="0.45">
       <c r="Q111" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="112" spans="17:17" x14ac:dyDescent="0.45">
       <c r="Q112" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="113" spans="17:17" x14ac:dyDescent="0.45">
       <c r="Q113" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="114" spans="17:17" x14ac:dyDescent="0.45">
       <c r="Q114" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="115" spans="17:17" x14ac:dyDescent="0.45">
       <c r="Q115" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="119" spans="17:17" x14ac:dyDescent="0.45">
       <c r="Q119" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="120" spans="17:17" x14ac:dyDescent="0.45">
       <c r="Q120" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="121" spans="17:17" x14ac:dyDescent="0.45">
       <c r="Q121" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="122" spans="17:17" x14ac:dyDescent="0.45">
       <c r="Q122" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="123" spans="17:17" x14ac:dyDescent="0.45">
       <c r="Q123" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="124" spans="17:17" x14ac:dyDescent="0.45">
       <c r="Q124" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="128" spans="17:17" x14ac:dyDescent="0.45">
       <c r="Q128" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="129" spans="17:17" x14ac:dyDescent="0.45">
       <c r="Q129" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="130" spans="17:17" x14ac:dyDescent="0.45">
       <c r="Q130" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="131" spans="17:17" x14ac:dyDescent="0.45">
       <c r="Q131" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="132" spans="17:17" x14ac:dyDescent="0.45">
       <c r="Q132" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="133" spans="17:17" x14ac:dyDescent="0.45">
       <c r="Q133" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="134" spans="17:17" x14ac:dyDescent="0.45">
       <c r="Q134" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="135" spans="17:17" x14ac:dyDescent="0.45">
       <c r="Q135" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="136" spans="17:17" x14ac:dyDescent="0.45">
       <c r="Q136" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="137" spans="17:17" x14ac:dyDescent="0.45">
       <c r="Q137" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="138" spans="17:17" x14ac:dyDescent="0.45">
       <c r="Q138" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="142" spans="17:17" x14ac:dyDescent="0.45">
       <c r="Q142" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="143" spans="17:17" x14ac:dyDescent="0.45">
       <c r="Q143" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="144" spans="17:17" x14ac:dyDescent="0.45">
       <c r="Q144" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="145" spans="17:17" x14ac:dyDescent="0.45">
       <c r="Q145" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="146" spans="17:17" x14ac:dyDescent="0.45">
       <c r="Q146" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="147" spans="17:17" x14ac:dyDescent="0.45">
       <c r="Q147" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="151" spans="17:17" x14ac:dyDescent="0.45">
       <c r="Q151" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="152" spans="17:17" x14ac:dyDescent="0.45">
       <c r="Q152" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="153" spans="17:17" x14ac:dyDescent="0.45">
       <c r="Q153" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="154" spans="17:17" x14ac:dyDescent="0.45">
       <c r="Q154" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="155" spans="17:17" x14ac:dyDescent="0.45">
       <c r="Q155" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="156" spans="17:17" x14ac:dyDescent="0.45">
       <c r="Q156" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="159" spans="17:17" x14ac:dyDescent="0.45">
       <c r="Q159" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="160" spans="17:17" x14ac:dyDescent="0.45">
       <c r="Q160" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="161" spans="17:17" x14ac:dyDescent="0.45">
       <c r="Q161" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="162" spans="17:17" x14ac:dyDescent="0.45">
       <c r="Q162" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="163" spans="17:17" x14ac:dyDescent="0.45">
       <c r="Q163" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="164" spans="17:17" x14ac:dyDescent="0.45">
       <c r="Q164" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="165" spans="17:17" x14ac:dyDescent="0.45">
       <c r="Q165" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="166" spans="17:17" x14ac:dyDescent="0.45">
       <c r="Q166" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="167" spans="17:17" x14ac:dyDescent="0.45">
       <c r="Q167" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="168" spans="17:17" x14ac:dyDescent="0.45">
       <c r="Q168" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="172" spans="17:17" x14ac:dyDescent="0.45">
       <c r="Q172" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="173" spans="17:17" x14ac:dyDescent="0.45">
       <c r="Q173" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="174" spans="17:17" x14ac:dyDescent="0.45">
       <c r="Q174" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="175" spans="17:17" x14ac:dyDescent="0.45">
       <c r="Q175" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="176" spans="17:17" x14ac:dyDescent="0.45">
       <c r="Q176" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="180" spans="17:17" x14ac:dyDescent="0.45">
       <c r="Q180" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="181" spans="17:17" x14ac:dyDescent="0.45">
       <c r="Q181" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="182" spans="17:17" x14ac:dyDescent="0.45">
       <c r="Q182" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="183" spans="17:17" x14ac:dyDescent="0.45">
       <c r="Q183" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="184" spans="17:17" x14ac:dyDescent="0.45">
       <c r="Q184" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="185" spans="17:17" x14ac:dyDescent="0.45">
       <c r="Q185" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="186" spans="17:17" x14ac:dyDescent="0.45">
       <c r="Q186" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="187" spans="17:17" x14ac:dyDescent="0.45">
       <c r="Q187" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="191" spans="17:17" x14ac:dyDescent="0.45">
       <c r="Q191" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="192" spans="17:17" x14ac:dyDescent="0.45">
       <c r="Q192" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="193" spans="17:17" x14ac:dyDescent="0.45">
       <c r="Q193" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="194" spans="17:17" x14ac:dyDescent="0.45">
       <c r="Q194" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="195" spans="17:17" x14ac:dyDescent="0.45">
       <c r="Q195" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="196" spans="17:17" x14ac:dyDescent="0.45">
       <c r="Q196" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="197" spans="17:17" x14ac:dyDescent="0.45">
       <c r="Q197" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="201" spans="17:17" x14ac:dyDescent="0.45">
       <c r="Q201" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="202" spans="17:17" x14ac:dyDescent="0.45">
       <c r="Q202" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="203" spans="17:17" x14ac:dyDescent="0.45">
       <c r="Q203" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="204" spans="17:17" x14ac:dyDescent="0.45">
       <c r="Q204" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="205" spans="17:17" x14ac:dyDescent="0.45">
       <c r="Q205" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="206" spans="17:17" x14ac:dyDescent="0.45">
       <c r="Q206" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="207" spans="17:17" x14ac:dyDescent="0.45">
       <c r="Q207" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="208" spans="17:17" x14ac:dyDescent="0.45">
       <c r="Q208" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="209" spans="17:17" x14ac:dyDescent="0.45">
       <c r="Q209" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="210" spans="17:17" x14ac:dyDescent="0.45">
       <c r="Q210" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="211" spans="17:17" x14ac:dyDescent="0.45">
       <c r="Q211" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="215" spans="17:17" x14ac:dyDescent="0.45">
       <c r="Q215" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="216" spans="17:17" x14ac:dyDescent="0.45">
       <c r="Q216" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="217" spans="17:17" x14ac:dyDescent="0.45">
       <c r="Q217" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="218" spans="17:17" x14ac:dyDescent="0.45">
       <c r="Q218" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="219" spans="17:17" x14ac:dyDescent="0.45">
       <c r="Q219" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="220" spans="17:17" x14ac:dyDescent="0.45">
       <c r="Q220" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="221" spans="17:17" x14ac:dyDescent="0.45">
       <c r="Q221" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="226" spans="17:17" x14ac:dyDescent="0.45">
       <c r="Q226" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="227" spans="17:17" x14ac:dyDescent="0.45">
       <c r="Q227" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="230" spans="17:17" x14ac:dyDescent="0.45">
       <c r="Q230" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="231" spans="17:17" x14ac:dyDescent="0.45">
       <c r="Q231" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="232" spans="17:17" x14ac:dyDescent="0.45">
       <c r="Q232" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="233" spans="17:17" x14ac:dyDescent="0.45">
       <c r="Q233" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="234" spans="17:17" x14ac:dyDescent="0.45">
       <c r="Q234" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="235" spans="17:17" x14ac:dyDescent="0.45">
       <c r="Q235" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="236" spans="17:17" x14ac:dyDescent="0.45">
       <c r="Q236" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="237" spans="17:17" x14ac:dyDescent="0.45">
       <c r="Q237" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="238" spans="17:17" x14ac:dyDescent="0.45">
       <c r="Q238" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="239" spans="17:17" x14ac:dyDescent="0.45">
       <c r="Q239" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="240" spans="17:17" x14ac:dyDescent="0.45">
       <c r="Q240" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="241" spans="17:17" x14ac:dyDescent="0.45">
       <c r="Q241" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="242" spans="17:17" x14ac:dyDescent="0.45">
       <c r="Q242" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="243" spans="17:17" x14ac:dyDescent="0.45">
       <c r="Q243" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="244" spans="17:17" x14ac:dyDescent="0.45">
       <c r="Q244" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="245" spans="17:17" x14ac:dyDescent="0.45">
       <c r="Q245" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="246" spans="17:17" x14ac:dyDescent="0.45">
       <c r="Q246" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="247" spans="17:17" x14ac:dyDescent="0.45">
       <c r="Q247" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="248" spans="17:17" x14ac:dyDescent="0.45">
       <c r="Q248" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="249" spans="17:17" x14ac:dyDescent="0.45">
       <c r="Q249" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="254" spans="17:17" x14ac:dyDescent="0.45">
       <c r="Q254" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="255" spans="17:17" x14ac:dyDescent="0.45">
       <c r="Q255" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="256" spans="17:17" x14ac:dyDescent="0.45">
       <c r="Q256" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="257" spans="17:17" x14ac:dyDescent="0.45">
       <c r="Q257" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="258" spans="17:17" x14ac:dyDescent="0.45">
       <c r="Q258" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="259" spans="17:17" x14ac:dyDescent="0.45">
       <c r="Q259" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="260" spans="17:17" x14ac:dyDescent="0.45">
       <c r="Q260" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="261" spans="17:17" x14ac:dyDescent="0.45">
       <c r="Q261" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="262" spans="17:17" x14ac:dyDescent="0.45">
       <c r="Q262" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="263" spans="17:17" x14ac:dyDescent="0.45">
       <c r="Q263" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="264" spans="17:17" x14ac:dyDescent="0.45">
       <c r="Q264" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="265" spans="17:17" x14ac:dyDescent="0.45">
       <c r="Q265" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="266" spans="17:17" x14ac:dyDescent="0.45">
       <c r="Q266" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="272" spans="17:17" x14ac:dyDescent="0.45">
       <c r="Q272" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="273" spans="17:17" x14ac:dyDescent="0.45">
       <c r="Q273" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="274" spans="17:17" x14ac:dyDescent="0.45">
       <c r="Q274" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="279" spans="17:17" x14ac:dyDescent="0.45">
       <c r="Q279" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="280" spans="17:17" x14ac:dyDescent="0.45">
       <c r="Q280" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="281" spans="17:17" x14ac:dyDescent="0.45">
       <c r="Q281" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="282" spans="17:17" x14ac:dyDescent="0.45">
       <c r="Q282" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="283" spans="17:17" x14ac:dyDescent="0.45">
       <c r="Q283" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="284" spans="17:17" x14ac:dyDescent="0.45">
       <c r="Q284" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="285" spans="17:17" x14ac:dyDescent="0.45">
       <c r="Q285" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="286" spans="17:17" x14ac:dyDescent="0.45">
       <c r="Q286" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="287" spans="17:17" x14ac:dyDescent="0.45">
       <c r="Q287" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="288" spans="17:17" x14ac:dyDescent="0.45">
       <c r="Q288" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="289" spans="17:17" x14ac:dyDescent="0.45">
       <c r="Q289" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="290" spans="17:17" x14ac:dyDescent="0.45">
       <c r="Q290" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="296" spans="17:17" x14ac:dyDescent="0.45">
       <c r="Q296" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="297" spans="17:17" x14ac:dyDescent="0.45">
       <c r="Q297" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="298" spans="17:17" x14ac:dyDescent="0.45">
       <c r="Q298" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="299" spans="17:17" x14ac:dyDescent="0.45">
       <c r="Q299" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="304" spans="17:17" x14ac:dyDescent="0.45">
       <c r="Q304" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="305" spans="17:17" x14ac:dyDescent="0.45">
       <c r="Q305" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="306" spans="17:17" x14ac:dyDescent="0.45">
       <c r="Q306" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="307" spans="17:17" x14ac:dyDescent="0.45">
       <c r="Q307" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="308" spans="17:17" x14ac:dyDescent="0.45">
       <c r="Q308" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="309" spans="17:17" x14ac:dyDescent="0.45">
       <c r="Q309" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="314" spans="17:17" x14ac:dyDescent="0.45">
       <c r="Q314" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="315" spans="17:17" x14ac:dyDescent="0.45">
       <c r="Q315" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="316" spans="17:17" x14ac:dyDescent="0.45">
       <c r="Q316" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="317" spans="17:17" x14ac:dyDescent="0.45">
       <c r="Q317" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="318" spans="17:17" x14ac:dyDescent="0.45">
       <c r="Q318" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="319" spans="17:17" x14ac:dyDescent="0.45">
       <c r="Q319" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="320" spans="17:17" x14ac:dyDescent="0.45">
       <c r="Q320" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="321" spans="17:17" x14ac:dyDescent="0.45">
       <c r="Q321" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="326" spans="17:17" x14ac:dyDescent="0.45">
       <c r="Q326" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="327" spans="17:17" x14ac:dyDescent="0.45">
       <c r="Q327" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="328" spans="17:17" x14ac:dyDescent="0.45">
       <c r="Q328" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="329" spans="17:17" x14ac:dyDescent="0.45">
       <c r="Q329" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="330" spans="17:17" x14ac:dyDescent="0.45">
       <c r="Q330" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="331" spans="17:17" x14ac:dyDescent="0.45">
       <c r="Q331" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="332" spans="17:17" x14ac:dyDescent="0.45">
       <c r="Q332" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="333" spans="17:17" x14ac:dyDescent="0.45">
       <c r="Q333" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="334" spans="17:17" x14ac:dyDescent="0.45">
       <c r="Q334" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="335" spans="17:17" x14ac:dyDescent="0.45">
       <c r="Q335" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="336" spans="17:17" x14ac:dyDescent="0.45">
       <c r="Q336" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="342" spans="17:17" x14ac:dyDescent="0.45">
       <c r="Q342" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="343" spans="17:17" x14ac:dyDescent="0.45">
       <c r="Q343" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="344" spans="17:17" x14ac:dyDescent="0.45">
       <c r="Q344" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="345" spans="17:17" x14ac:dyDescent="0.45">
       <c r="Q345" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="346" spans="17:17" x14ac:dyDescent="0.45">
       <c r="Q346" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="347" spans="17:17" x14ac:dyDescent="0.45">
       <c r="Q347" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="348" spans="17:17" x14ac:dyDescent="0.45">
       <c r="Q348" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="349" spans="17:17" x14ac:dyDescent="0.45">
       <c r="Q349" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="350" spans="17:17" x14ac:dyDescent="0.45">
       <c r="Q350" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="351" spans="17:17" x14ac:dyDescent="0.45">
       <c r="Q351" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="352" spans="17:17" x14ac:dyDescent="0.45">
       <c r="Q352" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="353" spans="17:17" x14ac:dyDescent="0.45">
       <c r="Q353" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="354" spans="17:17" x14ac:dyDescent="0.45">
       <c r="Q354" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="355" spans="17:17" x14ac:dyDescent="0.45">
       <c r="Q355" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="356" spans="17:17" x14ac:dyDescent="0.45">
       <c r="Q356" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="357" spans="17:17" x14ac:dyDescent="0.45">
       <c r="Q357" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="358" spans="17:17" x14ac:dyDescent="0.45">
       <c r="Q358" s="3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="359" spans="17:17" x14ac:dyDescent="0.45">
       <c r="Q359" s="3" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="363" spans="17:17" x14ac:dyDescent="0.45">
       <c r="Q363" s="3" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="364" spans="17:17" x14ac:dyDescent="0.45">
       <c r="Q364" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="365" spans="17:17" x14ac:dyDescent="0.45">
       <c r="Q365" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="366" spans="17:17" x14ac:dyDescent="0.45">
       <c r="Q366" s="3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="367" spans="17:17" x14ac:dyDescent="0.45">
       <c r="Q367" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="368" spans="17:17" x14ac:dyDescent="0.45">
       <c r="Q368" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="369" spans="17:17" x14ac:dyDescent="0.45">
       <c r="Q369" s="3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="370" spans="17:17" x14ac:dyDescent="0.45">
       <c r="Q370" s="3" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="371" spans="17:17" x14ac:dyDescent="0.45">
       <c r="Q371" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="372" spans="17:17" x14ac:dyDescent="0.45">
       <c r="Q372" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="373" spans="17:17" x14ac:dyDescent="0.45">
       <c r="Q373" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="374" spans="17:17" x14ac:dyDescent="0.45">
       <c r="Q374" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="375" spans="17:17" x14ac:dyDescent="0.45">
       <c r="Q375" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="376" spans="17:17" x14ac:dyDescent="0.45">
       <c r="Q376" s="3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="377" spans="17:17" x14ac:dyDescent="0.45">
       <c r="Q377" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="378" spans="17:17" x14ac:dyDescent="0.45">
       <c r="Q378" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="379" spans="17:17" x14ac:dyDescent="0.45">
       <c r="Q379" s="3" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="384" spans="17:17" x14ac:dyDescent="0.45">
       <c r="Q384" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="385" spans="17:17" x14ac:dyDescent="0.45">
       <c r="Q385" s="3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="386" spans="17:17" x14ac:dyDescent="0.45">
       <c r="Q386" s="3" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="387" spans="17:17" x14ac:dyDescent="0.45">
       <c r="Q387" s="3" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="388" spans="17:17" x14ac:dyDescent="0.45">
       <c r="Q388" s="3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="389" spans="17:17" x14ac:dyDescent="0.45">
       <c r="Q389" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="390" spans="17:17" x14ac:dyDescent="0.45">
       <c r="Q390" s="3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="394" spans="17:17" x14ac:dyDescent="0.45">
       <c r="Q394" s="3" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="395" spans="17:17" x14ac:dyDescent="0.45">
       <c r="Q395" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="396" spans="17:17" x14ac:dyDescent="0.45">
       <c r="Q396" s="3" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="397" spans="17:17" x14ac:dyDescent="0.45">
       <c r="Q397" s="3" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="398" spans="17:17" x14ac:dyDescent="0.45">
       <c r="Q398" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="399" spans="17:17" x14ac:dyDescent="0.45">
       <c r="Q399" s="3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="400" spans="17:17" x14ac:dyDescent="0.45">
       <c r="Q400" s="3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="401" spans="17:17" x14ac:dyDescent="0.45">
       <c r="Q401" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="406" spans="17:17" x14ac:dyDescent="0.45">
       <c r="Q406" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="407" spans="17:17" x14ac:dyDescent="0.45">
       <c r="Q407" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="408" spans="17:17" x14ac:dyDescent="0.45">
       <c r="Q408" s="3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="409" spans="17:17" x14ac:dyDescent="0.45">
       <c r="Q409" s="3" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="410" spans="17:17" x14ac:dyDescent="0.45">
       <c r="Q410" s="3" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="411" spans="17:17" x14ac:dyDescent="0.45">
       <c r="Q411" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="412" spans="17:17" x14ac:dyDescent="0.45">
       <c r="Q412" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
   </sheetData>

--- a/notes/java_syllbus.xlsx
+++ b/notes/java_syllbus.xlsx
@@ -1117,14 +1117,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="4"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="4"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -2574,8 +2574,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q412"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="86" zoomScaleNormal="10" zoomScalePageLayoutView="134" workbookViewId="0">
-      <selection activeCell="B75" sqref="B75"/>
+    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="56" zoomScaleNormal="10" zoomScalePageLayoutView="134" workbookViewId="0">
+      <selection activeCell="B63" sqref="B63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.4" x14ac:dyDescent="0.45"/>
@@ -2587,183 +2587,183 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7"/>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="7"/>
+      <c r="A1" s="9"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="9"/>
     </row>
     <row r="2" spans="1:17" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
-      <c r="Q2" s="7"/>
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="9"/>
     </row>
     <row r="3" spans="1:17" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
-      <c r="P3" s="7"/>
-      <c r="Q3" s="7"/>
+      <c r="A3" s="9"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
+      <c r="P3" s="9"/>
+      <c r="Q3" s="9"/>
     </row>
     <row r="4" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A4" s="7"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7"/>
-      <c r="O4" s="7"/>
-      <c r="P4" s="7"/>
-      <c r="Q4" s="7"/>
+      <c r="A4" s="9"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="9"/>
+      <c r="Q4" s="9"/>
     </row>
     <row r="5" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
-      <c r="N5" s="7"/>
-      <c r="O5" s="7"/>
-      <c r="P5" s="7"/>
-      <c r="Q5" s="7"/>
+      <c r="A5" s="9"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="9"/>
+      <c r="P5" s="9"/>
+      <c r="Q5" s="9"/>
     </row>
     <row r="6" spans="1:17" ht="70.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="7"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7"/>
-      <c r="O6" s="7"/>
-      <c r="P6" s="7"/>
-      <c r="Q6" s="7"/>
+      <c r="A6" s="9"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="9"/>
+      <c r="Q6" s="9"/>
     </row>
     <row r="7" spans="1:17" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="7"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="7"/>
-      <c r="O7" s="7"/>
-      <c r="P7" s="7"/>
-      <c r="Q7" s="7"/>
+      <c r="A7" s="9"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="9"/>
+      <c r="P7" s="9"/>
+      <c r="Q7" s="9"/>
     </row>
     <row r="8" spans="1:17" ht="46.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="7"/>
-      <c r="O8" s="7"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9"/>
     </row>
     <row r="9" spans="1:17" ht="23.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="7"/>
-      <c r="O9" s="7"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="9"/>
       <c r="Q9" s="5"/>
     </row>
     <row r="10" spans="1:17" ht="23.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
-      <c r="N10" s="7"/>
-      <c r="O10" s="7"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="9"/>
       <c r="Q10" s="5"/>
     </row>
     <row r="11" spans="1:17" ht="23.4" customHeight="1" x14ac:dyDescent="0.45">
@@ -2787,19 +2787,19 @@
       <c r="Q11" s="5"/>
     </row>
     <row r="12" spans="1:17" ht="23.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6"/>
-      <c r="N12" s="6"/>
-      <c r="O12" s="6"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="8"/>
+      <c r="O12" s="8"/>
       <c r="Q12" s="5"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.45">
@@ -2809,34 +2809,34 @@
       <c r="B13" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="6"/>
-      <c r="N13" s="6"/>
-      <c r="O13" s="6"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="8"/>
+      <c r="O13" s="8"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
-      <c r="M14" s="6"/>
-      <c r="N14" s="6"/>
-      <c r="O14" s="6"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="8"/>
       <c r="Q14" s="3" t="s">
         <v>30</v>
       </c>
@@ -2848,37 +2848,37 @@
       <c r="B15" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
-      <c r="M15" s="6"/>
-      <c r="N15" s="6"/>
-      <c r="O15" s="6"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="8"/>
+      <c r="O15" s="8"/>
       <c r="Q15" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="6"/>
-      <c r="M16" s="6"/>
-      <c r="N16" s="6"/>
-      <c r="O16" s="6"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="8"/>
+      <c r="O16" s="8"/>
       <c r="Q16" s="3" t="s">
         <v>32</v>
       </c>
@@ -2890,37 +2890,37 @@
       <c r="B17" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="6"/>
-      <c r="M17" s="6"/>
-      <c r="N17" s="6"/>
-      <c r="O17" s="6"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="8"/>
+      <c r="N17" s="8"/>
+      <c r="O17" s="8"/>
       <c r="Q17" s="3" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="6"/>
-      <c r="M18" s="6"/>
-      <c r="N18" s="6"/>
-      <c r="O18" s="6"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="8"/>
+      <c r="N18" s="8"/>
+      <c r="O18" s="8"/>
       <c r="Q18" s="3" t="s">
         <v>34</v>
       </c>
@@ -2932,37 +2932,37 @@
       <c r="B19" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
-      <c r="L19" s="6"/>
-      <c r="M19" s="6"/>
-      <c r="N19" s="6"/>
-      <c r="O19" s="6"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="8"/>
+      <c r="N19" s="8"/>
+      <c r="O19" s="8"/>
       <c r="Q19" s="3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
-      <c r="L20" s="6"/>
-      <c r="M20" s="6"/>
-      <c r="N20" s="6"/>
-      <c r="O20" s="6"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="8"/>
+      <c r="M20" s="8"/>
+      <c r="N20" s="8"/>
+      <c r="O20" s="8"/>
       <c r="Q20" s="3" t="s">
         <v>36</v>
       </c>
@@ -2974,37 +2974,37 @@
       <c r="B21" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="6"/>
-      <c r="L21" s="6"/>
-      <c r="M21" s="6"/>
-      <c r="N21" s="6"/>
-      <c r="O21" s="6"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="8"/>
+      <c r="N21" s="8"/>
+      <c r="O21" s="8"/>
       <c r="Q21" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
-      <c r="K22" s="6"/>
-      <c r="L22" s="6"/>
-      <c r="M22" s="6"/>
-      <c r="N22" s="6"/>
-      <c r="O22" s="6"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
+      <c r="M22" s="8"/>
+      <c r="N22" s="8"/>
+      <c r="O22" s="8"/>
       <c r="Q22" s="3" t="s">
         <v>38</v>
       </c>
@@ -3016,37 +3016,37 @@
       <c r="B23" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
-      <c r="J23" s="6"/>
-      <c r="K23" s="6"/>
-      <c r="L23" s="6"/>
-      <c r="M23" s="6"/>
-      <c r="N23" s="6"/>
-      <c r="O23" s="6"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="8"/>
+      <c r="M23" s="8"/>
+      <c r="N23" s="8"/>
+      <c r="O23" s="8"/>
       <c r="Q23" s="3" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
-      <c r="J24" s="6"/>
-      <c r="K24" s="6"/>
-      <c r="L24" s="6"/>
-      <c r="M24" s="6"/>
-      <c r="N24" s="6"/>
-      <c r="O24" s="6"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="8"/>
+      <c r="M24" s="8"/>
+      <c r="N24" s="8"/>
+      <c r="O24" s="8"/>
       <c r="Q24" s="3" t="s">
         <v>40</v>
       </c>
@@ -3058,37 +3058,37 @@
       <c r="B25" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="6"/>
-      <c r="J25" s="6"/>
-      <c r="K25" s="6"/>
-      <c r="L25" s="6"/>
-      <c r="M25" s="6"/>
-      <c r="N25" s="6"/>
-      <c r="O25" s="6"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="8"/>
+      <c r="M25" s="8"/>
+      <c r="N25" s="8"/>
+      <c r="O25" s="8"/>
       <c r="Q25" s="3" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="6"/>
-      <c r="J26" s="6"/>
-      <c r="K26" s="6"/>
-      <c r="L26" s="6"/>
-      <c r="M26" s="6"/>
-      <c r="N26" s="6"/>
-      <c r="O26" s="6"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="8"/>
+      <c r="L26" s="8"/>
+      <c r="M26" s="8"/>
+      <c r="N26" s="8"/>
+      <c r="O26" s="8"/>
       <c r="Q26" s="3" t="s">
         <v>42</v>
       </c>
@@ -3100,37 +3100,37 @@
       <c r="B27" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
-      <c r="J27" s="6"/>
-      <c r="K27" s="6"/>
-      <c r="L27" s="6"/>
-      <c r="M27" s="6"/>
-      <c r="N27" s="6"/>
-      <c r="O27" s="6"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="8"/>
+      <c r="L27" s="8"/>
+      <c r="M27" s="8"/>
+      <c r="N27" s="8"/>
+      <c r="O27" s="8"/>
       <c r="Q27" s="3" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="6"/>
-      <c r="I28" s="6"/>
-      <c r="J28" s="6"/>
-      <c r="K28" s="6"/>
-      <c r="L28" s="6"/>
-      <c r="M28" s="6"/>
-      <c r="N28" s="6"/>
-      <c r="O28" s="6"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
+      <c r="K28" s="8"/>
+      <c r="L28" s="8"/>
+      <c r="M28" s="8"/>
+      <c r="N28" s="8"/>
+      <c r="O28" s="8"/>
       <c r="Q28" s="3" t="s">
         <v>44</v>
       </c>
@@ -3142,37 +3142,37 @@
       <c r="B29" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
-      <c r="I29" s="6"/>
-      <c r="J29" s="6"/>
-      <c r="K29" s="6"/>
-      <c r="L29" s="6"/>
-      <c r="M29" s="6"/>
-      <c r="N29" s="6"/>
-      <c r="O29" s="6"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="8"/>
+      <c r="K29" s="8"/>
+      <c r="L29" s="8"/>
+      <c r="M29" s="8"/>
+      <c r="N29" s="8"/>
+      <c r="O29" s="8"/>
       <c r="Q29" s="3" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
-      <c r="H30" s="6"/>
-      <c r="I30" s="6"/>
-      <c r="J30" s="6"/>
-      <c r="K30" s="6"/>
-      <c r="L30" s="6"/>
-      <c r="M30" s="6"/>
-      <c r="N30" s="6"/>
-      <c r="O30" s="6"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="8"/>
+      <c r="K30" s="8"/>
+      <c r="L30" s="8"/>
+      <c r="M30" s="8"/>
+      <c r="N30" s="8"/>
+      <c r="O30" s="8"/>
       <c r="Q30" s="3" t="s">
         <v>46</v>
       </c>
@@ -3184,37 +3184,37 @@
       <c r="B31" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
-      <c r="H31" s="6"/>
-      <c r="I31" s="6"/>
-      <c r="J31" s="6"/>
-      <c r="K31" s="6"/>
-      <c r="L31" s="6"/>
-      <c r="M31" s="6"/>
-      <c r="N31" s="6"/>
-      <c r="O31" s="6"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="8"/>
+      <c r="K31" s="8"/>
+      <c r="L31" s="8"/>
+      <c r="M31" s="8"/>
+      <c r="N31" s="8"/>
+      <c r="O31" s="8"/>
       <c r="Q31" s="3" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
-      <c r="H32" s="6"/>
-      <c r="I32" s="6"/>
-      <c r="J32" s="6"/>
-      <c r="K32" s="6"/>
-      <c r="L32" s="6"/>
-      <c r="M32" s="6"/>
-      <c r="N32" s="6"/>
-      <c r="O32" s="6"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="8"/>
+      <c r="J32" s="8"/>
+      <c r="K32" s="8"/>
+      <c r="L32" s="8"/>
+      <c r="M32" s="8"/>
+      <c r="N32" s="8"/>
+      <c r="O32" s="8"/>
       <c r="Q32" s="3" t="s">
         <v>48</v>
       </c>
@@ -3226,37 +3226,37 @@
       <c r="B33" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="6"/>
-      <c r="H33" s="6"/>
-      <c r="I33" s="6"/>
-      <c r="J33" s="6"/>
-      <c r="K33" s="6"/>
-      <c r="L33" s="6"/>
-      <c r="M33" s="6"/>
-      <c r="N33" s="6"/>
-      <c r="O33" s="6"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="8"/>
+      <c r="J33" s="8"/>
+      <c r="K33" s="8"/>
+      <c r="L33" s="8"/>
+      <c r="M33" s="8"/>
+      <c r="N33" s="8"/>
+      <c r="O33" s="8"/>
       <c r="Q33" s="3" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
-      <c r="G34" s="6"/>
-      <c r="H34" s="6"/>
-      <c r="I34" s="6"/>
-      <c r="J34" s="6"/>
-      <c r="K34" s="6"/>
-      <c r="L34" s="6"/>
-      <c r="M34" s="6"/>
-      <c r="N34" s="6"/>
-      <c r="O34" s="6"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="8"/>
+      <c r="J34" s="8"/>
+      <c r="K34" s="8"/>
+      <c r="L34" s="8"/>
+      <c r="M34" s="8"/>
+      <c r="N34" s="8"/>
+      <c r="O34" s="8"/>
       <c r="Q34" s="3" t="s">
         <v>50</v>
       </c>
@@ -3268,37 +3268,37 @@
       <c r="B35" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="6"/>
-      <c r="H35" s="6"/>
-      <c r="I35" s="6"/>
-      <c r="J35" s="6"/>
-      <c r="K35" s="6"/>
-      <c r="L35" s="6"/>
-      <c r="M35" s="6"/>
-      <c r="N35" s="6"/>
-      <c r="O35" s="6"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="8"/>
+      <c r="I35" s="8"/>
+      <c r="J35" s="8"/>
+      <c r="K35" s="8"/>
+      <c r="L35" s="8"/>
+      <c r="M35" s="8"/>
+      <c r="N35" s="8"/>
+      <c r="O35" s="8"/>
       <c r="Q35" s="3" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
-      <c r="F36" s="6"/>
-      <c r="G36" s="6"/>
-      <c r="H36" s="6"/>
-      <c r="I36" s="6"/>
-      <c r="J36" s="6"/>
-      <c r="K36" s="6"/>
-      <c r="L36" s="6"/>
-      <c r="M36" s="6"/>
-      <c r="N36" s="6"/>
-      <c r="O36" s="6"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="8"/>
+      <c r="I36" s="8"/>
+      <c r="J36" s="8"/>
+      <c r="K36" s="8"/>
+      <c r="L36" s="8"/>
+      <c r="M36" s="8"/>
+      <c r="N36" s="8"/>
+      <c r="O36" s="8"/>
       <c r="Q36" s="3" t="s">
         <v>52</v>
       </c>
@@ -3310,37 +3310,37 @@
       <c r="B37" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
-      <c r="J37" s="6"/>
-      <c r="K37" s="6"/>
-      <c r="L37" s="6"/>
-      <c r="M37" s="6"/>
-      <c r="N37" s="6"/>
-      <c r="O37" s="6"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="8"/>
+      <c r="I37" s="8"/>
+      <c r="J37" s="8"/>
+      <c r="K37" s="8"/>
+      <c r="L37" s="8"/>
+      <c r="M37" s="8"/>
+      <c r="N37" s="8"/>
+      <c r="O37" s="8"/>
       <c r="Q37" s="3" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="C38" s="6"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="6"/>
-      <c r="F38" s="6"/>
-      <c r="G38" s="6"/>
-      <c r="H38" s="6"/>
-      <c r="I38" s="6"/>
-      <c r="J38" s="6"/>
-      <c r="K38" s="6"/>
-      <c r="L38" s="6"/>
-      <c r="M38" s="6"/>
-      <c r="N38" s="6"/>
-      <c r="O38" s="6"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="8"/>
+      <c r="I38" s="8"/>
+      <c r="J38" s="8"/>
+      <c r="K38" s="8"/>
+      <c r="L38" s="8"/>
+      <c r="M38" s="8"/>
+      <c r="N38" s="8"/>
+      <c r="O38" s="8"/>
       <c r="Q38" s="3" t="s">
         <v>54</v>
       </c>
@@ -3352,37 +3352,37 @@
       <c r="B39" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C39" s="6"/>
-      <c r="D39" s="6"/>
-      <c r="E39" s="6"/>
-      <c r="F39" s="6"/>
-      <c r="G39" s="6"/>
-      <c r="H39" s="6"/>
-      <c r="I39" s="6"/>
-      <c r="J39" s="6"/>
-      <c r="K39" s="6"/>
-      <c r="L39" s="6"/>
-      <c r="M39" s="6"/>
-      <c r="N39" s="6"/>
-      <c r="O39" s="6"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="8"/>
+      <c r="I39" s="8"/>
+      <c r="J39" s="8"/>
+      <c r="K39" s="8"/>
+      <c r="L39" s="8"/>
+      <c r="M39" s="8"/>
+      <c r="N39" s="8"/>
+      <c r="O39" s="8"/>
       <c r="Q39" s="3" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="C40" s="6"/>
-      <c r="D40" s="6"/>
-      <c r="E40" s="6"/>
-      <c r="F40" s="6"/>
-      <c r="G40" s="6"/>
-      <c r="H40" s="6"/>
-      <c r="I40" s="6"/>
-      <c r="J40" s="6"/>
-      <c r="K40" s="6"/>
-      <c r="L40" s="6"/>
-      <c r="M40" s="6"/>
-      <c r="N40" s="6"/>
-      <c r="O40" s="6"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="8"/>
+      <c r="I40" s="8"/>
+      <c r="J40" s="8"/>
+      <c r="K40" s="8"/>
+      <c r="L40" s="8"/>
+      <c r="M40" s="8"/>
+      <c r="N40" s="8"/>
+      <c r="O40" s="8"/>
       <c r="Q40" s="3" t="s">
         <v>56</v>
       </c>
@@ -3394,37 +3394,37 @@
       <c r="B41" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C41" s="6"/>
-      <c r="D41" s="6"/>
-      <c r="E41" s="6"/>
-      <c r="F41" s="6"/>
-      <c r="G41" s="6"/>
-      <c r="H41" s="6"/>
-      <c r="I41" s="6"/>
-      <c r="J41" s="6"/>
-      <c r="K41" s="6"/>
-      <c r="L41" s="6"/>
-      <c r="M41" s="6"/>
-      <c r="N41" s="6"/>
-      <c r="O41" s="6"/>
+      <c r="C41" s="8"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="8"/>
+      <c r="I41" s="8"/>
+      <c r="J41" s="8"/>
+      <c r="K41" s="8"/>
+      <c r="L41" s="8"/>
+      <c r="M41" s="8"/>
+      <c r="N41" s="8"/>
+      <c r="O41" s="8"/>
       <c r="Q41" s="3" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="C42" s="6"/>
-      <c r="D42" s="6"/>
-      <c r="E42" s="6"/>
-      <c r="F42" s="6"/>
-      <c r="G42" s="6"/>
-      <c r="H42" s="6"/>
-      <c r="I42" s="6"/>
-      <c r="J42" s="6"/>
-      <c r="K42" s="6"/>
-      <c r="L42" s="6"/>
-      <c r="M42" s="6"/>
-      <c r="N42" s="6"/>
-      <c r="O42" s="6"/>
+      <c r="C42" s="8"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c r="H42" s="8"/>
+      <c r="I42" s="8"/>
+      <c r="J42" s="8"/>
+      <c r="K42" s="8"/>
+      <c r="L42" s="8"/>
+      <c r="M42" s="8"/>
+      <c r="N42" s="8"/>
+      <c r="O42" s="8"/>
       <c r="Q42" s="3" t="s">
         <v>58</v>
       </c>
@@ -3436,37 +3436,37 @@
       <c r="B43" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C43" s="6"/>
-      <c r="D43" s="6"/>
-      <c r="E43" s="6"/>
-      <c r="F43" s="6"/>
-      <c r="G43" s="6"/>
-      <c r="H43" s="6"/>
-      <c r="I43" s="6"/>
-      <c r="J43" s="6"/>
-      <c r="K43" s="6"/>
-      <c r="L43" s="6"/>
-      <c r="M43" s="6"/>
-      <c r="N43" s="6"/>
-      <c r="O43" s="6"/>
+      <c r="C43" s="8"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c r="H43" s="8"/>
+      <c r="I43" s="8"/>
+      <c r="J43" s="8"/>
+      <c r="K43" s="8"/>
+      <c r="L43" s="8"/>
+      <c r="M43" s="8"/>
+      <c r="N43" s="8"/>
+      <c r="O43" s="8"/>
       <c r="Q43" s="3" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="C44" s="6"/>
-      <c r="D44" s="6"/>
-      <c r="E44" s="6"/>
-      <c r="F44" s="6"/>
-      <c r="G44" s="6"/>
-      <c r="H44" s="6"/>
-      <c r="I44" s="6"/>
-      <c r="J44" s="6"/>
-      <c r="K44" s="6"/>
-      <c r="L44" s="6"/>
-      <c r="M44" s="6"/>
-      <c r="N44" s="6"/>
-      <c r="O44" s="6"/>
+      <c r="C44" s="8"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c r="H44" s="8"/>
+      <c r="I44" s="8"/>
+      <c r="J44" s="8"/>
+      <c r="K44" s="8"/>
+      <c r="L44" s="8"/>
+      <c r="M44" s="8"/>
+      <c r="N44" s="8"/>
+      <c r="O44" s="8"/>
       <c r="Q44" s="3" t="s">
         <v>60</v>
       </c>
@@ -3478,37 +3478,37 @@
       <c r="B45" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C45" s="6"/>
-      <c r="D45" s="6"/>
-      <c r="E45" s="6"/>
-      <c r="F45" s="6"/>
-      <c r="G45" s="6"/>
-      <c r="H45" s="6"/>
-      <c r="I45" s="6"/>
-      <c r="J45" s="6"/>
-      <c r="K45" s="6"/>
-      <c r="L45" s="6"/>
-      <c r="M45" s="6"/>
-      <c r="N45" s="6"/>
-      <c r="O45" s="6"/>
+      <c r="C45" s="8"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+      <c r="H45" s="8"/>
+      <c r="I45" s="8"/>
+      <c r="J45" s="8"/>
+      <c r="K45" s="8"/>
+      <c r="L45" s="8"/>
+      <c r="M45" s="8"/>
+      <c r="N45" s="8"/>
+      <c r="O45" s="8"/>
       <c r="Q45" s="3" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="C46" s="6"/>
-      <c r="D46" s="6"/>
-      <c r="E46" s="6"/>
-      <c r="F46" s="6"/>
-      <c r="G46" s="6"/>
-      <c r="H46" s="6"/>
-      <c r="I46" s="6"/>
-      <c r="J46" s="6"/>
-      <c r="K46" s="6"/>
-      <c r="L46" s="6"/>
-      <c r="M46" s="6"/>
-      <c r="N46" s="6"/>
-      <c r="O46" s="6"/>
+      <c r="C46" s="8"/>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c r="H46" s="8"/>
+      <c r="I46" s="8"/>
+      <c r="J46" s="8"/>
+      <c r="K46" s="8"/>
+      <c r="L46" s="8"/>
+      <c r="M46" s="8"/>
+      <c r="N46" s="8"/>
+      <c r="O46" s="8"/>
       <c r="Q46" s="3" t="s">
         <v>62</v>
       </c>
@@ -3520,37 +3520,37 @@
       <c r="B47" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C47" s="6"/>
-      <c r="D47" s="6"/>
-      <c r="E47" s="6"/>
-      <c r="F47" s="6"/>
-      <c r="G47" s="6"/>
-      <c r="H47" s="6"/>
-      <c r="I47" s="6"/>
-      <c r="J47" s="6"/>
-      <c r="K47" s="6"/>
-      <c r="L47" s="6"/>
-      <c r="M47" s="6"/>
-      <c r="N47" s="6"/>
-      <c r="O47" s="6"/>
+      <c r="C47" s="8"/>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+      <c r="H47" s="8"/>
+      <c r="I47" s="8"/>
+      <c r="J47" s="8"/>
+      <c r="K47" s="8"/>
+      <c r="L47" s="8"/>
+      <c r="M47" s="8"/>
+      <c r="N47" s="8"/>
+      <c r="O47" s="8"/>
       <c r="Q47" s="3" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="C48" s="6"/>
-      <c r="D48" s="6"/>
-      <c r="E48" s="6"/>
-      <c r="F48" s="6"/>
-      <c r="G48" s="6"/>
-      <c r="H48" s="6"/>
-      <c r="I48" s="6"/>
-      <c r="J48" s="6"/>
-      <c r="K48" s="6"/>
-      <c r="L48" s="6"/>
-      <c r="M48" s="6"/>
-      <c r="N48" s="6"/>
-      <c r="O48" s="6"/>
+      <c r="C48" s="8"/>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+      <c r="H48" s="8"/>
+      <c r="I48" s="8"/>
+      <c r="J48" s="8"/>
+      <c r="K48" s="8"/>
+      <c r="L48" s="8"/>
+      <c r="M48" s="8"/>
+      <c r="N48" s="8"/>
+      <c r="O48" s="8"/>
       <c r="Q48" s="3" t="s">
         <v>64</v>
       </c>
@@ -3562,73 +3562,73 @@
       <c r="B49" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C49" s="6"/>
-      <c r="D49" s="6"/>
-      <c r="E49" s="6"/>
-      <c r="F49" s="6"/>
-      <c r="G49" s="6"/>
-      <c r="H49" s="6"/>
-      <c r="I49" s="6"/>
-      <c r="J49" s="6"/>
-      <c r="K49" s="6"/>
-      <c r="L49" s="6"/>
-      <c r="M49" s="6"/>
-      <c r="N49" s="6"/>
-      <c r="O49" s="6"/>
+      <c r="C49" s="8"/>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+      <c r="H49" s="8"/>
+      <c r="I49" s="8"/>
+      <c r="J49" s="8"/>
+      <c r="K49" s="8"/>
+      <c r="L49" s="8"/>
+      <c r="M49" s="8"/>
+      <c r="N49" s="8"/>
+      <c r="O49" s="8"/>
       <c r="Q49" s="3" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="C50" s="6"/>
-      <c r="D50" s="6"/>
-      <c r="E50" s="6"/>
-      <c r="F50" s="6"/>
-      <c r="G50" s="6"/>
-      <c r="H50" s="6"/>
-      <c r="I50" s="6"/>
-      <c r="J50" s="6"/>
-      <c r="K50" s="6"/>
-      <c r="L50" s="6"/>
-      <c r="M50" s="6"/>
-      <c r="N50" s="6"/>
-      <c r="O50" s="6"/>
+      <c r="C50" s="8"/>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+      <c r="H50" s="8"/>
+      <c r="I50" s="8"/>
+      <c r="J50" s="8"/>
+      <c r="K50" s="8"/>
+      <c r="L50" s="8"/>
+      <c r="M50" s="8"/>
+      <c r="N50" s="8"/>
+      <c r="O50" s="8"/>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A51">
         <v>21</v>
       </c>
-      <c r="B51" s="4" t="s">
+      <c r="B51" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C51" s="6"/>
-      <c r="D51" s="6"/>
-      <c r="E51" s="6"/>
-      <c r="F51" s="6"/>
-      <c r="G51" s="6"/>
-      <c r="H51" s="6"/>
-      <c r="I51" s="6"/>
-      <c r="J51" s="6"/>
-      <c r="K51" s="6"/>
-      <c r="L51" s="6"/>
-      <c r="M51" s="6"/>
-      <c r="N51" s="6"/>
-      <c r="O51" s="6"/>
+      <c r="C51" s="8"/>
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
+      <c r="H51" s="8"/>
+      <c r="I51" s="8"/>
+      <c r="J51" s="8"/>
+      <c r="K51" s="8"/>
+      <c r="L51" s="8"/>
+      <c r="M51" s="8"/>
+      <c r="N51" s="8"/>
+      <c r="O51" s="8"/>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="C52" s="6"/>
-      <c r="D52" s="6"/>
-      <c r="E52" s="6"/>
-      <c r="F52" s="6"/>
-      <c r="G52" s="6"/>
-      <c r="H52" s="6"/>
-      <c r="I52" s="6"/>
-      <c r="J52" s="6"/>
-      <c r="K52" s="6"/>
-      <c r="L52" s="6"/>
-      <c r="M52" s="6"/>
-      <c r="N52" s="6"/>
-      <c r="O52" s="6"/>
+      <c r="C52" s="8"/>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
+      <c r="H52" s="8"/>
+      <c r="I52" s="8"/>
+      <c r="J52" s="8"/>
+      <c r="K52" s="8"/>
+      <c r="L52" s="8"/>
+      <c r="M52" s="8"/>
+      <c r="N52" s="8"/>
+      <c r="O52" s="8"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A53">
@@ -3637,37 +3637,37 @@
       <c r="B53" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C53" s="6"/>
-      <c r="D53" s="6"/>
-      <c r="E53" s="6"/>
-      <c r="F53" s="6"/>
-      <c r="G53" s="6"/>
-      <c r="H53" s="6"/>
-      <c r="I53" s="6"/>
-      <c r="J53" s="6"/>
-      <c r="K53" s="6"/>
-      <c r="L53" s="6"/>
-      <c r="M53" s="6"/>
-      <c r="N53" s="6"/>
-      <c r="O53" s="6"/>
+      <c r="C53" s="8"/>
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
+      <c r="H53" s="8"/>
+      <c r="I53" s="8"/>
+      <c r="J53" s="8"/>
+      <c r="K53" s="8"/>
+      <c r="L53" s="8"/>
+      <c r="M53" s="8"/>
+      <c r="N53" s="8"/>
+      <c r="O53" s="8"/>
       <c r="Q53" s="3" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="C54" s="6"/>
-      <c r="D54" s="6"/>
-      <c r="E54" s="6"/>
-      <c r="F54" s="6"/>
-      <c r="G54" s="6"/>
-      <c r="H54" s="6"/>
-      <c r="I54" s="6"/>
-      <c r="J54" s="6"/>
-      <c r="K54" s="6"/>
-      <c r="L54" s="6"/>
-      <c r="M54" s="6"/>
-      <c r="N54" s="6"/>
-      <c r="O54" s="6"/>
+      <c r="C54" s="8"/>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
+      <c r="H54" s="8"/>
+      <c r="I54" s="8"/>
+      <c r="J54" s="8"/>
+      <c r="K54" s="8"/>
+      <c r="L54" s="8"/>
+      <c r="M54" s="8"/>
+      <c r="N54" s="8"/>
+      <c r="O54" s="8"/>
       <c r="Q54" s="3" t="s">
         <v>67</v>
       </c>
@@ -3679,37 +3679,37 @@
       <c r="B55" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C55" s="6"/>
-      <c r="D55" s="6"/>
-      <c r="E55" s="6"/>
-      <c r="F55" s="6"/>
-      <c r="G55" s="6"/>
-      <c r="H55" s="6"/>
-      <c r="I55" s="6"/>
-      <c r="J55" s="6"/>
-      <c r="K55" s="6"/>
-      <c r="L55" s="6"/>
-      <c r="M55" s="6"/>
-      <c r="N55" s="6"/>
-      <c r="O55" s="6"/>
+      <c r="C55" s="8"/>
+      <c r="D55" s="8"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="8"/>
+      <c r="H55" s="8"/>
+      <c r="I55" s="8"/>
+      <c r="J55" s="8"/>
+      <c r="K55" s="8"/>
+      <c r="L55" s="8"/>
+      <c r="M55" s="8"/>
+      <c r="N55" s="8"/>
+      <c r="O55" s="8"/>
       <c r="Q55" s="3" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="C56" s="6"/>
-      <c r="D56" s="6"/>
-      <c r="E56" s="6"/>
-      <c r="F56" s="6"/>
-      <c r="G56" s="6"/>
-      <c r="H56" s="6"/>
-      <c r="I56" s="6"/>
-      <c r="J56" s="6"/>
-      <c r="K56" s="6"/>
-      <c r="L56" s="6"/>
-      <c r="M56" s="6"/>
-      <c r="N56" s="6"/>
-      <c r="O56" s="6"/>
+      <c r="C56" s="8"/>
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="8"/>
+      <c r="H56" s="8"/>
+      <c r="I56" s="8"/>
+      <c r="J56" s="8"/>
+      <c r="K56" s="8"/>
+      <c r="L56" s="8"/>
+      <c r="M56" s="8"/>
+      <c r="N56" s="8"/>
+      <c r="O56" s="8"/>
       <c r="Q56" s="3" t="s">
         <v>69</v>
       </c>
@@ -3721,37 +3721,37 @@
       <c r="B57" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C57" s="6"/>
-      <c r="D57" s="6"/>
-      <c r="E57" s="6"/>
-      <c r="F57" s="6"/>
-      <c r="G57" s="6"/>
-      <c r="H57" s="6"/>
-      <c r="I57" s="6"/>
-      <c r="J57" s="6"/>
-      <c r="K57" s="6"/>
-      <c r="L57" s="6"/>
-      <c r="M57" s="6"/>
-      <c r="N57" s="6"/>
-      <c r="O57" s="6"/>
+      <c r="C57" s="8"/>
+      <c r="D57" s="8"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="8"/>
+      <c r="H57" s="8"/>
+      <c r="I57" s="8"/>
+      <c r="J57" s="8"/>
+      <c r="K57" s="8"/>
+      <c r="L57" s="8"/>
+      <c r="M57" s="8"/>
+      <c r="N57" s="8"/>
+      <c r="O57" s="8"/>
       <c r="Q57" s="3" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="C58" s="6"/>
-      <c r="D58" s="6"/>
-      <c r="E58" s="6"/>
-      <c r="F58" s="6"/>
-      <c r="G58" s="6"/>
-      <c r="H58" s="6"/>
-      <c r="I58" s="6"/>
-      <c r="J58" s="6"/>
-      <c r="K58" s="6"/>
-      <c r="L58" s="6"/>
-      <c r="M58" s="6"/>
-      <c r="N58" s="6"/>
-      <c r="O58" s="6"/>
+      <c r="C58" s="8"/>
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8"/>
+      <c r="H58" s="8"/>
+      <c r="I58" s="8"/>
+      <c r="J58" s="8"/>
+      <c r="K58" s="8"/>
+      <c r="L58" s="8"/>
+      <c r="M58" s="8"/>
+      <c r="N58" s="8"/>
+      <c r="O58" s="8"/>
       <c r="Q58" s="3" t="s">
         <v>71</v>
       </c>
@@ -3763,37 +3763,37 @@
       <c r="B59" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C59" s="6"/>
-      <c r="D59" s="6"/>
-      <c r="E59" s="6"/>
-      <c r="F59" s="6"/>
-      <c r="G59" s="6"/>
-      <c r="H59" s="6"/>
-      <c r="I59" s="6"/>
-      <c r="J59" s="6"/>
-      <c r="K59" s="6"/>
-      <c r="L59" s="6"/>
-      <c r="M59" s="6"/>
-      <c r="N59" s="6"/>
-      <c r="O59" s="6"/>
+      <c r="C59" s="8"/>
+      <c r="D59" s="8"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="8"/>
+      <c r="H59" s="8"/>
+      <c r="I59" s="8"/>
+      <c r="J59" s="8"/>
+      <c r="K59" s="8"/>
+      <c r="L59" s="8"/>
+      <c r="M59" s="8"/>
+      <c r="N59" s="8"/>
+      <c r="O59" s="8"/>
       <c r="Q59" s="3" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="C60" s="6"/>
-      <c r="D60" s="6"/>
-      <c r="E60" s="6"/>
-      <c r="F60" s="6"/>
-      <c r="G60" s="6"/>
-      <c r="H60" s="6"/>
-      <c r="I60" s="6"/>
-      <c r="J60" s="6"/>
-      <c r="K60" s="6"/>
-      <c r="L60" s="6"/>
-      <c r="M60" s="6"/>
-      <c r="N60" s="6"/>
-      <c r="O60" s="6"/>
+      <c r="C60" s="8"/>
+      <c r="D60" s="8"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="8"/>
+      <c r="H60" s="8"/>
+      <c r="I60" s="8"/>
+      <c r="J60" s="8"/>
+      <c r="K60" s="8"/>
+      <c r="L60" s="8"/>
+      <c r="M60" s="8"/>
+      <c r="N60" s="8"/>
+      <c r="O60" s="8"/>
       <c r="Q60" s="3" t="s">
         <v>73</v>
       </c>
@@ -3805,203 +3805,203 @@
       <c r="B61" t="s">
         <v>15</v>
       </c>
-      <c r="C61" s="6"/>
-      <c r="D61" s="6"/>
-      <c r="E61" s="6"/>
-      <c r="F61" s="6"/>
-      <c r="G61" s="6"/>
-      <c r="H61" s="6"/>
-      <c r="I61" s="6"/>
-      <c r="J61" s="6"/>
-      <c r="K61" s="6"/>
-      <c r="L61" s="6"/>
-      <c r="M61" s="6"/>
-      <c r="N61" s="6"/>
-      <c r="O61" s="6"/>
+      <c r="C61" s="8"/>
+      <c r="D61" s="8"/>
+      <c r="E61" s="8"/>
+      <c r="F61" s="8"/>
+      <c r="G61" s="8"/>
+      <c r="H61" s="8"/>
+      <c r="I61" s="8"/>
+      <c r="J61" s="8"/>
+      <c r="K61" s="8"/>
+      <c r="L61" s="8"/>
+      <c r="M61" s="8"/>
+      <c r="N61" s="8"/>
+      <c r="O61" s="8"/>
       <c r="Q61" s="3" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="C62" s="6"/>
-      <c r="D62" s="6"/>
-      <c r="E62" s="6"/>
-      <c r="F62" s="6"/>
-      <c r="G62" s="6"/>
-      <c r="H62" s="6"/>
-      <c r="I62" s="6"/>
-      <c r="J62" s="6"/>
-      <c r="K62" s="6"/>
-      <c r="L62" s="6"/>
-      <c r="M62" s="6"/>
-      <c r="N62" s="6"/>
-      <c r="O62" s="6"/>
+      <c r="C62" s="8"/>
+      <c r="D62" s="8"/>
+      <c r="E62" s="8"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="8"/>
+      <c r="H62" s="8"/>
+      <c r="I62" s="8"/>
+      <c r="J62" s="8"/>
+      <c r="K62" s="8"/>
+      <c r="L62" s="8"/>
+      <c r="M62" s="8"/>
+      <c r="N62" s="8"/>
+      <c r="O62" s="8"/>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A63">
         <v>27</v>
       </c>
-      <c r="B63" s="4" t="s">
+      <c r="B63" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C63" s="6"/>
-      <c r="D63" s="6"/>
-      <c r="E63" s="6"/>
-      <c r="F63" s="6"/>
-      <c r="G63" s="6"/>
-      <c r="H63" s="6"/>
-      <c r="I63" s="6"/>
-      <c r="J63" s="6"/>
-      <c r="K63" s="6"/>
-      <c r="L63" s="6"/>
-      <c r="M63" s="6"/>
-      <c r="N63" s="6"/>
-      <c r="O63" s="6"/>
+      <c r="C63" s="8"/>
+      <c r="D63" s="8"/>
+      <c r="E63" s="8"/>
+      <c r="F63" s="8"/>
+      <c r="G63" s="8"/>
+      <c r="H63" s="8"/>
+      <c r="I63" s="8"/>
+      <c r="J63" s="8"/>
+      <c r="K63" s="8"/>
+      <c r="L63" s="8"/>
+      <c r="M63" s="8"/>
+      <c r="N63" s="8"/>
+      <c r="O63" s="8"/>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="C64" s="6"/>
-      <c r="D64" s="6"/>
-      <c r="E64" s="6"/>
-      <c r="F64" s="6"/>
-      <c r="G64" s="6"/>
-      <c r="H64" s="6"/>
-      <c r="I64" s="6"/>
-      <c r="J64" s="6"/>
-      <c r="K64" s="6"/>
-      <c r="L64" s="6"/>
-      <c r="M64" s="6"/>
-      <c r="N64" s="6"/>
-      <c r="O64" s="6"/>
+      <c r="C64" s="8"/>
+      <c r="D64" s="8"/>
+      <c r="E64" s="8"/>
+      <c r="F64" s="8"/>
+      <c r="G64" s="8"/>
+      <c r="H64" s="8"/>
+      <c r="I64" s="8"/>
+      <c r="J64" s="8"/>
+      <c r="K64" s="8"/>
+      <c r="L64" s="8"/>
+      <c r="M64" s="8"/>
+      <c r="N64" s="8"/>
+      <c r="O64" s="8"/>
       <c r="Q64" s="3" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A65" s="9">
+      <c r="A65" s="7">
         <v>28</v>
       </c>
-      <c r="B65" s="9" t="s">
+      <c r="B65" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C65" s="6"/>
-      <c r="D65" s="6"/>
-      <c r="E65" s="6"/>
-      <c r="F65" s="6"/>
-      <c r="G65" s="6"/>
-      <c r="H65" s="6"/>
-      <c r="I65" s="6"/>
-      <c r="J65" s="6"/>
-      <c r="K65" s="6"/>
-      <c r="L65" s="6"/>
-      <c r="M65" s="6"/>
-      <c r="N65" s="6"/>
-      <c r="O65" s="6"/>
+      <c r="C65" s="8"/>
+      <c r="D65" s="8"/>
+      <c r="E65" s="8"/>
+      <c r="F65" s="8"/>
+      <c r="G65" s="8"/>
+      <c r="H65" s="8"/>
+      <c r="I65" s="8"/>
+      <c r="J65" s="8"/>
+      <c r="K65" s="8"/>
+      <c r="L65" s="8"/>
+      <c r="M65" s="8"/>
+      <c r="N65" s="8"/>
+      <c r="O65" s="8"/>
       <c r="Q65" s="3" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A66" s="9"/>
-      <c r="B66" s="9"/>
-      <c r="C66" s="6"/>
-      <c r="D66" s="6"/>
-      <c r="E66" s="6"/>
-      <c r="F66" s="6"/>
-      <c r="G66" s="6"/>
-      <c r="H66" s="6"/>
-      <c r="I66" s="6"/>
-      <c r="J66" s="6"/>
-      <c r="K66" s="6"/>
-      <c r="L66" s="6"/>
-      <c r="M66" s="6"/>
-      <c r="N66" s="6"/>
-      <c r="O66" s="6"/>
+      <c r="A66" s="7"/>
+      <c r="B66" s="7"/>
+      <c r="C66" s="8"/>
+      <c r="D66" s="8"/>
+      <c r="E66" s="8"/>
+      <c r="F66" s="8"/>
+      <c r="G66" s="8"/>
+      <c r="H66" s="8"/>
+      <c r="I66" s="8"/>
+      <c r="J66" s="8"/>
+      <c r="K66" s="8"/>
+      <c r="L66" s="8"/>
+      <c r="M66" s="8"/>
+      <c r="N66" s="8"/>
+      <c r="O66" s="8"/>
       <c r="Q66" s="3" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A67" s="9">
+      <c r="A67" s="7">
         <v>29</v>
       </c>
-      <c r="B67" s="9" t="s">
+      <c r="B67" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C67" s="6"/>
-      <c r="D67" s="6"/>
-      <c r="E67" s="6"/>
-      <c r="F67" s="6"/>
-      <c r="G67" s="6"/>
-      <c r="H67" s="6"/>
-      <c r="I67" s="6"/>
-      <c r="J67" s="6"/>
-      <c r="K67" s="6"/>
-      <c r="L67" s="6"/>
-      <c r="M67" s="6"/>
-      <c r="N67" s="6"/>
-      <c r="O67" s="6"/>
+      <c r="C67" s="8"/>
+      <c r="D67" s="8"/>
+      <c r="E67" s="8"/>
+      <c r="F67" s="8"/>
+      <c r="G67" s="8"/>
+      <c r="H67" s="8"/>
+      <c r="I67" s="8"/>
+      <c r="J67" s="8"/>
+      <c r="K67" s="8"/>
+      <c r="L67" s="8"/>
+      <c r="M67" s="8"/>
+      <c r="N67" s="8"/>
+      <c r="O67" s="8"/>
       <c r="Q67" s="3" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A68" s="9"/>
-      <c r="B68" s="9"/>
-      <c r="C68" s="6"/>
-      <c r="D68" s="6"/>
-      <c r="E68" s="6"/>
-      <c r="F68" s="6"/>
-      <c r="G68" s="6"/>
-      <c r="H68" s="6"/>
-      <c r="I68" s="6"/>
-      <c r="J68" s="6"/>
-      <c r="K68" s="6"/>
-      <c r="L68" s="6"/>
-      <c r="M68" s="6"/>
-      <c r="N68" s="6"/>
-      <c r="O68" s="6"/>
+      <c r="A68" s="7"/>
+      <c r="B68" s="7"/>
+      <c r="C68" s="8"/>
+      <c r="D68" s="8"/>
+      <c r="E68" s="8"/>
+      <c r="F68" s="8"/>
+      <c r="G68" s="8"/>
+      <c r="H68" s="8"/>
+      <c r="I68" s="8"/>
+      <c r="J68" s="8"/>
+      <c r="K68" s="8"/>
+      <c r="L68" s="8"/>
+      <c r="M68" s="8"/>
+      <c r="N68" s="8"/>
+      <c r="O68" s="8"/>
       <c r="Q68" s="3" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A69" s="9">
+      <c r="A69" s="7">
         <v>30</v>
       </c>
-      <c r="B69" s="9" t="s">
+      <c r="B69" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C69" s="6"/>
-      <c r="D69" s="6"/>
-      <c r="E69" s="6"/>
-      <c r="F69" s="6"/>
-      <c r="G69" s="6"/>
-      <c r="H69" s="6"/>
-      <c r="I69" s="6"/>
-      <c r="J69" s="6"/>
-      <c r="K69" s="6"/>
-      <c r="L69" s="6"/>
-      <c r="M69" s="6"/>
-      <c r="N69" s="6"/>
-      <c r="O69" s="6"/>
+      <c r="C69" s="8"/>
+      <c r="D69" s="8"/>
+      <c r="E69" s="8"/>
+      <c r="F69" s="8"/>
+      <c r="G69" s="8"/>
+      <c r="H69" s="8"/>
+      <c r="I69" s="8"/>
+      <c r="J69" s="8"/>
+      <c r="K69" s="8"/>
+      <c r="L69" s="8"/>
+      <c r="M69" s="8"/>
+      <c r="N69" s="8"/>
+      <c r="O69" s="8"/>
       <c r="Q69" s="3" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="C70" s="6"/>
-      <c r="D70" s="6"/>
-      <c r="E70" s="6"/>
-      <c r="F70" s="6"/>
-      <c r="G70" s="6"/>
-      <c r="H70" s="6"/>
-      <c r="I70" s="6"/>
-      <c r="J70" s="6"/>
-      <c r="K70" s="6"/>
-      <c r="L70" s="6"/>
-      <c r="M70" s="6"/>
-      <c r="N70" s="6"/>
-      <c r="O70" s="6"/>
+      <c r="C70" s="8"/>
+      <c r="D70" s="8"/>
+      <c r="E70" s="8"/>
+      <c r="F70" s="8"/>
+      <c r="G70" s="8"/>
+      <c r="H70" s="8"/>
+      <c r="I70" s="8"/>
+      <c r="J70" s="8"/>
+      <c r="K70" s="8"/>
+      <c r="L70" s="8"/>
+      <c r="M70" s="8"/>
+      <c r="N70" s="8"/>
+      <c r="O70" s="8"/>
       <c r="Q70" s="3" t="s">
         <v>81</v>
       </c>
@@ -4010,157 +4010,157 @@
       <c r="A71">
         <v>31</v>
       </c>
-      <c r="B71" s="8" t="s">
+      <c r="B71" s="6" t="s">
         <v>325</v>
       </c>
-      <c r="C71" s="6"/>
-      <c r="D71" s="6"/>
-      <c r="E71" s="6"/>
-      <c r="F71" s="6"/>
-      <c r="G71" s="6"/>
-      <c r="H71" s="6"/>
-      <c r="I71" s="6"/>
-      <c r="J71" s="6"/>
-      <c r="K71" s="6"/>
-      <c r="L71" s="6"/>
-      <c r="M71" s="6"/>
-      <c r="N71" s="6"/>
-      <c r="O71" s="6"/>
+      <c r="C71" s="8"/>
+      <c r="D71" s="8"/>
+      <c r="E71" s="8"/>
+      <c r="F71" s="8"/>
+      <c r="G71" s="8"/>
+      <c r="H71" s="8"/>
+      <c r="I71" s="8"/>
+      <c r="J71" s="8"/>
+      <c r="K71" s="8"/>
+      <c r="L71" s="8"/>
+      <c r="M71" s="8"/>
+      <c r="N71" s="8"/>
+      <c r="O71" s="8"/>
       <c r="Q71" s="3" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="C72" s="6"/>
-      <c r="D72" s="6"/>
-      <c r="E72" s="6"/>
-      <c r="F72" s="6"/>
-      <c r="G72" s="6"/>
-      <c r="H72" s="6"/>
-      <c r="I72" s="6"/>
-      <c r="J72" s="6"/>
-      <c r="K72" s="6"/>
-      <c r="L72" s="6"/>
-      <c r="M72" s="6"/>
-      <c r="N72" s="6"/>
-      <c r="O72" s="6"/>
+      <c r="C72" s="8"/>
+      <c r="D72" s="8"/>
+      <c r="E72" s="8"/>
+      <c r="F72" s="8"/>
+      <c r="G72" s="8"/>
+      <c r="H72" s="8"/>
+      <c r="I72" s="8"/>
+      <c r="J72" s="8"/>
+      <c r="K72" s="8"/>
+      <c r="L72" s="8"/>
+      <c r="M72" s="8"/>
+      <c r="N72" s="8"/>
+      <c r="O72" s="8"/>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="C73" s="6"/>
-      <c r="D73" s="6"/>
-      <c r="E73" s="6"/>
-      <c r="F73" s="6"/>
-      <c r="G73" s="6"/>
-      <c r="H73" s="6"/>
-      <c r="I73" s="6"/>
-      <c r="J73" s="6"/>
-      <c r="K73" s="6"/>
-      <c r="L73" s="6"/>
-      <c r="M73" s="6"/>
-      <c r="N73" s="6"/>
-      <c r="O73" s="6"/>
+      <c r="C73" s="8"/>
+      <c r="D73" s="8"/>
+      <c r="E73" s="8"/>
+      <c r="F73" s="8"/>
+      <c r="G73" s="8"/>
+      <c r="H73" s="8"/>
+      <c r="I73" s="8"/>
+      <c r="J73" s="8"/>
+      <c r="K73" s="8"/>
+      <c r="L73" s="8"/>
+      <c r="M73" s="8"/>
+      <c r="N73" s="8"/>
+      <c r="O73" s="8"/>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="C74" s="6"/>
-      <c r="D74" s="6"/>
-      <c r="E74" s="6"/>
-      <c r="F74" s="6"/>
-      <c r="G74" s="6"/>
-      <c r="H74" s="6"/>
-      <c r="I74" s="6"/>
-      <c r="J74" s="6"/>
-      <c r="K74" s="6"/>
-      <c r="L74" s="6"/>
-      <c r="M74" s="6"/>
-      <c r="N74" s="6"/>
-      <c r="O74" s="6"/>
+      <c r="C74" s="8"/>
+      <c r="D74" s="8"/>
+      <c r="E74" s="8"/>
+      <c r="F74" s="8"/>
+      <c r="G74" s="8"/>
+      <c r="H74" s="8"/>
+      <c r="I74" s="8"/>
+      <c r="J74" s="8"/>
+      <c r="K74" s="8"/>
+      <c r="L74" s="8"/>
+      <c r="M74" s="8"/>
+      <c r="N74" s="8"/>
+      <c r="O74" s="8"/>
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="C75" s="6"/>
-      <c r="D75" s="6"/>
-      <c r="E75" s="6"/>
-      <c r="F75" s="6"/>
-      <c r="G75" s="6"/>
-      <c r="H75" s="6"/>
-      <c r="I75" s="6"/>
-      <c r="J75" s="6"/>
-      <c r="K75" s="6"/>
-      <c r="L75" s="6"/>
-      <c r="M75" s="6"/>
-      <c r="N75" s="6"/>
-      <c r="O75" s="6"/>
+      <c r="C75" s="8"/>
+      <c r="D75" s="8"/>
+      <c r="E75" s="8"/>
+      <c r="F75" s="8"/>
+      <c r="G75" s="8"/>
+      <c r="H75" s="8"/>
+      <c r="I75" s="8"/>
+      <c r="J75" s="8"/>
+      <c r="K75" s="8"/>
+      <c r="L75" s="8"/>
+      <c r="M75" s="8"/>
+      <c r="N75" s="8"/>
+      <c r="O75" s="8"/>
       <c r="Q75" s="3" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="C76" s="6"/>
-      <c r="D76" s="6"/>
-      <c r="E76" s="6"/>
-      <c r="F76" s="6"/>
-      <c r="G76" s="6"/>
-      <c r="H76" s="6"/>
-      <c r="I76" s="6"/>
-      <c r="J76" s="6"/>
-      <c r="K76" s="6"/>
-      <c r="L76" s="6"/>
-      <c r="M76" s="6"/>
-      <c r="N76" s="6"/>
-      <c r="O76" s="6"/>
+      <c r="C76" s="8"/>
+      <c r="D76" s="8"/>
+      <c r="E76" s="8"/>
+      <c r="F76" s="8"/>
+      <c r="G76" s="8"/>
+      <c r="H76" s="8"/>
+      <c r="I76" s="8"/>
+      <c r="J76" s="8"/>
+      <c r="K76" s="8"/>
+      <c r="L76" s="8"/>
+      <c r="M76" s="8"/>
+      <c r="N76" s="8"/>
+      <c r="O76" s="8"/>
       <c r="Q76" s="3" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="C77" s="6"/>
-      <c r="D77" s="6"/>
-      <c r="E77" s="6"/>
-      <c r="F77" s="6"/>
-      <c r="G77" s="6"/>
-      <c r="H77" s="6"/>
-      <c r="I77" s="6"/>
-      <c r="J77" s="6"/>
-      <c r="K77" s="6"/>
-      <c r="L77" s="6"/>
-      <c r="M77" s="6"/>
-      <c r="N77" s="6"/>
-      <c r="O77" s="6"/>
+      <c r="C77" s="8"/>
+      <c r="D77" s="8"/>
+      <c r="E77" s="8"/>
+      <c r="F77" s="8"/>
+      <c r="G77" s="8"/>
+      <c r="H77" s="8"/>
+      <c r="I77" s="8"/>
+      <c r="J77" s="8"/>
+      <c r="K77" s="8"/>
+      <c r="L77" s="8"/>
+      <c r="M77" s="8"/>
+      <c r="N77" s="8"/>
+      <c r="O77" s="8"/>
       <c r="Q77" s="3" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="C78" s="6"/>
-      <c r="D78" s="6"/>
-      <c r="E78" s="6"/>
-      <c r="F78" s="6"/>
-      <c r="G78" s="6"/>
-      <c r="H78" s="6"/>
-      <c r="I78" s="6"/>
-      <c r="J78" s="6"/>
-      <c r="K78" s="6"/>
-      <c r="L78" s="6"/>
-      <c r="M78" s="6"/>
-      <c r="N78" s="6"/>
-      <c r="O78" s="6"/>
+      <c r="C78" s="8"/>
+      <c r="D78" s="8"/>
+      <c r="E78" s="8"/>
+      <c r="F78" s="8"/>
+      <c r="G78" s="8"/>
+      <c r="H78" s="8"/>
+      <c r="I78" s="8"/>
+      <c r="J78" s="8"/>
+      <c r="K78" s="8"/>
+      <c r="L78" s="8"/>
+      <c r="M78" s="8"/>
+      <c r="N78" s="8"/>
+      <c r="O78" s="8"/>
       <c r="Q78" s="3" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="C79" s="6"/>
-      <c r="D79" s="6"/>
-      <c r="E79" s="6"/>
-      <c r="F79" s="6"/>
-      <c r="G79" s="6"/>
-      <c r="H79" s="6"/>
-      <c r="I79" s="6"/>
-      <c r="J79" s="6"/>
-      <c r="K79" s="6"/>
-      <c r="L79" s="6"/>
-      <c r="M79" s="6"/>
-      <c r="N79" s="6"/>
-      <c r="O79" s="6"/>
+      <c r="C79" s="8"/>
+      <c r="D79" s="8"/>
+      <c r="E79" s="8"/>
+      <c r="F79" s="8"/>
+      <c r="G79" s="8"/>
+      <c r="H79" s="8"/>
+      <c r="I79" s="8"/>
+      <c r="J79" s="8"/>
+      <c r="K79" s="8"/>
+      <c r="L79" s="8"/>
+      <c r="M79" s="8"/>
+      <c r="N79" s="8"/>
+      <c r="O79" s="8"/>
       <c r="Q79" s="3" t="s">
         <v>87</v>
       </c>

--- a/notes/java_syllbus.xlsx
+++ b/notes/java_syllbus.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="325">
   <si>
     <t xml:space="preserve"> Basics of JAVA ( completed)</t>
   </si>
@@ -961,9 +961,6 @@
   </si>
   <si>
     <t>√ Singleton design pattern with Serialization</t>
-  </si>
-  <si>
-    <t>© Copyright 2018-2022 Scientech Easy. All rights reserved.</t>
   </si>
   <si>
     <t>Next ⇒</t>
@@ -1110,7 +1107,7 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1123,6 +1120,9 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1926,53 +1926,8 @@
                 </a:schemeClr>
               </a:solidFill>
             </a:rPr>
-            <a:t>Io streams</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="342900" indent="-342900">
-            <a:buFont typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            <a:buChar char="•"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-IN" sz="2000" b="1" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:lumMod val="75000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:rPr>
             <a:t>collections</a:t>
           </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="342900" indent="-342900">
-            <a:buFont typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            <a:buChar char="•"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-IN" sz="2000" b="1" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:lumMod val="75000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Serialization</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="342900" indent="-342900">
-            <a:buFont typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            <a:buChar char="•"/>
-          </a:pPr>
-          <a:endParaRPr lang="en-IN" sz="2000" b="1" baseline="0">
-            <a:solidFill>
-              <a:schemeClr val="accent6">
-                <a:lumMod val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr marL="342900" indent="-342900">
@@ -2294,13 +2249,14 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-IN" sz="2400"/>
-            <a:t>11/03/2022    ----------------11/04/2022 i want</a:t>
-          </a:r>
+            <a:t>11/03/2021    ----------------11/04/2022 </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
           <a:r>
             <a:rPr lang="en-IN" sz="2400" baseline="0"/>
-            <a:t> to clime 1 year java developer experience and i want to complete </a:t>
-          </a:r>
-          <a:endParaRPr lang="en-IN" sz="2400"/>
+            <a:t>  java + coding , technical + programming</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2574,8 +2530,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q412"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="56" zoomScaleNormal="10" zoomScalePageLayoutView="134" workbookViewId="0">
-      <selection activeCell="B63" sqref="B63"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="70" zoomScaleNormal="10" zoomScalePageLayoutView="134" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10:B72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.4" x14ac:dyDescent="0.45"/>
@@ -2719,7 +2675,7 @@
       <c r="P7" s="9"/>
       <c r="Q7" s="9"/>
     </row>
-    <row r="8" spans="1:17" ht="46.2" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:17" ht="46.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
@@ -2733,8 +2689,9 @@
       <c r="M8" s="9"/>
       <c r="N8" s="9"/>
       <c r="O8" s="9"/>
-    </row>
-    <row r="9" spans="1:17" ht="23.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="Q8" s="10"/>
+    </row>
+    <row r="9" spans="1:17" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
@@ -2748,9 +2705,9 @@
       <c r="M9" s="9"/>
       <c r="N9" s="9"/>
       <c r="O9" s="9"/>
-      <c r="Q9" s="5"/>
-    </row>
-    <row r="10" spans="1:17" ht="23.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="Q9" s="10"/>
+    </row>
+    <row r="10" spans="1:17" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
@@ -2764,9 +2721,9 @@
       <c r="M10" s="9"/>
       <c r="N10" s="9"/>
       <c r="O10" s="9"/>
-      <c r="Q10" s="5"/>
-    </row>
-    <row r="11" spans="1:17" ht="23.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="Q10" s="10"/>
+    </row>
+    <row r="11" spans="1:17" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1</v>
       </c>
@@ -2784,7 +2741,7 @@
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
-      <c r="Q11" s="5"/>
+      <c r="Q11" s="10"/>
     </row>
     <row r="12" spans="1:17" ht="23.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C12" s="8"/>
@@ -3517,7 +3474,7 @@
       <c r="A47">
         <v>19</v>
       </c>
-      <c r="B47" s="4" t="s">
+      <c r="B47" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C47" s="8"/>
@@ -4011,7 +3968,7 @@
         <v>31</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C71" s="8"/>
       <c r="D71" s="8"/>
@@ -5315,66 +5272,62 @@
         <v>313</v>
       </c>
     </row>
-    <row r="398" spans="17:17" x14ac:dyDescent="0.45">
-      <c r="Q398" s="3" t="s">
-        <v>314</v>
-      </c>
-    </row>
     <row r="399" spans="17:17" x14ac:dyDescent="0.45">
       <c r="Q399" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="400" spans="17:17" x14ac:dyDescent="0.45">
       <c r="Q400" s="3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="401" spans="17:17" x14ac:dyDescent="0.45">
       <c r="Q401" s="3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="406" spans="17:17" x14ac:dyDescent="0.45">
       <c r="Q406" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="407" spans="17:17" x14ac:dyDescent="0.45">
       <c r="Q407" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="408" spans="17:17" x14ac:dyDescent="0.45">
       <c r="Q408" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="409" spans="17:17" x14ac:dyDescent="0.45">
       <c r="Q409" s="3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="410" spans="17:17" x14ac:dyDescent="0.45">
       <c r="Q410" s="3" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="411" spans="17:17" x14ac:dyDescent="0.45">
       <c r="Q411" s="3" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="412" spans="17:17" x14ac:dyDescent="0.45">
       <c r="Q412" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="C12:O79"/>
     <mergeCell ref="A1:Q7"/>
     <mergeCell ref="C8:O10"/>
+    <mergeCell ref="Q8:Q11"/>
   </mergeCells>
   <conditionalFormatting sqref="C12:O79">
     <cfRule type="colorScale" priority="1">

--- a/notes/java_syllbus.xlsx
+++ b/notes/java_syllbus.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="419">
   <si>
     <t xml:space="preserve"> Basics of JAVA ( completed)</t>
   </si>
@@ -994,6 +994,999 @@
   </si>
   <si>
     <t>Database sql???</t>
+  </si>
+  <si>
+    <t>GIT &amp; GIT HUB</t>
+  </si>
+  <si>
+    <t>maven and Gradle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">junit &amp; TestNG </t>
+  </si>
+  <si>
+    <t>postaman and Mockito</t>
+  </si>
+  <si>
+    <t>git config</t>
+  </si>
+  <si>
+    <t>git init</t>
+  </si>
+  <si>
+    <t>git clone</t>
+  </si>
+  <si>
+    <t>git add</t>
+  </si>
+  <si>
+    <t>git commit</t>
+  </si>
+  <si>
+    <t>git diff</t>
+  </si>
+  <si>
+    <t>git reset</t>
+  </si>
+  <si>
+    <t>git status</t>
+  </si>
+  <si>
+    <t>git rm</t>
+  </si>
+  <si>
+    <t>git log</t>
+  </si>
+  <si>
+    <t>git show</t>
+  </si>
+  <si>
+    <t>git tag</t>
+  </si>
+  <si>
+    <t>git branch</t>
+  </si>
+  <si>
+    <t>git checkout</t>
+  </si>
+  <si>
+    <t>git merge</t>
+  </si>
+  <si>
+    <t>git remote</t>
+  </si>
+  <si>
+    <t>git push</t>
+  </si>
+  <si>
+    <t>git pull</t>
+  </si>
+  <si>
+    <t>git stash</t>
+  </si>
+  <si>
+    <t>Git Commands</t>
+  </si>
+  <si>
+    <r>
+      <t>Usage: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFC7254E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>git config –global user.name “[name]”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF222635"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>  </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Usage: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFC7254E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>git config –global user.email “[email address]”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF222635"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>  </t>
+    </r>
+  </si>
+  <si>
+    <t>This command sets the author name and email address respectively to be used with your commits.</t>
+  </si>
+  <si>
+    <r>
+      <t>Usage: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFC7254E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>git init [repository name]</t>
+    </r>
+  </si>
+  <si>
+    <t>This command is used to start a new repository.</t>
+  </si>
+  <si>
+    <r>
+      <t>Usage: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFC7254E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>git clone [url]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF222635"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>  </t>
+    </r>
+  </si>
+  <si>
+    <t>This command is used to obtain a repository from an existing URL.</t>
+  </si>
+  <si>
+    <r>
+      <t>Usage: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFC7254E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>git add [file]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF222635"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>  </t>
+    </r>
+  </si>
+  <si>
+    <t>This command adds a file to the staging area.</t>
+  </si>
+  <si>
+    <r>
+      <t>Usage: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFC7254E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>git add *</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF222635"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>  </t>
+    </r>
+  </si>
+  <si>
+    <t>This command adds one or more to the staging area.</t>
+  </si>
+  <si>
+    <r>
+      <t>Usage: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFC7254E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>git commit -m “[ Type in the commit message]”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF222635"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>  </t>
+    </r>
+  </si>
+  <si>
+    <t>This command records or snapshots the file permanently in the version history.</t>
+  </si>
+  <si>
+    <r>
+      <t>Usage: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFC7254E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>git commit -a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF222635"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>  </t>
+    </r>
+  </si>
+  <si>
+    <t>This command commits any files you’ve added with the git add command and also commits any files you’ve changed since then.</t>
+  </si>
+  <si>
+    <r>
+      <t>Usage: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFC7254E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>git diff</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF222635"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>  </t>
+    </r>
+  </si>
+  <si>
+    <t>This command shows the file differences which are not yet staged.</t>
+  </si>
+  <si>
+    <r>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFC7254E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Usage: git diff –staged</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF222635"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>This command shows the differences between the files in the staging area and the latest version present.</t>
+  </si>
+  <si>
+    <r>
+      <t>Usage: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFC7254E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>git diff [first branch] [second branch]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF222635"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>  </t>
+    </r>
+  </si>
+  <si>
+    <t>This command shows the differences between the two branches mentioned.</t>
+  </si>
+  <si>
+    <r>
+      <t>Usage: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFC7254E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>git reset [file]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF222635"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>  </t>
+    </r>
+  </si>
+  <si>
+    <t>This command unstages the file, but it preserves the file contents.</t>
+  </si>
+  <si>
+    <r>
+      <t>Usage: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFC7254E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>git reset [commit]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF222635"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>  </t>
+    </r>
+  </si>
+  <si>
+    <t>This command undoes all the commits after the specified commit and preserves the changes locally.</t>
+  </si>
+  <si>
+    <r>
+      <t>Usage: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFC7254E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>git reset –hard [commit]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF222635"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>  This command discards all history and goes back to the specified commit.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Usage: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFC7254E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>git status</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF222635"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>  </t>
+    </r>
+  </si>
+  <si>
+    <t>This command lists all the files that have to be committed.</t>
+  </si>
+  <si>
+    <r>
+      <t>Usage: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFC7254E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>git rm [file]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF222635"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>  </t>
+    </r>
+  </si>
+  <si>
+    <t>This command deletes the file from your working directory and stages the deletion.</t>
+  </si>
+  <si>
+    <r>
+      <t>Usage: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFC7254E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>git log</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF222635"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>  </t>
+    </r>
+  </si>
+  <si>
+    <t>This command is used to list the version history for the current branch.</t>
+  </si>
+  <si>
+    <r>
+      <t>Usage: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFC7254E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>git log –follow[file]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF222635"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>  </t>
+    </r>
+  </si>
+  <si>
+    <t>This command lists version history for a file, including the renaming of files also.</t>
+  </si>
+  <si>
+    <r>
+      <t>Usage: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFC7254E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>git show [commit]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF222635"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>  </t>
+    </r>
+  </si>
+  <si>
+    <t>This command shows the metadata and content changes of the specified commit.</t>
+  </si>
+  <si>
+    <r>
+      <t>Usage: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFC7254E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>git tag [commitID]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF222635"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>  </t>
+    </r>
+  </si>
+  <si>
+    <t>This command is used to give tags to the specified commit.</t>
+  </si>
+  <si>
+    <r>
+      <t>Usage: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFC7254E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>git branch</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF222635"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>  </t>
+    </r>
+  </si>
+  <si>
+    <t>This command lists all the local branches in the current repository.</t>
+  </si>
+  <si>
+    <r>
+      <t>Usage: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFC7254E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>git branch [branch name]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF222635"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>  </t>
+    </r>
+  </si>
+  <si>
+    <t>This command creates a new branch.</t>
+  </si>
+  <si>
+    <r>
+      <t>Usage: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFC7254E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>git branch -d [branch name]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF222635"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>  </t>
+    </r>
+  </si>
+  <si>
+    <t>This command deletes the feature branch.</t>
+  </si>
+  <si>
+    <r>
+      <t>Usage: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFC7254E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>git checkout [branch name]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF222635"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>  </t>
+    </r>
+  </si>
+  <si>
+    <t>This command is used to switch from one branch to another.</t>
+  </si>
+  <si>
+    <r>
+      <t>Usage: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFC7254E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>git checkout -b [branch name]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF222635"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>  </t>
+    </r>
+  </si>
+  <si>
+    <t>This command creates a new branch and also switches to it.</t>
+  </si>
+  <si>
+    <r>
+      <t>Usage: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFC7254E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>git merge [branch name]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF222635"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>  </t>
+    </r>
+  </si>
+  <si>
+    <t>This command merges the specified branch’s history into the current branch.</t>
+  </si>
+  <si>
+    <r>
+      <t>Usage: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFC7254E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>git remote add [variable name] [Remote Server Link]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF222635"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>  </t>
+    </r>
+  </si>
+  <si>
+    <t>This command is used to connect your local repository to the remote server.</t>
+  </si>
+  <si>
+    <r>
+      <t>Usage: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFC7254E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>git push [variable name] master</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF222635"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>  </t>
+    </r>
+  </si>
+  <si>
+    <t>This command sends the committed changes of master branch to your remote repository.</t>
+  </si>
+  <si>
+    <r>
+      <t>Usage: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFC7254E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>git push [variable name] [branch]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF222635"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>  </t>
+    </r>
+  </si>
+  <si>
+    <t>This command sends the branch commits to your remote repository.</t>
+  </si>
+  <si>
+    <r>
+      <t>Usage: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFC7254E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>git push –all [variable name]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF222635"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>  </t>
+    </r>
+  </si>
+  <si>
+    <t>This command pushes all branches to your remote repository.</t>
+  </si>
+  <si>
+    <r>
+      <t>Usage: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFC7254E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>git push [variable name] :[branch name]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF222635"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>  </t>
+    </r>
+  </si>
+  <si>
+    <t>This command deletes a branch on your remote repository.</t>
+  </si>
+  <si>
+    <r>
+      <t>Usage: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFC7254E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>git pull [Repository Link]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF222635"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>  </t>
+    </r>
+  </si>
+  <si>
+    <t>This command fetches and merges changes on the remote server to your working directory.</t>
+  </si>
+  <si>
+    <r>
+      <t>Usage: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFC7254E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>git stash save</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF222635"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>  </t>
+    </r>
+  </si>
+  <si>
+    <t>This command temporarily stores all the modified tracked files.</t>
+  </si>
+  <si>
+    <r>
+      <t>Usage: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFC7254E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>git stash pop</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF222635"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>  </t>
+    </r>
+  </si>
+  <si>
+    <t>This command restores the most recently stashed files.</t>
+  </si>
+  <si>
+    <r>
+      <t>Usage: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFC7254E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>git stash list</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF222635"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>  </t>
+    </r>
+  </si>
+  <si>
+    <t>This command lists all stashed changesets.</t>
+  </si>
+  <si>
+    <r>
+      <t>Usage: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFC7254E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>git stash drop</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF222635"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>  </t>
+    </r>
+  </si>
+  <si>
+    <t>This command discards the most recently stashed changeset.</t>
   </si>
 </sst>
 </file>
@@ -1003,7 +1996,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_ &quot;₹&quot;\ * #,##0.00_ ;_ &quot;₹&quot;\ * \-#,##0.00_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1014,13 +2007,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1047,8 +2033,40 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF222635"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF222635"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color rgb="FF222635"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <color rgb="FF222635"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFC7254E"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1058,11 +2076,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
     <fill>
@@ -1100,37 +2113,53 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="4"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="3"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="5">
-    <cellStyle name="Bad" xfId="2" builtinId="27"/>
-    <cellStyle name="Calculation" xfId="4" builtinId="22"/>
+  <cellStyles count="4">
+    <cellStyle name="Calculation" xfId="3" builtinId="22"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
-    <cellStyle name="Neutral" xfId="3" builtinId="28"/>
+    <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1907,10 +2936,12 @@
           <a:r>
             <a:rPr lang="en-IN" sz="2000" b="1" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
               </a:solidFill>
             </a:rPr>
-            <a:t>Java threading</a:t>
+            <a:t>Agil method</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -1926,37 +2957,8 @@
                 </a:schemeClr>
               </a:solidFill>
             </a:rPr>
-            <a:t>collections</a:t>
+            <a:t>Design Patterns</a:t>
           </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="342900" indent="-342900">
-            <a:buFont typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            <a:buChar char="•"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-IN" sz="2000" b="1" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:lumMod val="75000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>with in the 3 days i want complete these topics .</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="342900" indent="-342900">
-            <a:buFont typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            <a:buChar char="•"/>
-          </a:pPr>
-          <a:endParaRPr lang="en-IN" sz="2000" b="1" baseline="0">
-            <a:solidFill>
-              <a:schemeClr val="accent6">
-                <a:lumMod val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr marL="342900" indent="-342900">
@@ -1970,6 +2972,22 @@
               </a:schemeClr>
             </a:solidFill>
           </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="342900" indent="-342900">
+            <a:buFont typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:buChar char="•"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-IN" sz="2000" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>(Singleton, Factory, Abstract factory, Strategy, Template, Builder, Prototype)</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2260,6 +3278,2051 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>65</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>723900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="TextBox 7"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21240750" y="133350"/>
+          <a:ext cx="28327350" cy="1885950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-IN" sz="9600">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Spring &amp; Spring Boot</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IN" sz="4400">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>  spring IOC, spring mvc,spring boot,spring rest  / Hibernate &amp; Jpa</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-IN" sz="4400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>67</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>91</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>685800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="TextBox 8"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="50501550" y="133350"/>
+          <a:ext cx="14897100" cy="1847850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-IN" sz="5400">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Git</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IN" sz="5400" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> &amp; Github.  Maven &amp; Gradle. Junit &amp; Testng</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-IN" sz="5400" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>postman/mockito</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-IN" sz="5400">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>70</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>70</xdr:col>
+      <xdr:colOff>6088226</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10" descr="Git Config Command - Git Commands - Edureka"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="54429660" y="4221480"/>
+          <a:ext cx="6103620" cy="327660"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>70</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>70</xdr:col>
+      <xdr:colOff>6088226</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>297180</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 11" descr="GitInit Command - Git Commands - Edureka"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="54429660" y="6743700"/>
+          <a:ext cx="6103620" cy="297180"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>70</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>70</xdr:col>
+      <xdr:colOff>6088226</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 12" descr="Git Clone Command - Git Commands - Edureka"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="54429660" y="8442960"/>
+          <a:ext cx="6103620" cy="883920"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>70</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>70</xdr:col>
+      <xdr:colOff>6088226</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>220980</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Picture 13" descr="Git Add Command - Git Commands - Edureka"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="54429660" y="11597640"/>
+          <a:ext cx="6103620" cy="220980"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>70</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>70</xdr:col>
+      <xdr:colOff>4136044</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>182880</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Picture 14" descr="Git Add Command - Git Commands - Edureka"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="54429660" y="13815060"/>
+          <a:ext cx="4145280" cy="182880"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>70</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>70</xdr:col>
+      <xdr:colOff>6088226</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Picture 15" descr="Git Commit Command - Git Commands - Edureka"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="54429660" y="18448020"/>
+          <a:ext cx="6103620" cy="1798320"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>70</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>70</xdr:col>
+      <xdr:colOff>6088226</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>205740</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Picture 16" descr="Git Commit Command - Git Commands - Edureka"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="54429660" y="24071580"/>
+          <a:ext cx="6103620" cy="502920"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>70</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>70</xdr:col>
+      <xdr:colOff>6088226</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>266700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="Picture 17" descr="Git Diff Command - Git Commands - Edureka"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="54429660" y="26769060"/>
+          <a:ext cx="6103620" cy="2049780"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>70</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>70</xdr:col>
+      <xdr:colOff>6088226</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>213360</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="Picture 18" descr="Git Diff Command - Git Commands - Edureka"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="54429660" y="31866840"/>
+          <a:ext cx="6103620" cy="1699260"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>70</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>70</xdr:col>
+      <xdr:colOff>6088226</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="Picture 19" descr="Git Diff Command - Git Commands - Edureka"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="54429660" y="36301680"/>
+          <a:ext cx="6103620" cy="1676400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>70</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>70</xdr:col>
+      <xdr:colOff>6088226</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>251460</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="Picture 20" descr="Git Reset Command - Git Commands - Edureka"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="54429660" y="40523160"/>
+          <a:ext cx="6103620" cy="845820"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>70</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>70</xdr:col>
+      <xdr:colOff>6088226</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>281940</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="Picture 21" descr="Git Reset Command - Git Commands - Edureka"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="54429660" y="44249340"/>
+          <a:ext cx="6103620" cy="579120"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>70</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>70</xdr:col>
+      <xdr:colOff>6088226</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="Picture 22" descr="Git Reset Command - Git Commands - Edureka"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="54429660" y="47320200"/>
+          <a:ext cx="6103620" cy="327660"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>70</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>70</xdr:col>
+      <xdr:colOff>6088226</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>243839</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="Picture 23" descr="Git Status Command - Git Commands - Edureka"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="54429660" y="50421540"/>
+          <a:ext cx="6103620" cy="1432560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>70</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>70</xdr:col>
+      <xdr:colOff>6088226</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>121921</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="Picture 24" descr="Git Rm Command - Git Commands - Edureka"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="54429660" y="54703980"/>
+          <a:ext cx="6103620" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>70</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>75</xdr:col>
+      <xdr:colOff>14240</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="26" name="Picture 25" descr="Git Log Command - Git Commands - Edureka"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="54429660" y="57576720"/>
+          <a:ext cx="12649200" cy="4823460"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>70</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>70</xdr:col>
+      <xdr:colOff>9688253</xdr:colOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="27" name="Picture 26" descr="Git Log Command - Git Commands - Edureka"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="54429660" y="64945260"/>
+          <a:ext cx="9707880" cy="4823460"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>70</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>71</xdr:col>
+      <xdr:colOff>280939</xdr:colOff>
+      <xdr:row>143</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="28" name="Picture 27" descr="Git Show Command - Git Commands - Edureka"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="54429660" y="72786240"/>
+          <a:ext cx="10477500" cy="4823460"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>70</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>146</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>70</xdr:col>
+      <xdr:colOff>6088226</xdr:colOff>
+      <xdr:row>148</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="29" name="Picture 28" descr="Git Tag Command - Git Commands - Edureka"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="54429660" y="80101440"/>
+          <a:ext cx="6103620" cy="632460"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>70</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>151</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>70</xdr:col>
+      <xdr:colOff>4294524</xdr:colOff>
+      <xdr:row>152</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="30" name="Picture 29" descr="Git Branch Command - Git Commands - Edureka"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="54429660" y="83499960"/>
+          <a:ext cx="4305300" cy="449580"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>70</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>154</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>70</xdr:col>
+      <xdr:colOff>6088226</xdr:colOff>
+      <xdr:row>154</xdr:row>
+      <xdr:rowOff>274320</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="31" name="Picture 30" descr="Git Branch Command - Git Commands - Edureka"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="54429660" y="85526880"/>
+          <a:ext cx="6103620" cy="274320"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>70</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>157</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>70</xdr:col>
+      <xdr:colOff>6088226</xdr:colOff>
+      <xdr:row>158</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="32" name="Picture 31" descr="Git Branch Command - Git Commands - Edureka"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="54429660" y="87896700"/>
+          <a:ext cx="6103620" cy="457200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>70</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>161</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>70</xdr:col>
+      <xdr:colOff>6088226</xdr:colOff>
+      <xdr:row>162</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="33" name="Picture 32" descr="Git Checkout Command - Git Commands - Edureka"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="54429660" y="91325700"/>
+          <a:ext cx="6103620" cy="365760"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>70</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>164</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>70</xdr:col>
+      <xdr:colOff>6088226</xdr:colOff>
+      <xdr:row>165</xdr:row>
+      <xdr:rowOff>91439</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="34" name="Picture 33" descr="Git Checkout Command - Git Commands - Edureka"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="54429660" y="94046040"/>
+          <a:ext cx="6103620" cy="388620"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>70</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>168</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>70</xdr:col>
+      <xdr:colOff>3619423</xdr:colOff>
+      <xdr:row>169</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="35" name="Picture 34" descr="Git Merge Command - Git Commands - Edureka"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="54429660" y="97657920"/>
+          <a:ext cx="3627120" cy="525780"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>70</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>172</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>70</xdr:col>
+      <xdr:colOff>6088226</xdr:colOff>
+      <xdr:row>172</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="36" name="Picture 35" descr="Git Remote Command - Git Commands - Edureka"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="54429660" y="102283260"/>
+          <a:ext cx="6103620" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>70</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>176</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>70</xdr:col>
+      <xdr:colOff>6088226</xdr:colOff>
+      <xdr:row>180</xdr:row>
+      <xdr:rowOff>182881</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="37" name="Picture 36" descr="Git Push Command - Git Commands - Edureka"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="54429660" y="106527600"/>
+          <a:ext cx="6103620" cy="1371600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>70</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>182</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>70</xdr:col>
+      <xdr:colOff>6088226</xdr:colOff>
+      <xdr:row>185</xdr:row>
+      <xdr:rowOff>281941</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="38" name="Picture 37" descr="Git Push Command - Git Commands - Edureka"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="54429660" y="110657640"/>
+          <a:ext cx="6103620" cy="1173480"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>70</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>187</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>70</xdr:col>
+      <xdr:colOff>6088226</xdr:colOff>
+      <xdr:row>192</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="39" name="Picture 38" descr="Git Push Command - Git Commands - Edureka"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId29">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="54429660" y="114147600"/>
+          <a:ext cx="6103620" cy="1524000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>70</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>194</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>70</xdr:col>
+      <xdr:colOff>6088226</xdr:colOff>
+      <xdr:row>196</xdr:row>
+      <xdr:rowOff>22861</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="40" name="Picture 39" descr="Git Push Command - Git Commands - Edureka"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId30">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="54429660" y="118224300"/>
+          <a:ext cx="6103620" cy="617220"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>70</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>199</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>70</xdr:col>
+      <xdr:colOff>6088226</xdr:colOff>
+      <xdr:row>202</xdr:row>
+      <xdr:rowOff>45719</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="41" name="Picture 40" descr="Git Pull Command - Git Commands - Edureka"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId31">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="54429660" y="122422920"/>
+          <a:ext cx="6103620" cy="937260"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>70</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>205</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>70</xdr:col>
+      <xdr:colOff>6088226</xdr:colOff>
+      <xdr:row>205</xdr:row>
+      <xdr:rowOff>266700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="42" name="Picture 41" descr="Git Stash Command - Git Commands - Edureka"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId32">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="54429660" y="126225300"/>
+          <a:ext cx="6103620" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>70</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>208</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>70</xdr:col>
+      <xdr:colOff>6088226</xdr:colOff>
+      <xdr:row>212</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="43" name="Picture 42" descr="Git Stash Command - Git Commands - Edureka"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId33">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="54429660" y="128610360"/>
+          <a:ext cx="6103620" cy="1264920"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>70</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>214</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>70</xdr:col>
+      <xdr:colOff>6088226</xdr:colOff>
+      <xdr:row>215</xdr:row>
+      <xdr:rowOff>1236</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="44" name="Picture 43" descr="Git Stash Command - Git Commands - Edureka"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId34">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="54429660" y="131536440"/>
+          <a:ext cx="6103620" cy="289560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2528,10 +5591,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q412"/>
+  <dimension ref="A1:CN412"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="70" zoomScaleNormal="10" zoomScalePageLayoutView="134" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10:B72"/>
+    <sheetView tabSelected="1" zoomScale="10" zoomScaleNormal="355" zoomScalePageLayoutView="134" workbookViewId="0">
+      <selection activeCell="DH86" sqref="DH86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.4" x14ac:dyDescent="0.45"/>
@@ -2540,190 +5603,654 @@
     <col min="2" max="2" width="43.109375" customWidth="1"/>
     <col min="6" max="6" width="9.33203125" customWidth="1"/>
     <col min="17" max="17" width="114.5546875" style="3" customWidth="1"/>
+    <col min="20" max="20" width="70.33203125" customWidth="1"/>
+    <col min="54" max="54" width="8.33203125" customWidth="1"/>
+    <col min="55" max="66" width="8.88671875" hidden="1" customWidth="1"/>
+    <col min="69" max="69" width="69.77734375" customWidth="1"/>
+    <col min="70" max="70" width="26.33203125" customWidth="1"/>
+    <col min="71" max="71" width="148.33203125" customWidth="1"/>
+    <col min="84" max="84" width="5" customWidth="1"/>
+    <col min="85" max="91" width="8.88671875" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="9"/>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
-      <c r="O1" s="9"/>
-      <c r="P1" s="9"/>
-      <c r="Q1" s="9"/>
-    </row>
-    <row r="2" spans="1:17" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
-      <c r="N2" s="9"/>
-      <c r="O2" s="9"/>
-      <c r="P2" s="9"/>
-      <c r="Q2" s="9"/>
-    </row>
-    <row r="3" spans="1:17" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="9"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9"/>
-      <c r="N3" s="9"/>
-      <c r="O3" s="9"/>
-      <c r="P3" s="9"/>
-      <c r="Q3" s="9"/>
-    </row>
-    <row r="4" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A4" s="9"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="9"/>
-      <c r="N4" s="9"/>
-      <c r="O4" s="9"/>
-      <c r="P4" s="9"/>
-      <c r="Q4" s="9"/>
-    </row>
-    <row r="5" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A5" s="9"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="9"/>
-      <c r="N5" s="9"/>
-      <c r="O5" s="9"/>
-      <c r="P5" s="9"/>
-      <c r="Q5" s="9"/>
-    </row>
-    <row r="6" spans="1:17" ht="70.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="9"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="9"/>
-      <c r="O6" s="9"/>
-      <c r="P6" s="9"/>
-      <c r="Q6" s="9"/>
-    </row>
-    <row r="7" spans="1:17" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="9"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9"/>
-      <c r="M7" s="9"/>
-      <c r="N7" s="9"/>
-      <c r="O7" s="9"/>
-      <c r="P7" s="9"/>
-      <c r="Q7" s="9"/>
-    </row>
-    <row r="8" spans="1:17" ht="46.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9"/>
-      <c r="M8" s="9"/>
-      <c r="N8" s="9"/>
-      <c r="O8" s="9"/>
-      <c r="Q8" s="10"/>
-    </row>
-    <row r="9" spans="1:17" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="9"/>
-      <c r="N9" s="9"/>
-      <c r="O9" s="9"/>
-      <c r="Q9" s="10"/>
-    </row>
-    <row r="10" spans="1:17" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9"/>
-      <c r="M10" s="9"/>
-      <c r="N10" s="9"/>
-      <c r="O10" s="9"/>
-      <c r="Q10" s="10"/>
-    </row>
-    <row r="11" spans="1:17" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:92" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="8"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8"/>
+      <c r="T1" s="8"/>
+      <c r="U1" s="8"/>
+      <c r="V1" s="8"/>
+      <c r="W1" s="8"/>
+      <c r="X1" s="8"/>
+      <c r="Y1" s="8"/>
+      <c r="Z1" s="8"/>
+      <c r="AA1" s="8"/>
+      <c r="AB1" s="8"/>
+      <c r="AC1" s="8"/>
+      <c r="AD1" s="8"/>
+      <c r="AE1" s="8"/>
+      <c r="AF1" s="8"/>
+      <c r="AG1" s="8"/>
+      <c r="AH1" s="8"/>
+      <c r="AI1" s="8"/>
+      <c r="AJ1" s="8"/>
+      <c r="AK1" s="8"/>
+      <c r="AL1" s="8"/>
+      <c r="AM1" s="8"/>
+      <c r="AN1" s="8"/>
+      <c r="AO1" s="8"/>
+      <c r="AP1" s="8"/>
+      <c r="AQ1" s="8"/>
+      <c r="AR1" s="8"/>
+      <c r="AS1" s="8"/>
+      <c r="AT1" s="8"/>
+      <c r="AU1" s="8"/>
+      <c r="AV1" s="8"/>
+      <c r="AW1" s="8"/>
+      <c r="AX1" s="8"/>
+      <c r="AY1" s="8"/>
+      <c r="AZ1" s="8"/>
+      <c r="BA1" s="8"/>
+      <c r="BB1" s="8"/>
+      <c r="BC1" s="8"/>
+      <c r="BD1" s="8"/>
+      <c r="BE1" s="8"/>
+      <c r="BF1" s="8"/>
+      <c r="BG1" s="8"/>
+      <c r="BH1" s="8"/>
+      <c r="BI1" s="8"/>
+      <c r="BJ1" s="8"/>
+      <c r="BK1" s="8"/>
+      <c r="BL1" s="8"/>
+      <c r="BM1" s="8"/>
+      <c r="BN1" s="8"/>
+      <c r="BP1" s="8"/>
+      <c r="BQ1" s="8"/>
+      <c r="BR1" s="8"/>
+      <c r="BS1" s="8"/>
+      <c r="BT1" s="8"/>
+      <c r="BU1" s="8"/>
+      <c r="BV1" s="8"/>
+      <c r="BW1" s="8"/>
+      <c r="BX1" s="8"/>
+      <c r="BY1" s="8"/>
+      <c r="BZ1" s="8"/>
+      <c r="CA1" s="8"/>
+      <c r="CB1" s="8"/>
+      <c r="CC1" s="8"/>
+      <c r="CD1" s="8"/>
+      <c r="CE1" s="8"/>
+      <c r="CF1" s="8"/>
+      <c r="CG1" s="8"/>
+      <c r="CH1" s="8"/>
+      <c r="CI1" s="8"/>
+      <c r="CJ1" s="8"/>
+      <c r="CK1" s="8"/>
+      <c r="CL1" s="8"/>
+      <c r="CM1" s="8"/>
+      <c r="CN1" s="8"/>
+    </row>
+    <row r="2" spans="1:92" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="8"/>
+      <c r="T2" s="8"/>
+      <c r="U2" s="8"/>
+      <c r="V2" s="8"/>
+      <c r="W2" s="8"/>
+      <c r="X2" s="8"/>
+      <c r="Y2" s="8"/>
+      <c r="Z2" s="8"/>
+      <c r="AA2" s="8"/>
+      <c r="AB2" s="8"/>
+      <c r="AC2" s="8"/>
+      <c r="AD2" s="8"/>
+      <c r="AE2" s="8"/>
+      <c r="AF2" s="8"/>
+      <c r="AG2" s="8"/>
+      <c r="AH2" s="8"/>
+      <c r="AI2" s="8"/>
+      <c r="AJ2" s="8"/>
+      <c r="AK2" s="8"/>
+      <c r="AL2" s="8"/>
+      <c r="AM2" s="8"/>
+      <c r="AN2" s="8"/>
+      <c r="AO2" s="8"/>
+      <c r="AP2" s="8"/>
+      <c r="AQ2" s="8"/>
+      <c r="AR2" s="8"/>
+      <c r="AS2" s="8"/>
+      <c r="AT2" s="8"/>
+      <c r="AU2" s="8"/>
+      <c r="AV2" s="8"/>
+      <c r="AW2" s="8"/>
+      <c r="AX2" s="8"/>
+      <c r="AY2" s="8"/>
+      <c r="AZ2" s="8"/>
+      <c r="BA2" s="8"/>
+      <c r="BB2" s="8"/>
+      <c r="BC2" s="8"/>
+      <c r="BD2" s="8"/>
+      <c r="BE2" s="8"/>
+      <c r="BF2" s="8"/>
+      <c r="BG2" s="8"/>
+      <c r="BH2" s="8"/>
+      <c r="BI2" s="8"/>
+      <c r="BJ2" s="8"/>
+      <c r="BK2" s="8"/>
+      <c r="BL2" s="8"/>
+      <c r="BM2" s="8"/>
+      <c r="BN2" s="8"/>
+      <c r="BP2" s="8"/>
+      <c r="BQ2" s="8"/>
+      <c r="BR2" s="8"/>
+      <c r="BS2" s="8"/>
+      <c r="BT2" s="8"/>
+      <c r="BU2" s="8"/>
+      <c r="BV2" s="8"/>
+      <c r="BW2" s="8"/>
+      <c r="BX2" s="8"/>
+      <c r="BY2" s="8"/>
+      <c r="BZ2" s="8"/>
+      <c r="CA2" s="8"/>
+      <c r="CB2" s="8"/>
+      <c r="CC2" s="8"/>
+      <c r="CD2" s="8"/>
+      <c r="CE2" s="8"/>
+      <c r="CF2" s="8"/>
+      <c r="CG2" s="8"/>
+      <c r="CH2" s="8"/>
+      <c r="CI2" s="8"/>
+      <c r="CJ2" s="8"/>
+      <c r="CK2" s="8"/>
+      <c r="CL2" s="8"/>
+      <c r="CM2" s="8"/>
+      <c r="CN2" s="8"/>
+    </row>
+    <row r="3" spans="1:92" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="8"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="8"/>
+      <c r="T3" s="8"/>
+      <c r="U3" s="8"/>
+      <c r="V3" s="8"/>
+      <c r="W3" s="8"/>
+      <c r="X3" s="8"/>
+      <c r="Y3" s="8"/>
+      <c r="Z3" s="8"/>
+      <c r="AA3" s="8"/>
+      <c r="AB3" s="8"/>
+      <c r="AC3" s="8"/>
+      <c r="AD3" s="8"/>
+      <c r="AE3" s="8"/>
+      <c r="AF3" s="8"/>
+      <c r="AG3" s="8"/>
+      <c r="AH3" s="8"/>
+      <c r="AI3" s="8"/>
+      <c r="AJ3" s="8"/>
+      <c r="AK3" s="8"/>
+      <c r="AL3" s="8"/>
+      <c r="AM3" s="8"/>
+      <c r="AN3" s="8"/>
+      <c r="AO3" s="8"/>
+      <c r="AP3" s="8"/>
+      <c r="AQ3" s="8"/>
+      <c r="AR3" s="8"/>
+      <c r="AS3" s="8"/>
+      <c r="AT3" s="8"/>
+      <c r="AU3" s="8"/>
+      <c r="AV3" s="8"/>
+      <c r="AW3" s="8"/>
+      <c r="AX3" s="8"/>
+      <c r="AY3" s="8"/>
+      <c r="AZ3" s="8"/>
+      <c r="BA3" s="8"/>
+      <c r="BB3" s="8"/>
+      <c r="BC3" s="8"/>
+      <c r="BD3" s="8"/>
+      <c r="BE3" s="8"/>
+      <c r="BF3" s="8"/>
+      <c r="BG3" s="8"/>
+      <c r="BH3" s="8"/>
+      <c r="BI3" s="8"/>
+      <c r="BJ3" s="8"/>
+      <c r="BK3" s="8"/>
+      <c r="BL3" s="8"/>
+      <c r="BM3" s="8"/>
+      <c r="BN3" s="8"/>
+      <c r="BP3" s="8"/>
+      <c r="BQ3" s="8"/>
+      <c r="BR3" s="8"/>
+      <c r="BS3" s="8"/>
+      <c r="BT3" s="8"/>
+      <c r="BU3" s="8"/>
+      <c r="BV3" s="8"/>
+      <c r="BW3" s="8"/>
+      <c r="BX3" s="8"/>
+      <c r="BY3" s="8"/>
+      <c r="BZ3" s="8"/>
+      <c r="CA3" s="8"/>
+      <c r="CB3" s="8"/>
+      <c r="CC3" s="8"/>
+      <c r="CD3" s="8"/>
+      <c r="CE3" s="8"/>
+      <c r="CF3" s="8"/>
+      <c r="CG3" s="8"/>
+      <c r="CH3" s="8"/>
+      <c r="CI3" s="8"/>
+      <c r="CJ3" s="8"/>
+      <c r="CK3" s="8"/>
+      <c r="CL3" s="8"/>
+      <c r="CM3" s="8"/>
+      <c r="CN3" s="8"/>
+    </row>
+    <row r="4" spans="1:92" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A4" s="8"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="8"/>
+      <c r="T4" s="8"/>
+      <c r="U4" s="8"/>
+      <c r="V4" s="8"/>
+      <c r="W4" s="8"/>
+      <c r="X4" s="8"/>
+      <c r="Y4" s="8"/>
+      <c r="Z4" s="8"/>
+      <c r="AA4" s="8"/>
+      <c r="AB4" s="8"/>
+      <c r="AC4" s="8"/>
+      <c r="AD4" s="8"/>
+      <c r="AE4" s="8"/>
+      <c r="AF4" s="8"/>
+      <c r="AG4" s="8"/>
+      <c r="AH4" s="8"/>
+      <c r="AI4" s="8"/>
+      <c r="AJ4" s="8"/>
+      <c r="AK4" s="8"/>
+      <c r="AL4" s="8"/>
+      <c r="AM4" s="8"/>
+      <c r="AN4" s="8"/>
+      <c r="AO4" s="8"/>
+      <c r="AP4" s="8"/>
+      <c r="AQ4" s="8"/>
+      <c r="AR4" s="8"/>
+      <c r="AS4" s="8"/>
+      <c r="AT4" s="8"/>
+      <c r="AU4" s="8"/>
+      <c r="AV4" s="8"/>
+      <c r="AW4" s="8"/>
+      <c r="AX4" s="8"/>
+      <c r="AY4" s="8"/>
+      <c r="AZ4" s="8"/>
+      <c r="BA4" s="8"/>
+      <c r="BB4" s="8"/>
+      <c r="BC4" s="8"/>
+      <c r="BD4" s="8"/>
+      <c r="BE4" s="8"/>
+      <c r="BF4" s="8"/>
+      <c r="BG4" s="8"/>
+      <c r="BH4" s="8"/>
+      <c r="BI4" s="8"/>
+      <c r="BJ4" s="8"/>
+      <c r="BK4" s="8"/>
+      <c r="BL4" s="8"/>
+      <c r="BM4" s="8"/>
+      <c r="BN4" s="8"/>
+      <c r="BP4" s="8"/>
+      <c r="BQ4" s="8"/>
+      <c r="BR4" s="8"/>
+      <c r="BS4" s="8"/>
+      <c r="BT4" s="8"/>
+      <c r="BU4" s="8"/>
+      <c r="BV4" s="8"/>
+      <c r="BW4" s="8"/>
+      <c r="BX4" s="8"/>
+      <c r="BY4" s="8"/>
+      <c r="BZ4" s="8"/>
+      <c r="CA4" s="8"/>
+      <c r="CB4" s="8"/>
+      <c r="CC4" s="8"/>
+      <c r="CD4" s="8"/>
+      <c r="CE4" s="8"/>
+      <c r="CF4" s="8"/>
+      <c r="CG4" s="8"/>
+      <c r="CH4" s="8"/>
+      <c r="CI4" s="8"/>
+      <c r="CJ4" s="8"/>
+      <c r="CK4" s="8"/>
+      <c r="CL4" s="8"/>
+      <c r="CM4" s="8"/>
+      <c r="CN4" s="8"/>
+    </row>
+    <row r="5" spans="1:92" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A5" s="8"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="8"/>
+      <c r="Q5" s="8"/>
+      <c r="T5" s="8"/>
+      <c r="U5" s="8"/>
+      <c r="V5" s="8"/>
+      <c r="W5" s="8"/>
+      <c r="X5" s="8"/>
+      <c r="Y5" s="8"/>
+      <c r="Z5" s="8"/>
+      <c r="AA5" s="8"/>
+      <c r="AB5" s="8"/>
+      <c r="AC5" s="8"/>
+      <c r="AD5" s="8"/>
+      <c r="AE5" s="8"/>
+      <c r="AF5" s="8"/>
+      <c r="AG5" s="8"/>
+      <c r="AH5" s="8"/>
+      <c r="AI5" s="8"/>
+      <c r="AJ5" s="8"/>
+      <c r="AK5" s="8"/>
+      <c r="AL5" s="8"/>
+      <c r="AM5" s="8"/>
+      <c r="AN5" s="8"/>
+      <c r="AO5" s="8"/>
+      <c r="AP5" s="8"/>
+      <c r="AQ5" s="8"/>
+      <c r="AR5" s="8"/>
+      <c r="AS5" s="8"/>
+      <c r="AT5" s="8"/>
+      <c r="AU5" s="8"/>
+      <c r="AV5" s="8"/>
+      <c r="AW5" s="8"/>
+      <c r="AX5" s="8"/>
+      <c r="AY5" s="8"/>
+      <c r="AZ5" s="8"/>
+      <c r="BA5" s="8"/>
+      <c r="BB5" s="8"/>
+      <c r="BC5" s="8"/>
+      <c r="BD5" s="8"/>
+      <c r="BE5" s="8"/>
+      <c r="BF5" s="8"/>
+      <c r="BG5" s="8"/>
+      <c r="BH5" s="8"/>
+      <c r="BI5" s="8"/>
+      <c r="BJ5" s="8"/>
+      <c r="BK5" s="8"/>
+      <c r="BL5" s="8"/>
+      <c r="BM5" s="8"/>
+      <c r="BN5" s="8"/>
+      <c r="BP5" s="8"/>
+      <c r="BQ5" s="8"/>
+      <c r="BR5" s="8"/>
+      <c r="BS5" s="8"/>
+      <c r="BT5" s="8"/>
+      <c r="BU5" s="8"/>
+      <c r="BV5" s="8"/>
+      <c r="BW5" s="8"/>
+      <c r="BX5" s="8"/>
+      <c r="BY5" s="8"/>
+      <c r="BZ5" s="8"/>
+      <c r="CA5" s="8"/>
+      <c r="CB5" s="8"/>
+      <c r="CC5" s="8"/>
+      <c r="CD5" s="8"/>
+      <c r="CE5" s="8"/>
+      <c r="CF5" s="8"/>
+      <c r="CG5" s="8"/>
+      <c r="CH5" s="8"/>
+      <c r="CI5" s="8"/>
+      <c r="CJ5" s="8"/>
+      <c r="CK5" s="8"/>
+      <c r="CL5" s="8"/>
+      <c r="CM5" s="8"/>
+      <c r="CN5" s="8"/>
+    </row>
+    <row r="6" spans="1:92" ht="70.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="8"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="8"/>
+      <c r="T6" s="8"/>
+      <c r="U6" s="8"/>
+      <c r="V6" s="8"/>
+      <c r="W6" s="8"/>
+      <c r="X6" s="8"/>
+      <c r="Y6" s="8"/>
+      <c r="Z6" s="8"/>
+      <c r="AA6" s="8"/>
+      <c r="AB6" s="8"/>
+      <c r="AC6" s="8"/>
+      <c r="AD6" s="8"/>
+      <c r="AE6" s="8"/>
+      <c r="AF6" s="8"/>
+      <c r="AG6" s="8"/>
+      <c r="AH6" s="8"/>
+      <c r="AI6" s="8"/>
+      <c r="AJ6" s="8"/>
+      <c r="AK6" s="8"/>
+      <c r="AL6" s="8"/>
+      <c r="AM6" s="8"/>
+      <c r="AN6" s="8"/>
+      <c r="AO6" s="8"/>
+      <c r="AP6" s="8"/>
+      <c r="AQ6" s="8"/>
+      <c r="AR6" s="8"/>
+      <c r="AS6" s="8"/>
+      <c r="AT6" s="8"/>
+      <c r="AU6" s="8"/>
+      <c r="AV6" s="8"/>
+      <c r="AW6" s="8"/>
+      <c r="AX6" s="8"/>
+      <c r="AY6" s="8"/>
+      <c r="AZ6" s="8"/>
+      <c r="BA6" s="8"/>
+      <c r="BB6" s="8"/>
+      <c r="BC6" s="8"/>
+      <c r="BD6" s="8"/>
+      <c r="BE6" s="8"/>
+      <c r="BF6" s="8"/>
+      <c r="BG6" s="8"/>
+      <c r="BH6" s="8"/>
+      <c r="BI6" s="8"/>
+      <c r="BJ6" s="8"/>
+      <c r="BK6" s="8"/>
+      <c r="BL6" s="8"/>
+      <c r="BM6" s="8"/>
+      <c r="BN6" s="8"/>
+      <c r="BP6" s="8"/>
+      <c r="BQ6" s="8"/>
+      <c r="BR6" s="8"/>
+      <c r="BS6" s="8"/>
+      <c r="BT6" s="8"/>
+      <c r="BU6" s="8"/>
+      <c r="BV6" s="8"/>
+      <c r="BW6" s="8"/>
+      <c r="BX6" s="8"/>
+      <c r="BY6" s="8"/>
+      <c r="BZ6" s="8"/>
+      <c r="CA6" s="8"/>
+      <c r="CB6" s="8"/>
+      <c r="CC6" s="8"/>
+      <c r="CD6" s="8"/>
+      <c r="CE6" s="8"/>
+      <c r="CF6" s="8"/>
+      <c r="CG6" s="8"/>
+      <c r="CH6" s="8"/>
+      <c r="CI6" s="8"/>
+      <c r="CJ6" s="8"/>
+      <c r="CK6" s="8"/>
+      <c r="CL6" s="8"/>
+      <c r="CM6" s="8"/>
+      <c r="CN6" s="8"/>
+    </row>
+    <row r="7" spans="1:92" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="8"/>
+    </row>
+    <row r="8" spans="1:92" ht="46.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="8"/>
+      <c r="Q8" s="9"/>
+      <c r="BR8" s="11" t="s">
+        <v>329</v>
+      </c>
+      <c r="BS8" s="13" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="9" spans="1:92" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="8"/>
+      <c r="Q9" s="9"/>
+      <c r="BP9">
+        <v>1</v>
+      </c>
+      <c r="BQ9" t="s">
+        <v>325</v>
+      </c>
+      <c r="BR9" s="11" t="s">
+        <v>330</v>
+      </c>
+      <c r="BS9" s="14" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="10" spans="1:92" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="8"/>
+      <c r="Q10" s="9"/>
+      <c r="BR10" s="11" t="s">
+        <v>331</v>
+      </c>
+      <c r="BS10" s="15" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="11" spans="1:92" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1</v>
       </c>
@@ -2741,1908 +6268,2406 @@
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
-      <c r="Q11" s="10"/>
-    </row>
-    <row r="12" spans="1:17" ht="23.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="8"/>
-      <c r="N12" s="8"/>
-      <c r="O12" s="8"/>
-      <c r="Q12" s="5"/>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="Q11" s="9"/>
+      <c r="BP11">
+        <v>2</v>
+      </c>
+      <c r="BQ11" t="s">
+        <v>326</v>
+      </c>
+      <c r="BR11" s="11" t="s">
+        <v>332</v>
+      </c>
+      <c r="BS11" s="15" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="12" spans="1:92" ht="23.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7"/>
+      <c r="Q12" s="4"/>
+      <c r="BR12" s="11" t="s">
+        <v>333</v>
+      </c>
+      <c r="BS12" s="15" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="13" spans="1:92" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>2</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
-      <c r="M13" s="8"/>
-      <c r="N13" s="8"/>
-      <c r="O13" s="8"/>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="8"/>
-      <c r="N14" s="8"/>
-      <c r="O14" s="8"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="7"/>
+      <c r="BP13">
+        <v>3</v>
+      </c>
+      <c r="BQ13" t="s">
+        <v>327</v>
+      </c>
+      <c r="BR13" s="11" t="s">
+        <v>334</v>
+      </c>
+      <c r="BS13" s="15"/>
+    </row>
+    <row r="14" spans="1:92" ht="27.6" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="7"/>
       <c r="Q14" s="3" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="BR14" s="11" t="s">
+        <v>335</v>
+      </c>
+      <c r="BS14" s="14" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="15" spans="1:92" ht="27.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>3</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="8"/>
-      <c r="N15" s="8"/>
-      <c r="O15" s="8"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="7"/>
       <c r="Q15" s="3" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="8"/>
-      <c r="M16" s="8"/>
-      <c r="N16" s="8"/>
-      <c r="O16" s="8"/>
+      <c r="BP15">
+        <v>4</v>
+      </c>
+      <c r="BQ15" t="s">
+        <v>328</v>
+      </c>
+      <c r="BR15" s="11" t="s">
+        <v>336</v>
+      </c>
+      <c r="BS15" s="15" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="16" spans="1:92" x14ac:dyDescent="0.45">
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
+      <c r="N16" s="7"/>
+      <c r="O16" s="7"/>
       <c r="Q16" s="3" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="BR16" s="11" t="s">
+        <v>337</v>
+      </c>
+      <c r="BS16" s="15"/>
+    </row>
+    <row r="17" spans="1:71" ht="31.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>4</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8"/>
-      <c r="L17" s="8"/>
-      <c r="M17" s="8"/>
-      <c r="N17" s="8"/>
-      <c r="O17" s="8"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
+      <c r="N17" s="7"/>
+      <c r="O17" s="7"/>
       <c r="Q17" s="3" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="8"/>
-      <c r="L18" s="8"/>
-      <c r="M18" s="8"/>
-      <c r="N18" s="8"/>
-      <c r="O18" s="8"/>
+      <c r="BR17" s="11" t="s">
+        <v>338</v>
+      </c>
+      <c r="BS17" s="15" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="18" spans="1:71" ht="27.6" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="7"/>
+      <c r="N18" s="7"/>
+      <c r="O18" s="7"/>
       <c r="Q18" s="3" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="BR18" s="11" t="s">
+        <v>339</v>
+      </c>
+      <c r="BS18" s="15"/>
+    </row>
+    <row r="19" spans="1:71" ht="37.200000000000003" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>5</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8"/>
-      <c r="L19" s="8"/>
-      <c r="M19" s="8"/>
-      <c r="N19" s="8"/>
-      <c r="O19" s="8"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="7"/>
+      <c r="N19" s="7"/>
+      <c r="O19" s="7"/>
       <c r="Q19" s="3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="8"/>
-      <c r="L20" s="8"/>
-      <c r="M20" s="8"/>
-      <c r="N20" s="8"/>
-      <c r="O20" s="8"/>
+      <c r="BR19" s="11" t="s">
+        <v>340</v>
+      </c>
+      <c r="BS19" s="14" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="20" spans="1:71" ht="27.6" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="7"/>
+      <c r="N20" s="7"/>
+      <c r="O20" s="7"/>
       <c r="Q20" s="3" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="BR20" s="11" t="s">
+        <v>341</v>
+      </c>
+      <c r="BS20" s="15" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="21" spans="1:71" ht="41.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>6</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="8"/>
-      <c r="L21" s="8"/>
-      <c r="M21" s="8"/>
-      <c r="N21" s="8"/>
-      <c r="O21" s="8"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7"/>
+      <c r="N21" s="7"/>
+      <c r="O21" s="7"/>
       <c r="Q21" s="3" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="8"/>
-      <c r="L22" s="8"/>
-      <c r="M22" s="8"/>
-      <c r="N22" s="8"/>
-      <c r="O22" s="8"/>
+      <c r="BR21" s="11" t="s">
+        <v>342</v>
+      </c>
+      <c r="BS21" s="15" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="22" spans="1:71" ht="27.6" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="7"/>
+      <c r="N22" s="7"/>
+      <c r="O22" s="7"/>
       <c r="Q22" s="3" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="BR22" s="11" t="s">
+        <v>343</v>
+      </c>
+      <c r="BS22" s="15"/>
+    </row>
+    <row r="23" spans="1:71" ht="41.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>7</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="8"/>
-      <c r="K23" s="8"/>
-      <c r="L23" s="8"/>
-      <c r="M23" s="8"/>
-      <c r="N23" s="8"/>
-      <c r="O23" s="8"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="7"/>
+      <c r="N23" s="7"/>
+      <c r="O23" s="7"/>
       <c r="Q23" s="3" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="8"/>
-      <c r="K24" s="8"/>
-      <c r="L24" s="8"/>
-      <c r="M24" s="8"/>
-      <c r="N24" s="8"/>
-      <c r="O24" s="8"/>
+      <c r="BR23" s="11" t="s">
+        <v>344</v>
+      </c>
+      <c r="BS23" s="12"/>
+    </row>
+    <row r="24" spans="1:71" ht="27.6" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="7"/>
+      <c r="N24" s="7"/>
+      <c r="O24" s="7"/>
       <c r="Q24" s="3" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="BR24" s="11" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="25" spans="1:71" ht="27.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>8</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="8"/>
-      <c r="K25" s="8"/>
-      <c r="L25" s="8"/>
-      <c r="M25" s="8"/>
-      <c r="N25" s="8"/>
-      <c r="O25" s="8"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
+      <c r="L25" s="7"/>
+      <c r="M25" s="7"/>
+      <c r="N25" s="7"/>
+      <c r="O25" s="7"/>
       <c r="Q25" s="3" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="8"/>
-      <c r="J26" s="8"/>
-      <c r="K26" s="8"/>
-      <c r="L26" s="8"/>
-      <c r="M26" s="8"/>
-      <c r="N26" s="8"/>
-      <c r="O26" s="8"/>
+      <c r="BR25" s="11" t="s">
+        <v>346</v>
+      </c>
+      <c r="BS25" s="14" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="26" spans="1:71" ht="27.6" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="7"/>
+      <c r="L26" s="7"/>
+      <c r="M26" s="7"/>
+      <c r="N26" s="7"/>
+      <c r="O26" s="7"/>
       <c r="Q26" s="3" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="BR26" s="11" t="s">
+        <v>347</v>
+      </c>
+      <c r="BS26" s="15" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="27" spans="1:71" ht="28.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>9</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="8"/>
-      <c r="I27" s="8"/>
-      <c r="J27" s="8"/>
-      <c r="K27" s="8"/>
-      <c r="L27" s="8"/>
-      <c r="M27" s="8"/>
-      <c r="N27" s="8"/>
-      <c r="O27" s="8"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="7"/>
+      <c r="L27" s="7"/>
+      <c r="M27" s="7"/>
+      <c r="N27" s="7"/>
+      <c r="O27" s="7"/>
       <c r="Q27" s="3" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="8"/>
-      <c r="I28" s="8"/>
-      <c r="J28" s="8"/>
-      <c r="K28" s="8"/>
-      <c r="L28" s="8"/>
-      <c r="M28" s="8"/>
-      <c r="N28" s="8"/>
-      <c r="O28" s="8"/>
+      <c r="BS27" s="15" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="28" spans="1:71" x14ac:dyDescent="0.45">
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="7"/>
+      <c r="K28" s="7"/>
+      <c r="L28" s="7"/>
+      <c r="M28" s="7"/>
+      <c r="N28" s="7"/>
+      <c r="O28" s="7"/>
       <c r="Q28" s="3" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="BS28" s="15"/>
+    </row>
+    <row r="29" spans="1:71" ht="40.799999999999997" x14ac:dyDescent="0.45">
       <c r="A29">
         <v>10</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="8"/>
-      <c r="I29" s="8"/>
-      <c r="J29" s="8"/>
-      <c r="K29" s="8"/>
-      <c r="L29" s="8"/>
-      <c r="M29" s="8"/>
-      <c r="N29" s="8"/>
-      <c r="O29" s="8"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="7"/>
+      <c r="K29" s="7"/>
+      <c r="L29" s="7"/>
+      <c r="M29" s="7"/>
+      <c r="N29" s="7"/>
+      <c r="O29" s="7"/>
       <c r="Q29" s="3" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="8"/>
-      <c r="I30" s="8"/>
-      <c r="J30" s="8"/>
-      <c r="K30" s="8"/>
-      <c r="L30" s="8"/>
-      <c r="M30" s="8"/>
-      <c r="N30" s="8"/>
-      <c r="O30" s="8"/>
+      <c r="BS29" s="15" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="30" spans="1:71" ht="25.8" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="7"/>
+      <c r="J30" s="7"/>
+      <c r="K30" s="7"/>
+      <c r="L30" s="7"/>
+      <c r="M30" s="7"/>
+      <c r="N30" s="7"/>
+      <c r="O30" s="7"/>
       <c r="Q30" s="3" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="BS30" s="15" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="31" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A31">
         <v>11</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="8"/>
-      <c r="I31" s="8"/>
-      <c r="J31" s="8"/>
-      <c r="K31" s="8"/>
-      <c r="L31" s="8"/>
-      <c r="M31" s="8"/>
-      <c r="N31" s="8"/>
-      <c r="O31" s="8"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="7"/>
+      <c r="J31" s="7"/>
+      <c r="K31" s="7"/>
+      <c r="L31" s="7"/>
+      <c r="M31" s="7"/>
+      <c r="N31" s="7"/>
+      <c r="O31" s="7"/>
       <c r="Q31" s="3" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="C32" s="8"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="8"/>
-      <c r="G32" s="8"/>
-      <c r="H32" s="8"/>
-      <c r="I32" s="8"/>
-      <c r="J32" s="8"/>
-      <c r="K32" s="8"/>
-      <c r="L32" s="8"/>
-      <c r="M32" s="8"/>
-      <c r="N32" s="8"/>
-      <c r="O32" s="8"/>
+      <c r="BS31" s="15"/>
+    </row>
+    <row r="32" spans="1:71" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="7"/>
+      <c r="J32" s="7"/>
+      <c r="K32" s="7"/>
+      <c r="L32" s="7"/>
+      <c r="M32" s="7"/>
+      <c r="N32" s="7"/>
+      <c r="O32" s="7"/>
       <c r="Q32" s="3" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="BS32" s="14" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="33" spans="1:71" ht="24.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A33">
         <v>12</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C33" s="8"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="8"/>
-      <c r="F33" s="8"/>
-      <c r="G33" s="8"/>
-      <c r="H33" s="8"/>
-      <c r="I33" s="8"/>
-      <c r="J33" s="8"/>
-      <c r="K33" s="8"/>
-      <c r="L33" s="8"/>
-      <c r="M33" s="8"/>
-      <c r="N33" s="8"/>
-      <c r="O33" s="8"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="7"/>
+      <c r="J33" s="7"/>
+      <c r="K33" s="7"/>
+      <c r="L33" s="7"/>
+      <c r="M33" s="7"/>
+      <c r="N33" s="7"/>
+      <c r="O33" s="7"/>
       <c r="Q33" s="3" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="C34" s="8"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="8"/>
-      <c r="G34" s="8"/>
-      <c r="H34" s="8"/>
-      <c r="I34" s="8"/>
-      <c r="J34" s="8"/>
-      <c r="K34" s="8"/>
-      <c r="L34" s="8"/>
-      <c r="M34" s="8"/>
-      <c r="N34" s="8"/>
-      <c r="O34" s="8"/>
+      <c r="BS33" s="15" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="34" spans="1:71" ht="25.8" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="7"/>
+      <c r="J34" s="7"/>
+      <c r="K34" s="7"/>
+      <c r="L34" s="7"/>
+      <c r="M34" s="7"/>
+      <c r="N34" s="7"/>
+      <c r="O34" s="7"/>
       <c r="Q34" s="3" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="BS34" s="15" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="35" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A35">
         <v>13</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C35" s="8"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="8"/>
-      <c r="F35" s="8"/>
-      <c r="G35" s="8"/>
-      <c r="H35" s="8"/>
-      <c r="I35" s="8"/>
-      <c r="J35" s="8"/>
-      <c r="K35" s="8"/>
-      <c r="L35" s="8"/>
-      <c r="M35" s="8"/>
-      <c r="N35" s="8"/>
-      <c r="O35" s="8"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="7"/>
+      <c r="J35" s="7"/>
+      <c r="K35" s="7"/>
+      <c r="L35" s="7"/>
+      <c r="M35" s="7"/>
+      <c r="N35" s="7"/>
+      <c r="O35" s="7"/>
       <c r="Q35" s="3" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="C36" s="8"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="8"/>
-      <c r="F36" s="8"/>
-      <c r="G36" s="8"/>
-      <c r="H36" s="8"/>
-      <c r="I36" s="8"/>
-      <c r="J36" s="8"/>
-      <c r="K36" s="8"/>
-      <c r="L36" s="8"/>
-      <c r="M36" s="8"/>
-      <c r="N36" s="8"/>
-      <c r="O36" s="8"/>
+      <c r="BS35" s="15"/>
+    </row>
+    <row r="36" spans="1:71" x14ac:dyDescent="0.45">
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="7"/>
+      <c r="I36" s="7"/>
+      <c r="J36" s="7"/>
+      <c r="K36" s="7"/>
+      <c r="L36" s="7"/>
+      <c r="M36" s="7"/>
+      <c r="N36" s="7"/>
+      <c r="O36" s="7"/>
       <c r="Q36" s="3" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="BS36" s="12"/>
+    </row>
+    <row r="37" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A37">
         <v>14</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C37" s="8"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="8"/>
-      <c r="F37" s="8"/>
-      <c r="G37" s="8"/>
-      <c r="H37" s="8"/>
-      <c r="I37" s="8"/>
-      <c r="J37" s="8"/>
-      <c r="K37" s="8"/>
-      <c r="L37" s="8"/>
-      <c r="M37" s="8"/>
-      <c r="N37" s="8"/>
-      <c r="O37" s="8"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="7"/>
+      <c r="I37" s="7"/>
+      <c r="J37" s="7"/>
+      <c r="K37" s="7"/>
+      <c r="L37" s="7"/>
+      <c r="M37" s="7"/>
+      <c r="N37" s="7"/>
+      <c r="O37" s="7"/>
       <c r="Q37" s="3" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="C38" s="8"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="8"/>
-      <c r="F38" s="8"/>
-      <c r="G38" s="8"/>
-      <c r="H38" s="8"/>
-      <c r="I38" s="8"/>
-      <c r="J38" s="8"/>
-      <c r="K38" s="8"/>
-      <c r="L38" s="8"/>
-      <c r="M38" s="8"/>
-      <c r="N38" s="8"/>
-      <c r="O38" s="8"/>
+      <c r="BS37" s="12"/>
+    </row>
+    <row r="38" spans="1:71" x14ac:dyDescent="0.45">
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="7"/>
+      <c r="H38" s="7"/>
+      <c r="I38" s="7"/>
+      <c r="J38" s="7"/>
+      <c r="K38" s="7"/>
+      <c r="L38" s="7"/>
+      <c r="M38" s="7"/>
+      <c r="N38" s="7"/>
+      <c r="O38" s="7"/>
       <c r="Q38" s="3" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="BS38" s="12"/>
+    </row>
+    <row r="39" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A39">
         <v>15</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C39" s="8"/>
-      <c r="D39" s="8"/>
-      <c r="E39" s="8"/>
-      <c r="F39" s="8"/>
-      <c r="G39" s="8"/>
-      <c r="H39" s="8"/>
-      <c r="I39" s="8"/>
-      <c r="J39" s="8"/>
-      <c r="K39" s="8"/>
-      <c r="L39" s="8"/>
-      <c r="M39" s="8"/>
-      <c r="N39" s="8"/>
-      <c r="O39" s="8"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="7"/>
+      <c r="H39" s="7"/>
+      <c r="I39" s="7"/>
+      <c r="J39" s="7"/>
+      <c r="K39" s="7"/>
+      <c r="L39" s="7"/>
+      <c r="M39" s="7"/>
+      <c r="N39" s="7"/>
+      <c r="O39" s="7"/>
       <c r="Q39" s="3" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="C40" s="8"/>
-      <c r="D40" s="8"/>
-      <c r="E40" s="8"/>
-      <c r="F40" s="8"/>
-      <c r="G40" s="8"/>
-      <c r="H40" s="8"/>
-      <c r="I40" s="8"/>
-      <c r="J40" s="8"/>
-      <c r="K40" s="8"/>
-      <c r="L40" s="8"/>
-      <c r="M40" s="8"/>
-      <c r="N40" s="8"/>
-      <c r="O40" s="8"/>
+      <c r="BS39" s="12"/>
+    </row>
+    <row r="40" spans="1:71" x14ac:dyDescent="0.45">
+      <c r="C40" s="7"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="7"/>
+      <c r="G40" s="7"/>
+      <c r="H40" s="7"/>
+      <c r="I40" s="7"/>
+      <c r="J40" s="7"/>
+      <c r="K40" s="7"/>
+      <c r="L40" s="7"/>
+      <c r="M40" s="7"/>
+      <c r="N40" s="7"/>
+      <c r="O40" s="7"/>
       <c r="Q40" s="3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:71" ht="26.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A41">
         <v>16</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C41" s="8"/>
-      <c r="D41" s="8"/>
-      <c r="E41" s="8"/>
-      <c r="F41" s="8"/>
-      <c r="G41" s="8"/>
-      <c r="H41" s="8"/>
-      <c r="I41" s="8"/>
-      <c r="J41" s="8"/>
-      <c r="K41" s="8"/>
-      <c r="L41" s="8"/>
-      <c r="M41" s="8"/>
-      <c r="N41" s="8"/>
-      <c r="O41" s="8"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="7"/>
+      <c r="G41" s="7"/>
+      <c r="H41" s="7"/>
+      <c r="I41" s="7"/>
+      <c r="J41" s="7"/>
+      <c r="K41" s="7"/>
+      <c r="L41" s="7"/>
+      <c r="M41" s="7"/>
+      <c r="N41" s="7"/>
+      <c r="O41" s="7"/>
       <c r="Q41" s="3" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="C42" s="8"/>
-      <c r="D42" s="8"/>
-      <c r="E42" s="8"/>
-      <c r="F42" s="8"/>
-      <c r="G42" s="8"/>
-      <c r="H42" s="8"/>
-      <c r="I42" s="8"/>
-      <c r="J42" s="8"/>
-      <c r="K42" s="8"/>
-      <c r="L42" s="8"/>
-      <c r="M42" s="8"/>
-      <c r="N42" s="8"/>
-      <c r="O42" s="8"/>
+      <c r="BS41" s="15" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="42" spans="1:71" ht="19.2" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C42" s="7"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="7"/>
+      <c r="G42" s="7"/>
+      <c r="H42" s="7"/>
+      <c r="I42" s="7"/>
+      <c r="J42" s="7"/>
+      <c r="K42" s="7"/>
+      <c r="L42" s="7"/>
+      <c r="M42" s="7"/>
+      <c r="N42" s="7"/>
+      <c r="O42" s="7"/>
       <c r="Q42" s="3" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="BS42" s="15" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="43" spans="1:71" hidden="1" x14ac:dyDescent="0.45">
       <c r="A43">
         <v>17</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C43" s="8"/>
-      <c r="D43" s="8"/>
-      <c r="E43" s="8"/>
-      <c r="F43" s="8"/>
-      <c r="G43" s="8"/>
-      <c r="H43" s="8"/>
-      <c r="I43" s="8"/>
-      <c r="J43" s="8"/>
-      <c r="K43" s="8"/>
-      <c r="L43" s="8"/>
-      <c r="M43" s="8"/>
-      <c r="N43" s="8"/>
-      <c r="O43" s="8"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="7"/>
+      <c r="H43" s="7"/>
+      <c r="I43" s="7"/>
+      <c r="J43" s="7"/>
+      <c r="K43" s="7"/>
+      <c r="L43" s="7"/>
+      <c r="M43" s="7"/>
+      <c r="N43" s="7"/>
+      <c r="O43" s="7"/>
       <c r="Q43" s="3" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="C44" s="8"/>
-      <c r="D44" s="8"/>
-      <c r="E44" s="8"/>
-      <c r="F44" s="8"/>
-      <c r="G44" s="8"/>
-      <c r="H44" s="8"/>
-      <c r="I44" s="8"/>
-      <c r="J44" s="8"/>
-      <c r="K44" s="8"/>
-      <c r="L44" s="8"/>
-      <c r="M44" s="8"/>
-      <c r="N44" s="8"/>
-      <c r="O44" s="8"/>
+      <c r="BS43" s="15"/>
+    </row>
+    <row r="44" spans="1:71" hidden="1" x14ac:dyDescent="0.45">
+      <c r="C44" s="7"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="7"/>
+      <c r="F44" s="7"/>
+      <c r="G44" s="7"/>
+      <c r="H44" s="7"/>
+      <c r="I44" s="7"/>
+      <c r="J44" s="7"/>
+      <c r="K44" s="7"/>
+      <c r="L44" s="7"/>
+      <c r="M44" s="7"/>
+      <c r="N44" s="7"/>
+      <c r="O44" s="7"/>
       <c r="Q44" s="3" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="BS44" s="14" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="45" spans="1:71" hidden="1" x14ac:dyDescent="0.45">
       <c r="A45">
         <v>18</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C45" s="8"/>
-      <c r="D45" s="8"/>
-      <c r="E45" s="8"/>
-      <c r="F45" s="8"/>
-      <c r="G45" s="8"/>
-      <c r="H45" s="8"/>
-      <c r="I45" s="8"/>
-      <c r="J45" s="8"/>
-      <c r="K45" s="8"/>
-      <c r="L45" s="8"/>
-      <c r="M45" s="8"/>
-      <c r="N45" s="8"/>
-      <c r="O45" s="8"/>
+      <c r="C45" s="7"/>
+      <c r="D45" s="7"/>
+      <c r="E45" s="7"/>
+      <c r="F45" s="7"/>
+      <c r="G45" s="7"/>
+      <c r="H45" s="7"/>
+      <c r="I45" s="7"/>
+      <c r="J45" s="7"/>
+      <c r="K45" s="7"/>
+      <c r="L45" s="7"/>
+      <c r="M45" s="7"/>
+      <c r="N45" s="7"/>
+      <c r="O45" s="7"/>
       <c r="Q45" s="3" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="C46" s="8"/>
-      <c r="D46" s="8"/>
-      <c r="E46" s="8"/>
-      <c r="F46" s="8"/>
-      <c r="G46" s="8"/>
-      <c r="H46" s="8"/>
-      <c r="I46" s="8"/>
-      <c r="J46" s="8"/>
-      <c r="K46" s="8"/>
-      <c r="L46" s="8"/>
-      <c r="M46" s="8"/>
-      <c r="N46" s="8"/>
-      <c r="O46" s="8"/>
+      <c r="BS45" s="15" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="46" spans="1:71" hidden="1" x14ac:dyDescent="0.45">
+      <c r="C46" s="7"/>
+      <c r="D46" s="7"/>
+      <c r="E46" s="7"/>
+      <c r="F46" s="7"/>
+      <c r="G46" s="7"/>
+      <c r="H46" s="7"/>
+      <c r="I46" s="7"/>
+      <c r="J46" s="7"/>
+      <c r="K46" s="7"/>
+      <c r="L46" s="7"/>
+      <c r="M46" s="7"/>
+      <c r="N46" s="7"/>
+      <c r="O46" s="7"/>
       <c r="Q46" s="3" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="BS46" s="15" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="47" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A47">
         <v>19</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C47" s="8"/>
-      <c r="D47" s="8"/>
-      <c r="E47" s="8"/>
-      <c r="F47" s="8"/>
-      <c r="G47" s="8"/>
-      <c r="H47" s="8"/>
-      <c r="I47" s="8"/>
-      <c r="J47" s="8"/>
-      <c r="K47" s="8"/>
-      <c r="L47" s="8"/>
-      <c r="M47" s="8"/>
-      <c r="N47" s="8"/>
-      <c r="O47" s="8"/>
+      <c r="C47" s="7"/>
+      <c r="D47" s="7"/>
+      <c r="E47" s="7"/>
+      <c r="F47" s="7"/>
+      <c r="G47" s="7"/>
+      <c r="H47" s="7"/>
+      <c r="I47" s="7"/>
+      <c r="J47" s="7"/>
+      <c r="K47" s="7"/>
+      <c r="L47" s="7"/>
+      <c r="M47" s="7"/>
+      <c r="N47" s="7"/>
+      <c r="O47" s="7"/>
       <c r="Q47" s="3" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="C48" s="8"/>
-      <c r="D48" s="8"/>
-      <c r="E48" s="8"/>
-      <c r="F48" s="8"/>
-      <c r="G48" s="8"/>
-      <c r="H48" s="8"/>
-      <c r="I48" s="8"/>
-      <c r="J48" s="8"/>
-      <c r="K48" s="8"/>
-      <c r="L48" s="8"/>
-      <c r="M48" s="8"/>
-      <c r="N48" s="8"/>
-      <c r="O48" s="8"/>
+      <c r="BS47" s="15"/>
+    </row>
+    <row r="48" spans="1:71" x14ac:dyDescent="0.45">
+      <c r="C48" s="7"/>
+      <c r="D48" s="7"/>
+      <c r="E48" s="7"/>
+      <c r="F48" s="7"/>
+      <c r="G48" s="7"/>
+      <c r="H48" s="7"/>
+      <c r="I48" s="7"/>
+      <c r="J48" s="7"/>
+      <c r="K48" s="7"/>
+      <c r="L48" s="7"/>
+      <c r="M48" s="7"/>
+      <c r="N48" s="7"/>
+      <c r="O48" s="7"/>
       <c r="Q48" s="3" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="BS48" s="12"/>
+    </row>
+    <row r="49" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A49">
         <v>20</v>
       </c>
-      <c r="B49" s="4" t="s">
+      <c r="B49" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C49" s="8"/>
-      <c r="D49" s="8"/>
-      <c r="E49" s="8"/>
-      <c r="F49" s="8"/>
-      <c r="G49" s="8"/>
-      <c r="H49" s="8"/>
-      <c r="I49" s="8"/>
-      <c r="J49" s="8"/>
-      <c r="K49" s="8"/>
-      <c r="L49" s="8"/>
-      <c r="M49" s="8"/>
-      <c r="N49" s="8"/>
-      <c r="O49" s="8"/>
+      <c r="C49" s="7"/>
+      <c r="D49" s="7"/>
+      <c r="E49" s="7"/>
+      <c r="F49" s="7"/>
+      <c r="G49" s="7"/>
+      <c r="H49" s="7"/>
+      <c r="I49" s="7"/>
+      <c r="J49" s="7"/>
+      <c r="K49" s="7"/>
+      <c r="L49" s="7"/>
+      <c r="M49" s="7"/>
+      <c r="N49" s="7"/>
+      <c r="O49" s="7"/>
       <c r="Q49" s="3" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="C50" s="8"/>
-      <c r="D50" s="8"/>
-      <c r="E50" s="8"/>
-      <c r="F50" s="8"/>
-      <c r="G50" s="8"/>
-      <c r="H50" s="8"/>
-      <c r="I50" s="8"/>
-      <c r="J50" s="8"/>
-      <c r="K50" s="8"/>
-      <c r="L50" s="8"/>
-      <c r="M50" s="8"/>
-      <c r="N50" s="8"/>
-      <c r="O50" s="8"/>
-    </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="BS49" s="12"/>
+    </row>
+    <row r="50" spans="1:71" x14ac:dyDescent="0.45">
+      <c r="C50" s="7"/>
+      <c r="D50" s="7"/>
+      <c r="E50" s="7"/>
+      <c r="F50" s="7"/>
+      <c r="G50" s="7"/>
+      <c r="H50" s="7"/>
+      <c r="I50" s="7"/>
+      <c r="J50" s="7"/>
+      <c r="K50" s="7"/>
+      <c r="L50" s="7"/>
+      <c r="M50" s="7"/>
+      <c r="N50" s="7"/>
+      <c r="O50" s="7"/>
+      <c r="BS50" s="12"/>
+    </row>
+    <row r="51" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A51">
         <v>21</v>
       </c>
-      <c r="B51" s="6" t="s">
+      <c r="B51" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C51" s="8"/>
-      <c r="D51" s="8"/>
-      <c r="E51" s="8"/>
-      <c r="F51" s="8"/>
-      <c r="G51" s="8"/>
-      <c r="H51" s="8"/>
-      <c r="I51" s="8"/>
-      <c r="J51" s="8"/>
-      <c r="K51" s="8"/>
-      <c r="L51" s="8"/>
-      <c r="M51" s="8"/>
-      <c r="N51" s="8"/>
-      <c r="O51" s="8"/>
-    </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="C52" s="8"/>
-      <c r="D52" s="8"/>
-      <c r="E52" s="8"/>
-      <c r="F52" s="8"/>
-      <c r="G52" s="8"/>
-      <c r="H52" s="8"/>
-      <c r="I52" s="8"/>
-      <c r="J52" s="8"/>
-      <c r="K52" s="8"/>
-      <c r="L52" s="8"/>
-      <c r="M52" s="8"/>
-      <c r="N52" s="8"/>
-      <c r="O52" s="8"/>
-    </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="C51" s="7"/>
+      <c r="D51" s="7"/>
+      <c r="E51" s="7"/>
+      <c r="F51" s="7"/>
+      <c r="G51" s="7"/>
+      <c r="H51" s="7"/>
+      <c r="I51" s="7"/>
+      <c r="J51" s="7"/>
+      <c r="K51" s="7"/>
+      <c r="L51" s="7"/>
+      <c r="M51" s="7"/>
+      <c r="N51" s="7"/>
+      <c r="O51" s="7"/>
+      <c r="BS51" s="12"/>
+    </row>
+    <row r="52" spans="1:71" x14ac:dyDescent="0.45">
+      <c r="C52" s="7"/>
+      <c r="D52" s="7"/>
+      <c r="E52" s="7"/>
+      <c r="F52" s="7"/>
+      <c r="G52" s="7"/>
+      <c r="H52" s="7"/>
+      <c r="I52" s="7"/>
+      <c r="J52" s="7"/>
+      <c r="K52" s="7"/>
+      <c r="L52" s="7"/>
+      <c r="M52" s="7"/>
+      <c r="N52" s="7"/>
+      <c r="O52" s="7"/>
+    </row>
+    <row r="53" spans="1:71" ht="24.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A53">
         <v>22</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C53" s="8"/>
-      <c r="D53" s="8"/>
-      <c r="E53" s="8"/>
-      <c r="F53" s="8"/>
-      <c r="G53" s="8"/>
-      <c r="H53" s="8"/>
-      <c r="I53" s="8"/>
-      <c r="J53" s="8"/>
-      <c r="K53" s="8"/>
-      <c r="L53" s="8"/>
-      <c r="M53" s="8"/>
-      <c r="N53" s="8"/>
-      <c r="O53" s="8"/>
+      <c r="C53" s="7"/>
+      <c r="D53" s="7"/>
+      <c r="E53" s="7"/>
+      <c r="F53" s="7"/>
+      <c r="G53" s="7"/>
+      <c r="H53" s="7"/>
+      <c r="I53" s="7"/>
+      <c r="J53" s="7"/>
+      <c r="K53" s="7"/>
+      <c r="L53" s="7"/>
+      <c r="M53" s="7"/>
+      <c r="N53" s="7"/>
+      <c r="O53" s="7"/>
       <c r="Q53" s="3" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="C54" s="8"/>
-      <c r="D54" s="8"/>
-      <c r="E54" s="8"/>
-      <c r="F54" s="8"/>
-      <c r="G54" s="8"/>
-      <c r="H54" s="8"/>
-      <c r="I54" s="8"/>
-      <c r="J54" s="8"/>
-      <c r="K54" s="8"/>
-      <c r="L54" s="8"/>
-      <c r="M54" s="8"/>
-      <c r="N54" s="8"/>
-      <c r="O54" s="8"/>
+      <c r="BS53" s="15" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="54" spans="1:71" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C54" s="7"/>
+      <c r="D54" s="7"/>
+      <c r="E54" s="7"/>
+      <c r="F54" s="7"/>
+      <c r="G54" s="7"/>
+      <c r="H54" s="7"/>
+      <c r="I54" s="7"/>
+      <c r="J54" s="7"/>
+      <c r="K54" s="7"/>
+      <c r="L54" s="7"/>
+      <c r="M54" s="7"/>
+      <c r="N54" s="7"/>
+      <c r="O54" s="7"/>
       <c r="Q54" s="3" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="BS54" s="15" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="55" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A55">
         <v>23</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C55" s="8"/>
-      <c r="D55" s="8"/>
-      <c r="E55" s="8"/>
-      <c r="F55" s="8"/>
-      <c r="G55" s="8"/>
-      <c r="H55" s="8"/>
-      <c r="I55" s="8"/>
-      <c r="J55" s="8"/>
-      <c r="K55" s="8"/>
-      <c r="L55" s="8"/>
-      <c r="M55" s="8"/>
-      <c r="N55" s="8"/>
-      <c r="O55" s="8"/>
+      <c r="C55" s="7"/>
+      <c r="D55" s="7"/>
+      <c r="E55" s="7"/>
+      <c r="F55" s="7"/>
+      <c r="G55" s="7"/>
+      <c r="H55" s="7"/>
+      <c r="I55" s="7"/>
+      <c r="J55" s="7"/>
+      <c r="K55" s="7"/>
+      <c r="L55" s="7"/>
+      <c r="M55" s="7"/>
+      <c r="N55" s="7"/>
+      <c r="O55" s="7"/>
       <c r="Q55" s="3" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="C56" s="8"/>
-      <c r="D56" s="8"/>
-      <c r="E56" s="8"/>
-      <c r="F56" s="8"/>
-      <c r="G56" s="8"/>
-      <c r="H56" s="8"/>
-      <c r="I56" s="8"/>
-      <c r="J56" s="8"/>
-      <c r="K56" s="8"/>
-      <c r="L56" s="8"/>
-      <c r="M56" s="8"/>
-      <c r="N56" s="8"/>
-      <c r="O56" s="8"/>
+      <c r="BS55" s="15"/>
+    </row>
+    <row r="56" spans="1:71" x14ac:dyDescent="0.45">
+      <c r="C56" s="7"/>
+      <c r="D56" s="7"/>
+      <c r="E56" s="7"/>
+      <c r="F56" s="7"/>
+      <c r="G56" s="7"/>
+      <c r="H56" s="7"/>
+      <c r="I56" s="7"/>
+      <c r="J56" s="7"/>
+      <c r="K56" s="7"/>
+      <c r="L56" s="7"/>
+      <c r="M56" s="7"/>
+      <c r="N56" s="7"/>
+      <c r="O56" s="7"/>
       <c r="Q56" s="3" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="BS56" s="12"/>
+    </row>
+    <row r="57" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A57">
         <v>24</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C57" s="8"/>
-      <c r="D57" s="8"/>
-      <c r="E57" s="8"/>
-      <c r="F57" s="8"/>
-      <c r="G57" s="8"/>
-      <c r="H57" s="8"/>
-      <c r="I57" s="8"/>
-      <c r="J57" s="8"/>
-      <c r="K57" s="8"/>
-      <c r="L57" s="8"/>
-      <c r="M57" s="8"/>
-      <c r="N57" s="8"/>
-      <c r="O57" s="8"/>
+      <c r="C57" s="7"/>
+      <c r="D57" s="7"/>
+      <c r="E57" s="7"/>
+      <c r="F57" s="7"/>
+      <c r="G57" s="7"/>
+      <c r="H57" s="7"/>
+      <c r="I57" s="7"/>
+      <c r="J57" s="7"/>
+      <c r="K57" s="7"/>
+      <c r="L57" s="7"/>
+      <c r="M57" s="7"/>
+      <c r="N57" s="7"/>
+      <c r="O57" s="7"/>
       <c r="Q57" s="3" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="C58" s="8"/>
-      <c r="D58" s="8"/>
-      <c r="E58" s="8"/>
-      <c r="F58" s="8"/>
-      <c r="G58" s="8"/>
-      <c r="H58" s="8"/>
-      <c r="I58" s="8"/>
-      <c r="J58" s="8"/>
-      <c r="K58" s="8"/>
-      <c r="L58" s="8"/>
-      <c r="M58" s="8"/>
-      <c r="N58" s="8"/>
-      <c r="O58" s="8"/>
+      <c r="BS57" s="12"/>
+    </row>
+    <row r="58" spans="1:71" x14ac:dyDescent="0.45">
+      <c r="C58" s="7"/>
+      <c r="D58" s="7"/>
+      <c r="E58" s="7"/>
+      <c r="F58" s="7"/>
+      <c r="G58" s="7"/>
+      <c r="H58" s="7"/>
+      <c r="I58" s="7"/>
+      <c r="J58" s="7"/>
+      <c r="K58" s="7"/>
+      <c r="L58" s="7"/>
+      <c r="M58" s="7"/>
+      <c r="N58" s="7"/>
+      <c r="O58" s="7"/>
       <c r="Q58" s="3" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="BS58" s="12"/>
+    </row>
+    <row r="59" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A59">
         <v>25</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C59" s="8"/>
-      <c r="D59" s="8"/>
-      <c r="E59" s="8"/>
-      <c r="F59" s="8"/>
-      <c r="G59" s="8"/>
-      <c r="H59" s="8"/>
-      <c r="I59" s="8"/>
-      <c r="J59" s="8"/>
-      <c r="K59" s="8"/>
-      <c r="L59" s="8"/>
-      <c r="M59" s="8"/>
-      <c r="N59" s="8"/>
-      <c r="O59" s="8"/>
+      <c r="C59" s="7"/>
+      <c r="D59" s="7"/>
+      <c r="E59" s="7"/>
+      <c r="F59" s="7"/>
+      <c r="G59" s="7"/>
+      <c r="H59" s="7"/>
+      <c r="I59" s="7"/>
+      <c r="J59" s="7"/>
+      <c r="K59" s="7"/>
+      <c r="L59" s="7"/>
+      <c r="M59" s="7"/>
+      <c r="N59" s="7"/>
+      <c r="O59" s="7"/>
       <c r="Q59" s="3" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="C60" s="8"/>
-      <c r="D60" s="8"/>
-      <c r="E60" s="8"/>
-      <c r="F60" s="8"/>
-      <c r="G60" s="8"/>
-      <c r="H60" s="8"/>
-      <c r="I60" s="8"/>
-      <c r="J60" s="8"/>
-      <c r="K60" s="8"/>
-      <c r="L60" s="8"/>
-      <c r="M60" s="8"/>
-      <c r="N60" s="8"/>
-      <c r="O60" s="8"/>
+    <row r="60" spans="1:71" ht="22.8" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C60" s="7"/>
+      <c r="D60" s="7"/>
+      <c r="E60" s="7"/>
+      <c r="F60" s="7"/>
+      <c r="G60" s="7"/>
+      <c r="H60" s="7"/>
+      <c r="I60" s="7"/>
+      <c r="J60" s="7"/>
+      <c r="K60" s="7"/>
+      <c r="L60" s="7"/>
+      <c r="M60" s="7"/>
+      <c r="N60" s="7"/>
+      <c r="O60" s="7"/>
       <c r="Q60" s="3" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="BS60" s="15" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="61" spans="1:71" ht="23.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A61">
         <v>26</v>
       </c>
       <c r="B61" t="s">
         <v>15</v>
       </c>
-      <c r="C61" s="8"/>
-      <c r="D61" s="8"/>
-      <c r="E61" s="8"/>
-      <c r="F61" s="8"/>
-      <c r="G61" s="8"/>
-      <c r="H61" s="8"/>
-      <c r="I61" s="8"/>
-      <c r="J61" s="8"/>
-      <c r="K61" s="8"/>
-      <c r="L61" s="8"/>
-      <c r="M61" s="8"/>
-      <c r="N61" s="8"/>
-      <c r="O61" s="8"/>
+      <c r="C61" s="7"/>
+      <c r="D61" s="7"/>
+      <c r="E61" s="7"/>
+      <c r="F61" s="7"/>
+      <c r="G61" s="7"/>
+      <c r="H61" s="7"/>
+      <c r="I61" s="7"/>
+      <c r="J61" s="7"/>
+      <c r="K61" s="7"/>
+      <c r="L61" s="7"/>
+      <c r="M61" s="7"/>
+      <c r="N61" s="7"/>
+      <c r="O61" s="7"/>
       <c r="Q61" s="3" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="C62" s="8"/>
-      <c r="D62" s="8"/>
-      <c r="E62" s="8"/>
-      <c r="F62" s="8"/>
-      <c r="G62" s="8"/>
-      <c r="H62" s="8"/>
-      <c r="I62" s="8"/>
-      <c r="J62" s="8"/>
-      <c r="K62" s="8"/>
-      <c r="L62" s="8"/>
-      <c r="M62" s="8"/>
-      <c r="N62" s="8"/>
-      <c r="O62" s="8"/>
-    </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="BS61" s="15" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="62" spans="1:71" x14ac:dyDescent="0.45">
+      <c r="C62" s="7"/>
+      <c r="D62" s="7"/>
+      <c r="E62" s="7"/>
+      <c r="F62" s="7"/>
+      <c r="G62" s="7"/>
+      <c r="H62" s="7"/>
+      <c r="I62" s="7"/>
+      <c r="J62" s="7"/>
+      <c r="K62" s="7"/>
+      <c r="L62" s="7"/>
+      <c r="M62" s="7"/>
+      <c r="N62" s="7"/>
+      <c r="O62" s="7"/>
+      <c r="BS62" s="15"/>
+    </row>
+    <row r="63" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A63">
         <v>27</v>
       </c>
-      <c r="B63" s="6" t="s">
+      <c r="B63" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C63" s="8"/>
-      <c r="D63" s="8"/>
-      <c r="E63" s="8"/>
-      <c r="F63" s="8"/>
-      <c r="G63" s="8"/>
-      <c r="H63" s="8"/>
-      <c r="I63" s="8"/>
-      <c r="J63" s="8"/>
-      <c r="K63" s="8"/>
-      <c r="L63" s="8"/>
-      <c r="M63" s="8"/>
-      <c r="N63" s="8"/>
-      <c r="O63" s="8"/>
-    </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="C64" s="8"/>
-      <c r="D64" s="8"/>
-      <c r="E64" s="8"/>
-      <c r="F64" s="8"/>
-      <c r="G64" s="8"/>
-      <c r="H64" s="8"/>
-      <c r="I64" s="8"/>
-      <c r="J64" s="8"/>
-      <c r="K64" s="8"/>
-      <c r="L64" s="8"/>
-      <c r="M64" s="8"/>
-      <c r="N64" s="8"/>
-      <c r="O64" s="8"/>
+      <c r="C63" s="7"/>
+      <c r="D63" s="7"/>
+      <c r="E63" s="7"/>
+      <c r="F63" s="7"/>
+      <c r="G63" s="7"/>
+      <c r="H63" s="7"/>
+      <c r="I63" s="7"/>
+      <c r="J63" s="7"/>
+      <c r="K63" s="7"/>
+      <c r="L63" s="7"/>
+      <c r="M63" s="7"/>
+      <c r="N63" s="7"/>
+      <c r="O63" s="7"/>
+      <c r="BS63" s="12"/>
+    </row>
+    <row r="64" spans="1:71" x14ac:dyDescent="0.45">
+      <c r="C64" s="7"/>
+      <c r="D64" s="7"/>
+      <c r="E64" s="7"/>
+      <c r="F64" s="7"/>
+      <c r="G64" s="7"/>
+      <c r="H64" s="7"/>
+      <c r="I64" s="7"/>
+      <c r="J64" s="7"/>
+      <c r="K64" s="7"/>
+      <c r="L64" s="7"/>
+      <c r="M64" s="7"/>
+      <c r="N64" s="7"/>
+      <c r="O64" s="7"/>
       <c r="Q64" s="3" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A65" s="7">
+      <c r="BS64" s="12"/>
+    </row>
+    <row r="65" spans="1:71" x14ac:dyDescent="0.45">
+      <c r="A65" s="6">
         <v>28</v>
       </c>
-      <c r="B65" s="7" t="s">
+      <c r="B65" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C65" s="8"/>
-      <c r="D65" s="8"/>
-      <c r="E65" s="8"/>
-      <c r="F65" s="8"/>
-      <c r="G65" s="8"/>
-      <c r="H65" s="8"/>
-      <c r="I65" s="8"/>
-      <c r="J65" s="8"/>
-      <c r="K65" s="8"/>
-      <c r="L65" s="8"/>
-      <c r="M65" s="8"/>
-      <c r="N65" s="8"/>
-      <c r="O65" s="8"/>
+      <c r="C65" s="7"/>
+      <c r="D65" s="7"/>
+      <c r="E65" s="7"/>
+      <c r="F65" s="7"/>
+      <c r="G65" s="7"/>
+      <c r="H65" s="7"/>
+      <c r="I65" s="7"/>
+      <c r="J65" s="7"/>
+      <c r="K65" s="7"/>
+      <c r="L65" s="7"/>
+      <c r="M65" s="7"/>
+      <c r="N65" s="7"/>
+      <c r="O65" s="7"/>
       <c r="Q65" s="3" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A66" s="7"/>
-      <c r="B66" s="7"/>
-      <c r="C66" s="8"/>
-      <c r="D66" s="8"/>
-      <c r="E66" s="8"/>
-      <c r="F66" s="8"/>
-      <c r="G66" s="8"/>
-      <c r="H66" s="8"/>
-      <c r="I66" s="8"/>
-      <c r="J66" s="8"/>
-      <c r="K66" s="8"/>
-      <c r="L66" s="8"/>
-      <c r="M66" s="8"/>
-      <c r="N66" s="8"/>
-      <c r="O66" s="8"/>
+      <c r="BS65" s="12"/>
+    </row>
+    <row r="66" spans="1:71" x14ac:dyDescent="0.45">
+      <c r="A66" s="6"/>
+      <c r="B66" s="6"/>
+      <c r="C66" s="7"/>
+      <c r="D66" s="7"/>
+      <c r="E66" s="7"/>
+      <c r="F66" s="7"/>
+      <c r="G66" s="7"/>
+      <c r="H66" s="7"/>
+      <c r="I66" s="7"/>
+      <c r="J66" s="7"/>
+      <c r="K66" s="7"/>
+      <c r="L66" s="7"/>
+      <c r="M66" s="7"/>
+      <c r="N66" s="7"/>
+      <c r="O66" s="7"/>
       <c r="Q66" s="3" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A67" s="7">
+    <row r="67" spans="1:71" ht="37.200000000000003" x14ac:dyDescent="0.45">
+      <c r="A67" s="6">
         <v>29</v>
       </c>
-      <c r="B67" s="7" t="s">
+      <c r="B67" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C67" s="8"/>
-      <c r="D67" s="8"/>
-      <c r="E67" s="8"/>
-      <c r="F67" s="8"/>
-      <c r="G67" s="8"/>
-      <c r="H67" s="8"/>
-      <c r="I67" s="8"/>
-      <c r="J67" s="8"/>
-      <c r="K67" s="8"/>
-      <c r="L67" s="8"/>
-      <c r="M67" s="8"/>
-      <c r="N67" s="8"/>
-      <c r="O67" s="8"/>
+      <c r="C67" s="7"/>
+      <c r="D67" s="7"/>
+      <c r="E67" s="7"/>
+      <c r="F67" s="7"/>
+      <c r="G67" s="7"/>
+      <c r="H67" s="7"/>
+      <c r="I67" s="7"/>
+      <c r="J67" s="7"/>
+      <c r="K67" s="7"/>
+      <c r="L67" s="7"/>
+      <c r="M67" s="7"/>
+      <c r="N67" s="7"/>
+      <c r="O67" s="7"/>
       <c r="Q67" s="3" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A68" s="7"/>
-      <c r="B68" s="7"/>
-      <c r="C68" s="8"/>
-      <c r="D68" s="8"/>
-      <c r="E68" s="8"/>
-      <c r="F68" s="8"/>
-      <c r="G68" s="8"/>
-      <c r="H68" s="8"/>
-      <c r="I68" s="8"/>
-      <c r="J68" s="8"/>
-      <c r="K68" s="8"/>
-      <c r="L68" s="8"/>
-      <c r="M68" s="8"/>
-      <c r="N68" s="8"/>
-      <c r="O68" s="8"/>
+      <c r="BS67" s="14" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="68" spans="1:71" ht="16.2" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A68" s="6"/>
+      <c r="B68" s="6"/>
+      <c r="C68" s="7"/>
+      <c r="D68" s="7"/>
+      <c r="E68" s="7"/>
+      <c r="F68" s="7"/>
+      <c r="G68" s="7"/>
+      <c r="H68" s="7"/>
+      <c r="I68" s="7"/>
+      <c r="J68" s="7"/>
+      <c r="K68" s="7"/>
+      <c r="L68" s="7"/>
+      <c r="M68" s="7"/>
+      <c r="N68" s="7"/>
+      <c r="O68" s="7"/>
       <c r="Q68" s="3" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A69" s="7">
+      <c r="BS68" s="15" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="69" spans="1:71" ht="29.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A69" s="6">
         <v>30</v>
       </c>
-      <c r="B69" s="7" t="s">
+      <c r="B69" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C69" s="8"/>
-      <c r="D69" s="8"/>
-      <c r="E69" s="8"/>
-      <c r="F69" s="8"/>
-      <c r="G69" s="8"/>
-      <c r="H69" s="8"/>
-      <c r="I69" s="8"/>
-      <c r="J69" s="8"/>
-      <c r="K69" s="8"/>
-      <c r="L69" s="8"/>
-      <c r="M69" s="8"/>
-      <c r="N69" s="8"/>
-      <c r="O69" s="8"/>
+      <c r="C69" s="7"/>
+      <c r="D69" s="7"/>
+      <c r="E69" s="7"/>
+      <c r="F69" s="7"/>
+      <c r="G69" s="7"/>
+      <c r="H69" s="7"/>
+      <c r="I69" s="7"/>
+      <c r="J69" s="7"/>
+      <c r="K69" s="7"/>
+      <c r="L69" s="7"/>
+      <c r="M69" s="7"/>
+      <c r="N69" s="7"/>
+      <c r="O69" s="7"/>
       <c r="Q69" s="3" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="C70" s="8"/>
-      <c r="D70" s="8"/>
-      <c r="E70" s="8"/>
-      <c r="F70" s="8"/>
-      <c r="G70" s="8"/>
-      <c r="H70" s="8"/>
-      <c r="I70" s="8"/>
-      <c r="J70" s="8"/>
-      <c r="K70" s="8"/>
-      <c r="L70" s="8"/>
-      <c r="M70" s="8"/>
-      <c r="N70" s="8"/>
-      <c r="O70" s="8"/>
+      <c r="BS69" s="15" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="70" spans="1:71" x14ac:dyDescent="0.45">
+      <c r="C70" s="7"/>
+      <c r="D70" s="7"/>
+      <c r="E70" s="7"/>
+      <c r="F70" s="7"/>
+      <c r="G70" s="7"/>
+      <c r="H70" s="7"/>
+      <c r="I70" s="7"/>
+      <c r="J70" s="7"/>
+      <c r="K70" s="7"/>
+      <c r="L70" s="7"/>
+      <c r="M70" s="7"/>
+      <c r="N70" s="7"/>
+      <c r="O70" s="7"/>
       <c r="Q70" s="3" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="BS70" s="15"/>
+    </row>
+    <row r="71" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A71">
         <v>31</v>
       </c>
-      <c r="B71" s="6" t="s">
+      <c r="B71" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="C71" s="8"/>
-      <c r="D71" s="8"/>
-      <c r="E71" s="8"/>
-      <c r="F71" s="8"/>
-      <c r="G71" s="8"/>
-      <c r="H71" s="8"/>
-      <c r="I71" s="8"/>
-      <c r="J71" s="8"/>
-      <c r="K71" s="8"/>
-      <c r="L71" s="8"/>
-      <c r="M71" s="8"/>
-      <c r="N71" s="8"/>
-      <c r="O71" s="8"/>
+      <c r="C71" s="7"/>
+      <c r="D71" s="7"/>
+      <c r="E71" s="7"/>
+      <c r="F71" s="7"/>
+      <c r="G71" s="7"/>
+      <c r="H71" s="7"/>
+      <c r="I71" s="7"/>
+      <c r="J71" s="7"/>
+      <c r="K71" s="7"/>
+      <c r="L71" s="7"/>
+      <c r="M71" s="7"/>
+      <c r="N71" s="7"/>
+      <c r="O71" s="7"/>
       <c r="Q71" s="3" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="C72" s="8"/>
-      <c r="D72" s="8"/>
-      <c r="E72" s="8"/>
-      <c r="F72" s="8"/>
-      <c r="G72" s="8"/>
-      <c r="H72" s="8"/>
-      <c r="I72" s="8"/>
-      <c r="J72" s="8"/>
-      <c r="K72" s="8"/>
-      <c r="L72" s="8"/>
-      <c r="M72" s="8"/>
-      <c r="N72" s="8"/>
-      <c r="O72" s="8"/>
-    </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="C73" s="8"/>
-      <c r="D73" s="8"/>
-      <c r="E73" s="8"/>
-      <c r="F73" s="8"/>
-      <c r="G73" s="8"/>
-      <c r="H73" s="8"/>
-      <c r="I73" s="8"/>
-      <c r="J73" s="8"/>
-      <c r="K73" s="8"/>
-      <c r="L73" s="8"/>
-      <c r="M73" s="8"/>
-      <c r="N73" s="8"/>
-      <c r="O73" s="8"/>
-    </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="C74" s="8"/>
-      <c r="D74" s="8"/>
-      <c r="E74" s="8"/>
-      <c r="F74" s="8"/>
-      <c r="G74" s="8"/>
-      <c r="H74" s="8"/>
-      <c r="I74" s="8"/>
-      <c r="J74" s="8"/>
-      <c r="K74" s="8"/>
-      <c r="L74" s="8"/>
-      <c r="M74" s="8"/>
-      <c r="N74" s="8"/>
-      <c r="O74" s="8"/>
-    </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="C75" s="8"/>
-      <c r="D75" s="8"/>
-      <c r="E75" s="8"/>
-      <c r="F75" s="8"/>
-      <c r="G75" s="8"/>
-      <c r="H75" s="8"/>
-      <c r="I75" s="8"/>
-      <c r="J75" s="8"/>
-      <c r="K75" s="8"/>
-      <c r="L75" s="8"/>
-      <c r="M75" s="8"/>
-      <c r="N75" s="8"/>
-      <c r="O75" s="8"/>
+    <row r="72" spans="1:71" ht="67.2" x14ac:dyDescent="0.45">
+      <c r="C72" s="7"/>
+      <c r="D72" s="7"/>
+      <c r="E72" s="7"/>
+      <c r="F72" s="7"/>
+      <c r="G72" s="7"/>
+      <c r="H72" s="7"/>
+      <c r="I72" s="7"/>
+      <c r="J72" s="7"/>
+      <c r="K72" s="7"/>
+      <c r="L72" s="7"/>
+      <c r="M72" s="7"/>
+      <c r="N72" s="7"/>
+      <c r="O72" s="7"/>
+      <c r="BS72" s="15" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="73" spans="1:71" ht="179.4" x14ac:dyDescent="0.45">
+      <c r="C73" s="7"/>
+      <c r="D73" s="7"/>
+      <c r="E73" s="7"/>
+      <c r="F73" s="7"/>
+      <c r="G73" s="7"/>
+      <c r="H73" s="7"/>
+      <c r="I73" s="7"/>
+      <c r="J73" s="7"/>
+      <c r="K73" s="7"/>
+      <c r="L73" s="7"/>
+      <c r="M73" s="7"/>
+      <c r="N73" s="7"/>
+      <c r="O73" s="7"/>
+      <c r="BS73" s="15" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="74" spans="1:71" x14ac:dyDescent="0.45">
+      <c r="C74" s="7"/>
+      <c r="D74" s="7"/>
+      <c r="E74" s="7"/>
+      <c r="F74" s="7"/>
+      <c r="G74" s="7"/>
+      <c r="H74" s="7"/>
+      <c r="I74" s="7"/>
+      <c r="J74" s="7"/>
+      <c r="K74" s="7"/>
+      <c r="L74" s="7"/>
+      <c r="M74" s="7"/>
+      <c r="N74" s="7"/>
+      <c r="O74" s="7"/>
+      <c r="BS74" s="15"/>
+    </row>
+    <row r="75" spans="1:71" ht="218.4" x14ac:dyDescent="0.45">
+      <c r="C75" s="7"/>
+      <c r="D75" s="7"/>
+      <c r="E75" s="7"/>
+      <c r="F75" s="7"/>
+      <c r="G75" s="7"/>
+      <c r="H75" s="7"/>
+      <c r="I75" s="7"/>
+      <c r="J75" s="7"/>
+      <c r="K75" s="7"/>
+      <c r="L75" s="7"/>
+      <c r="M75" s="7"/>
+      <c r="N75" s="7"/>
+      <c r="O75" s="7"/>
       <c r="Q75" s="3" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="C76" s="8"/>
-      <c r="D76" s="8"/>
-      <c r="E76" s="8"/>
-      <c r="F76" s="8"/>
-      <c r="G76" s="8"/>
-      <c r="H76" s="8"/>
-      <c r="I76" s="8"/>
-      <c r="J76" s="8"/>
-      <c r="K76" s="8"/>
-      <c r="L76" s="8"/>
-      <c r="M76" s="8"/>
-      <c r="N76" s="8"/>
-      <c r="O76" s="8"/>
+      <c r="BS75" s="15" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="76" spans="1:71" x14ac:dyDescent="0.45">
+      <c r="C76" s="7"/>
+      <c r="D76" s="7"/>
+      <c r="E76" s="7"/>
+      <c r="F76" s="7"/>
+      <c r="G76" s="7"/>
+      <c r="H76" s="7"/>
+      <c r="I76" s="7"/>
+      <c r="J76" s="7"/>
+      <c r="K76" s="7"/>
+      <c r="L76" s="7"/>
+      <c r="M76" s="7"/>
+      <c r="N76" s="7"/>
+      <c r="O76" s="7"/>
       <c r="Q76" s="3" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="C77" s="8"/>
-      <c r="D77" s="8"/>
-      <c r="E77" s="8"/>
-      <c r="F77" s="8"/>
-      <c r="G77" s="8"/>
-      <c r="H77" s="8"/>
-      <c r="I77" s="8"/>
-      <c r="J77" s="8"/>
-      <c r="K77" s="8"/>
-      <c r="L77" s="8"/>
-      <c r="M77" s="8"/>
-      <c r="N77" s="8"/>
-      <c r="O77" s="8"/>
+      <c r="BS76" s="15"/>
+    </row>
+    <row r="77" spans="1:71" ht="55.8" x14ac:dyDescent="0.45">
+      <c r="C77" s="7"/>
+      <c r="D77" s="7"/>
+      <c r="E77" s="7"/>
+      <c r="F77" s="7"/>
+      <c r="G77" s="7"/>
+      <c r="H77" s="7"/>
+      <c r="I77" s="7"/>
+      <c r="J77" s="7"/>
+      <c r="K77" s="7"/>
+      <c r="L77" s="7"/>
+      <c r="M77" s="7"/>
+      <c r="N77" s="7"/>
+      <c r="O77" s="7"/>
       <c r="Q77" s="3" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="C78" s="8"/>
-      <c r="D78" s="8"/>
-      <c r="E78" s="8"/>
-      <c r="F78" s="8"/>
-      <c r="G78" s="8"/>
-      <c r="H78" s="8"/>
-      <c r="I78" s="8"/>
-      <c r="J78" s="8"/>
-      <c r="K78" s="8"/>
-      <c r="L78" s="8"/>
-      <c r="M78" s="8"/>
-      <c r="N78" s="8"/>
-      <c r="O78" s="8"/>
+      <c r="BS77" s="14" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="78" spans="1:71" ht="40.799999999999997" x14ac:dyDescent="0.45">
+      <c r="C78" s="7"/>
+      <c r="D78" s="7"/>
+      <c r="E78" s="7"/>
+      <c r="F78" s="7"/>
+      <c r="G78" s="7"/>
+      <c r="H78" s="7"/>
+      <c r="I78" s="7"/>
+      <c r="J78" s="7"/>
+      <c r="K78" s="7"/>
+      <c r="L78" s="7"/>
+      <c r="M78" s="7"/>
+      <c r="N78" s="7"/>
+      <c r="O78" s="7"/>
       <c r="Q78" s="3" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="C79" s="8"/>
-      <c r="D79" s="8"/>
-      <c r="E79" s="8"/>
-      <c r="F79" s="8"/>
-      <c r="G79" s="8"/>
-      <c r="H79" s="8"/>
-      <c r="I79" s="8"/>
-      <c r="J79" s="8"/>
-      <c r="K79" s="8"/>
-      <c r="L79" s="8"/>
-      <c r="M79" s="8"/>
-      <c r="N79" s="8"/>
-      <c r="O79" s="8"/>
+      <c r="BS78" s="15" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="79" spans="1:71" ht="124.2" x14ac:dyDescent="0.45">
+      <c r="C79" s="7"/>
+      <c r="D79" s="7"/>
+      <c r="E79" s="7"/>
+      <c r="F79" s="7"/>
+      <c r="G79" s="7"/>
+      <c r="H79" s="7"/>
+      <c r="I79" s="7"/>
+      <c r="J79" s="7"/>
+      <c r="K79" s="7"/>
+      <c r="L79" s="7"/>
+      <c r="M79" s="7"/>
+      <c r="N79" s="7"/>
+      <c r="O79" s="7"/>
       <c r="Q79" s="3" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="BS79" s="15" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="80" spans="1:71" x14ac:dyDescent="0.45">
       <c r="Q80" s="3" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="83" spans="17:17" x14ac:dyDescent="0.45">
+      <c r="BS80" s="15"/>
+    </row>
+    <row r="81" spans="17:71" x14ac:dyDescent="0.45">
+      <c r="BS81" s="12"/>
+    </row>
+    <row r="82" spans="17:71" x14ac:dyDescent="0.45">
+      <c r="BS82" s="12"/>
+    </row>
+    <row r="83" spans="17:71" x14ac:dyDescent="0.45">
       <c r="Q83" s="3" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="84" spans="17:17" x14ac:dyDescent="0.45">
+    <row r="84" spans="17:71" ht="37.200000000000003" x14ac:dyDescent="0.45">
       <c r="Q84" s="3" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="85" spans="17:17" x14ac:dyDescent="0.45">
+      <c r="BS84" s="14" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="85" spans="17:71" ht="40.799999999999997" x14ac:dyDescent="0.45">
       <c r="Q85" s="3" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="86" spans="17:17" x14ac:dyDescent="0.45">
+      <c r="BS85" s="15" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="86" spans="17:71" ht="165.6" x14ac:dyDescent="0.45">
       <c r="Q86" s="3" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="87" spans="17:17" x14ac:dyDescent="0.45">
+      <c r="BS86" s="15" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="87" spans="17:71" x14ac:dyDescent="0.45">
       <c r="Q87" s="3" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="88" spans="17:17" x14ac:dyDescent="0.45">
+      <c r="BS87" s="15"/>
+    </row>
+    <row r="88" spans="17:71" ht="37.200000000000003" x14ac:dyDescent="0.45">
       <c r="Q88" s="3" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="89" spans="17:17" x14ac:dyDescent="0.45">
+      <c r="BS88" s="14" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="89" spans="17:71" ht="27.6" x14ac:dyDescent="0.45">
       <c r="Q89" s="3" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="90" spans="17:17" x14ac:dyDescent="0.45">
+      <c r="BS89" s="15" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="90" spans="17:71" ht="138" x14ac:dyDescent="0.45">
       <c r="Q90" s="3" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="91" spans="17:17" x14ac:dyDescent="0.45">
+      <c r="BS90" s="15" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="91" spans="17:71" x14ac:dyDescent="0.45">
       <c r="Q91" s="3" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="92" spans="17:17" x14ac:dyDescent="0.45">
+      <c r="BS91" s="15"/>
+    </row>
+    <row r="92" spans="17:71" x14ac:dyDescent="0.45">
       <c r="Q92" s="3" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="93" spans="17:17" x14ac:dyDescent="0.45">
+      <c r="BS92" s="12"/>
+    </row>
+    <row r="93" spans="17:71" x14ac:dyDescent="0.45">
       <c r="Q93" s="3" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="97" spans="17:17" x14ac:dyDescent="0.45">
+      <c r="BS93" s="12"/>
+    </row>
+    <row r="94" spans="17:71" x14ac:dyDescent="0.45">
+      <c r="BS94" s="12"/>
+    </row>
+    <row r="95" spans="17:71" x14ac:dyDescent="0.45">
+      <c r="BS95" s="12"/>
+    </row>
+    <row r="96" spans="17:71" x14ac:dyDescent="0.45">
+      <c r="BS96" s="12"/>
+    </row>
+    <row r="97" spans="17:71" x14ac:dyDescent="0.45">
       <c r="Q97" s="3" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="98" spans="17:17" x14ac:dyDescent="0.45">
+      <c r="BS97" s="12"/>
+    </row>
+    <row r="98" spans="17:71" x14ac:dyDescent="0.45">
       <c r="Q98" s="3" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="99" spans="17:17" x14ac:dyDescent="0.45">
+      <c r="BS98" s="12"/>
+    </row>
+    <row r="99" spans="17:71" x14ac:dyDescent="0.45">
       <c r="Q99" s="3" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="100" spans="17:17" x14ac:dyDescent="0.45">
+      <c r="BS99" s="12"/>
+    </row>
+    <row r="100" spans="17:71" x14ac:dyDescent="0.45">
       <c r="Q100" s="3" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="101" spans="17:17" x14ac:dyDescent="0.45">
+      <c r="BS100" s="12"/>
+    </row>
+    <row r="101" spans="17:71" x14ac:dyDescent="0.45">
       <c r="Q101" s="3" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="102" spans="17:17" x14ac:dyDescent="0.45">
+      <c r="BS101" s="12"/>
+    </row>
+    <row r="102" spans="17:71" x14ac:dyDescent="0.45">
       <c r="Q102" s="3" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="103" spans="17:17" x14ac:dyDescent="0.45">
+      <c r="BS102" s="12"/>
+    </row>
+    <row r="103" spans="17:71" x14ac:dyDescent="0.45">
       <c r="Q103" s="3" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="104" spans="17:17" x14ac:dyDescent="0.45">
+      <c r="BS103" s="12"/>
+    </row>
+    <row r="104" spans="17:71" x14ac:dyDescent="0.45">
       <c r="Q104" s="3" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="105" spans="17:17" x14ac:dyDescent="0.45">
+      <c r="BS104" s="12"/>
+    </row>
+    <row r="105" spans="17:71" x14ac:dyDescent="0.45">
       <c r="Q105" s="3" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="109" spans="17:17" x14ac:dyDescent="0.45">
+      <c r="BS105" s="12"/>
+    </row>
+    <row r="107" spans="17:71" ht="54" x14ac:dyDescent="0.45">
+      <c r="BS107" s="15" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="108" spans="17:71" ht="151.80000000000001" x14ac:dyDescent="0.45">
+      <c r="BS108" s="15" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="109" spans="17:71" x14ac:dyDescent="0.45">
       <c r="Q109" s="3" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="110" spans="17:17" x14ac:dyDescent="0.45">
+      <c r="BS109" s="15"/>
+    </row>
+    <row r="110" spans="17:71" x14ac:dyDescent="0.45">
       <c r="Q110" s="3" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="111" spans="17:17" x14ac:dyDescent="0.45">
+      <c r="BS110" s="12"/>
+    </row>
+    <row r="111" spans="17:71" x14ac:dyDescent="0.45">
       <c r="Q111" s="3" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="112" spans="17:17" x14ac:dyDescent="0.45">
+      <c r="BS111" s="12"/>
+    </row>
+    <row r="112" spans="17:71" x14ac:dyDescent="0.45">
       <c r="Q112" s="3" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="113" spans="17:17" x14ac:dyDescent="0.45">
+      <c r="BS112" s="12"/>
+    </row>
+    <row r="113" spans="17:71" x14ac:dyDescent="0.45">
       <c r="Q113" s="3" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="114" spans="17:17" x14ac:dyDescent="0.45">
+      <c r="BS113" s="12"/>
+    </row>
+    <row r="114" spans="17:71" x14ac:dyDescent="0.45">
       <c r="Q114" s="3" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="115" spans="17:17" x14ac:dyDescent="0.45">
+      <c r="BS114" s="12"/>
+    </row>
+    <row r="115" spans="17:71" x14ac:dyDescent="0.45">
       <c r="Q115" s="3" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="119" spans="17:17" x14ac:dyDescent="0.45">
+      <c r="BS115" s="12"/>
+    </row>
+    <row r="116" spans="17:71" x14ac:dyDescent="0.45">
+      <c r="BS116" s="12"/>
+    </row>
+    <row r="117" spans="17:71" x14ac:dyDescent="0.45">
+      <c r="BS117" s="12"/>
+    </row>
+    <row r="118" spans="17:71" x14ac:dyDescent="0.45">
+      <c r="BS118" s="12"/>
+    </row>
+    <row r="119" spans="17:71" x14ac:dyDescent="0.45">
       <c r="Q119" s="3" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="120" spans="17:17" x14ac:dyDescent="0.45">
+      <c r="BS119" s="12"/>
+    </row>
+    <row r="120" spans="17:71" x14ac:dyDescent="0.45">
       <c r="Q120" s="3" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="121" spans="17:17" x14ac:dyDescent="0.45">
+      <c r="BS120" s="12"/>
+    </row>
+    <row r="121" spans="17:71" x14ac:dyDescent="0.45">
       <c r="Q121" s="3" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="122" spans="17:17" x14ac:dyDescent="0.45">
+      <c r="BS121" s="12"/>
+    </row>
+    <row r="122" spans="17:71" x14ac:dyDescent="0.45">
       <c r="Q122" s="3" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="123" spans="17:17" x14ac:dyDescent="0.45">
+      <c r="BS122" s="12"/>
+    </row>
+    <row r="123" spans="17:71" x14ac:dyDescent="0.45">
       <c r="Q123" s="3" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="124" spans="17:17" x14ac:dyDescent="0.45">
+      <c r="BS123" s="12"/>
+    </row>
+    <row r="124" spans="17:71" x14ac:dyDescent="0.45">
       <c r="Q124" s="3" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="128" spans="17:17" x14ac:dyDescent="0.45">
+    <row r="125" spans="17:71" ht="37.200000000000003" x14ac:dyDescent="0.45">
+      <c r="BS125" s="14" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="126" spans="17:71" ht="54" x14ac:dyDescent="0.45">
+      <c r="BS126" s="15" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="127" spans="17:71" ht="151.80000000000001" x14ac:dyDescent="0.45">
+      <c r="BS127" s="15" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="128" spans="17:71" x14ac:dyDescent="0.45">
       <c r="Q128" s="3" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="129" spans="17:17" x14ac:dyDescent="0.45">
+      <c r="BS128" s="15"/>
+    </row>
+    <row r="129" spans="17:71" x14ac:dyDescent="0.45">
       <c r="Q129" s="3" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="130" spans="17:17" x14ac:dyDescent="0.45">
+      <c r="BS129" s="12"/>
+    </row>
+    <row r="130" spans="17:71" x14ac:dyDescent="0.45">
       <c r="Q130" s="3" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="131" spans="17:17" x14ac:dyDescent="0.45">
+      <c r="BS130" s="12"/>
+    </row>
+    <row r="131" spans="17:71" x14ac:dyDescent="0.45">
       <c r="Q131" s="3" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="132" spans="17:17" x14ac:dyDescent="0.45">
+      <c r="BS131" s="12"/>
+    </row>
+    <row r="132" spans="17:71" x14ac:dyDescent="0.45">
       <c r="Q132" s="3" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="133" spans="17:17" x14ac:dyDescent="0.45">
+      <c r="BS132" s="12"/>
+    </row>
+    <row r="133" spans="17:71" x14ac:dyDescent="0.45">
       <c r="Q133" s="3" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="134" spans="17:17" x14ac:dyDescent="0.45">
+      <c r="BS133" s="12"/>
+    </row>
+    <row r="134" spans="17:71" x14ac:dyDescent="0.45">
       <c r="Q134" s="3" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="135" spans="17:17" x14ac:dyDescent="0.45">
+      <c r="BS134" s="12"/>
+    </row>
+    <row r="135" spans="17:71" x14ac:dyDescent="0.45">
       <c r="Q135" s="3" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="136" spans="17:17" x14ac:dyDescent="0.45">
+      <c r="BS135" s="12"/>
+    </row>
+    <row r="136" spans="17:71" x14ac:dyDescent="0.45">
       <c r="Q136" s="3" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="137" spans="17:17" x14ac:dyDescent="0.45">
+      <c r="BS136" s="12"/>
+    </row>
+    <row r="137" spans="17:71" x14ac:dyDescent="0.45">
       <c r="Q137" s="3" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="138" spans="17:17" x14ac:dyDescent="0.45">
+      <c r="BS137" s="12"/>
+    </row>
+    <row r="138" spans="17:71" x14ac:dyDescent="0.45">
       <c r="Q138" s="3" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="142" spans="17:17" x14ac:dyDescent="0.45">
+      <c r="BS138" s="12"/>
+    </row>
+    <row r="139" spans="17:71" x14ac:dyDescent="0.45">
+      <c r="BS139" s="12"/>
+    </row>
+    <row r="140" spans="17:71" x14ac:dyDescent="0.45">
+      <c r="BS140" s="12"/>
+    </row>
+    <row r="141" spans="17:71" x14ac:dyDescent="0.45">
+      <c r="BS141" s="12"/>
+    </row>
+    <row r="142" spans="17:71" x14ac:dyDescent="0.45">
       <c r="Q142" s="3" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="143" spans="17:17" x14ac:dyDescent="0.45">
+      <c r="BS142" s="12"/>
+    </row>
+    <row r="143" spans="17:71" x14ac:dyDescent="0.45">
       <c r="Q143" s="3" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="144" spans="17:17" x14ac:dyDescent="0.45">
+    <row r="144" spans="17:71" ht="37.200000000000003" x14ac:dyDescent="0.45">
       <c r="Q144" s="3" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="145" spans="17:17" x14ac:dyDescent="0.45">
+      <c r="BS144" s="14" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="145" spans="17:71" ht="54" x14ac:dyDescent="0.45">
       <c r="Q145" s="3" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="146" spans="17:17" x14ac:dyDescent="0.45">
+      <c r="BS145" s="16" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="146" spans="17:71" ht="110.4" x14ac:dyDescent="0.45">
       <c r="Q146" s="3" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="147" spans="17:17" x14ac:dyDescent="0.45">
+      <c r="BS146" s="15" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="147" spans="17:71" x14ac:dyDescent="0.45">
       <c r="Q147" s="3" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="151" spans="17:17" x14ac:dyDescent="0.45">
+      <c r="BS147" s="15"/>
+    </row>
+    <row r="149" spans="17:71" ht="55.8" x14ac:dyDescent="0.45">
+      <c r="BS149" s="14" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="150" spans="17:71" ht="40.799999999999997" x14ac:dyDescent="0.45">
+      <c r="BS150" s="15" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="151" spans="17:71" ht="124.2" x14ac:dyDescent="0.45">
       <c r="Q151" s="3" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="152" spans="17:17" x14ac:dyDescent="0.45">
+      <c r="BS151" s="15" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="152" spans="17:71" x14ac:dyDescent="0.45">
       <c r="Q152" s="3" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="153" spans="17:17" x14ac:dyDescent="0.45">
+      <c r="BS152" s="15"/>
+    </row>
+    <row r="153" spans="17:71" ht="67.2" x14ac:dyDescent="0.45">
       <c r="Q153" s="3" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="154" spans="17:17" x14ac:dyDescent="0.45">
+      <c r="BS153" s="15" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="154" spans="17:71" ht="69" x14ac:dyDescent="0.45">
       <c r="Q154" s="3" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="155" spans="17:17" x14ac:dyDescent="0.45">
+      <c r="BS154" s="15" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="155" spans="17:71" x14ac:dyDescent="0.45">
       <c r="Q155" s="3" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="156" spans="17:17" x14ac:dyDescent="0.45">
+      <c r="BS155" s="15"/>
+    </row>
+    <row r="156" spans="17:71" ht="80.400000000000006" x14ac:dyDescent="0.45">
       <c r="Q156" s="3" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="159" spans="17:17" x14ac:dyDescent="0.45">
+      <c r="BS156" s="15" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="157" spans="17:71" ht="82.8" x14ac:dyDescent="0.45">
+      <c r="BS157" s="15" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="158" spans="17:71" x14ac:dyDescent="0.45">
+      <c r="BS158" s="15"/>
+    </row>
+    <row r="159" spans="17:71" ht="55.8" x14ac:dyDescent="0.45">
       <c r="Q159" s="3" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="160" spans="17:17" x14ac:dyDescent="0.45">
+      <c r="BS159" s="14" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="160" spans="17:71" ht="80.400000000000006" x14ac:dyDescent="0.45">
       <c r="Q160" s="3" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="161" spans="17:17" x14ac:dyDescent="0.45">
+      <c r="BS160" s="15" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="161" spans="17:71" ht="110.4" x14ac:dyDescent="0.45">
       <c r="Q161" s="3" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="162" spans="17:17" x14ac:dyDescent="0.45">
+      <c r="BS161" s="15" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="162" spans="17:71" x14ac:dyDescent="0.45">
       <c r="Q162" s="3" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="163" spans="17:17" x14ac:dyDescent="0.45">
+      <c r="BS162" s="15"/>
+    </row>
+    <row r="163" spans="17:71" ht="80.400000000000006" x14ac:dyDescent="0.45">
       <c r="Q163" s="3" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="164" spans="17:17" x14ac:dyDescent="0.45">
+      <c r="BS163" s="15" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="164" spans="17:71" ht="110.4" x14ac:dyDescent="0.45">
       <c r="Q164" s="3" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="165" spans="17:17" x14ac:dyDescent="0.45">
+      <c r="BS164" s="15" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="165" spans="17:71" x14ac:dyDescent="0.45">
       <c r="Q165" s="3" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="166" spans="17:17" x14ac:dyDescent="0.45">
+      <c r="BS165" s="15"/>
+    </row>
+    <row r="166" spans="17:71" ht="55.8" x14ac:dyDescent="0.45">
       <c r="Q166" s="3" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="167" spans="17:17" x14ac:dyDescent="0.45">
+      <c r="BS166" s="14" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="167" spans="17:71" ht="67.2" x14ac:dyDescent="0.45">
       <c r="Q167" s="3" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="168" spans="17:17" x14ac:dyDescent="0.45">
+      <c r="BS167" s="16" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="168" spans="17:71" ht="138" x14ac:dyDescent="0.45">
       <c r="Q168" s="3" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="172" spans="17:17" x14ac:dyDescent="0.45">
+      <c r="BS168" s="15" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="169" spans="17:71" x14ac:dyDescent="0.45">
+      <c r="BS169" s="15"/>
+    </row>
+    <row r="170" spans="17:71" ht="55.8" x14ac:dyDescent="0.45">
+      <c r="BS170" s="14" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="171" spans="17:71" ht="133.19999999999999" x14ac:dyDescent="0.45">
+      <c r="BS171" s="15" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="172" spans="17:71" ht="151.80000000000001" x14ac:dyDescent="0.45">
       <c r="Q172" s="3" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="173" spans="17:17" x14ac:dyDescent="0.45">
+      <c r="BS172" s="15" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="173" spans="17:71" x14ac:dyDescent="0.45">
       <c r="Q173" s="3" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="174" spans="17:17" x14ac:dyDescent="0.45">
+      <c r="BS173" s="15"/>
+    </row>
+    <row r="174" spans="17:71" ht="37.200000000000003" x14ac:dyDescent="0.45">
       <c r="Q174" s="3" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="175" spans="17:17" x14ac:dyDescent="0.45">
+      <c r="BS174" s="14" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="175" spans="17:71" ht="80.400000000000006" x14ac:dyDescent="0.45">
       <c r="Q175" s="3" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="176" spans="17:17" x14ac:dyDescent="0.45">
+      <c r="BS175" s="15" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="176" spans="17:71" ht="193.2" x14ac:dyDescent="0.45">
       <c r="Q176" s="3" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="180" spans="17:17" x14ac:dyDescent="0.45">
+      <c r="BS176" s="15" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="177" spans="17:71" x14ac:dyDescent="0.45">
+      <c r="BS177" s="15"/>
+    </row>
+    <row r="178" spans="17:71" x14ac:dyDescent="0.45">
+      <c r="BS178" s="12"/>
+    </row>
+    <row r="179" spans="17:71" x14ac:dyDescent="0.45">
+      <c r="BS179" s="12"/>
+    </row>
+    <row r="180" spans="17:71" x14ac:dyDescent="0.45">
       <c r="Q180" s="3" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="181" spans="17:17" x14ac:dyDescent="0.45">
+    <row r="181" spans="17:71" ht="93.6" x14ac:dyDescent="0.45">
       <c r="Q181" s="3" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="182" spans="17:17" x14ac:dyDescent="0.45">
+      <c r="BS181" s="15" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="182" spans="17:71" ht="138" x14ac:dyDescent="0.45">
       <c r="Q182" s="3" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="183" spans="17:17" x14ac:dyDescent="0.45">
+      <c r="BS182" s="15" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="183" spans="17:71" x14ac:dyDescent="0.45">
       <c r="Q183" s="3" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="184" spans="17:17" x14ac:dyDescent="0.45">
+      <c r="BS183" s="15"/>
+    </row>
+    <row r="184" spans="17:71" x14ac:dyDescent="0.45">
       <c r="Q184" s="3" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="185" spans="17:17" x14ac:dyDescent="0.45">
+      <c r="BS184" s="12"/>
+    </row>
+    <row r="185" spans="17:71" x14ac:dyDescent="0.45">
       <c r="Q185" s="3" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="186" spans="17:17" x14ac:dyDescent="0.45">
+    <row r="186" spans="17:71" ht="80.400000000000006" x14ac:dyDescent="0.45">
       <c r="Q186" s="3" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="187" spans="17:17" x14ac:dyDescent="0.45">
+      <c r="BS186" s="15" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="187" spans="17:71" ht="124.2" x14ac:dyDescent="0.45">
       <c r="Q187" s="3" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="191" spans="17:17" x14ac:dyDescent="0.45">
+      <c r="BS187" s="15" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="188" spans="17:71" x14ac:dyDescent="0.45">
+      <c r="BS188" s="15"/>
+    </row>
+    <row r="189" spans="17:71" x14ac:dyDescent="0.45">
+      <c r="BS189" s="12"/>
+    </row>
+    <row r="190" spans="17:71" x14ac:dyDescent="0.45">
+      <c r="BS190" s="12"/>
+    </row>
+    <row r="191" spans="17:71" x14ac:dyDescent="0.45">
       <c r="Q191" s="3" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="192" spans="17:17" x14ac:dyDescent="0.45">
+      <c r="BS191" s="12"/>
+    </row>
+    <row r="192" spans="17:71" x14ac:dyDescent="0.45">
       <c r="Q192" s="3" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="193" spans="17:17" x14ac:dyDescent="0.45">
+    <row r="193" spans="17:71" ht="93.6" x14ac:dyDescent="0.45">
       <c r="Q193" s="3" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="194" spans="17:17" x14ac:dyDescent="0.45">
+      <c r="BS193" s="15" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="194" spans="17:71" ht="110.4" x14ac:dyDescent="0.45">
       <c r="Q194" s="3" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="195" spans="17:17" x14ac:dyDescent="0.45">
+      <c r="BS194" s="15" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="195" spans="17:71" x14ac:dyDescent="0.45">
       <c r="Q195" s="3" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="196" spans="17:17" x14ac:dyDescent="0.45">
+      <c r="BS195" s="15"/>
+    </row>
+    <row r="196" spans="17:71" x14ac:dyDescent="0.45">
       <c r="Q196" s="3" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="197" spans="17:17" x14ac:dyDescent="0.45">
+    <row r="197" spans="17:71" ht="37.200000000000003" x14ac:dyDescent="0.45">
       <c r="Q197" s="3" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="201" spans="17:17" x14ac:dyDescent="0.45">
+      <c r="BS197" s="14" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="198" spans="17:71" ht="67.2" x14ac:dyDescent="0.45">
+      <c r="BS198" s="15" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="199" spans="17:71" ht="179.4" x14ac:dyDescent="0.45">
+      <c r="BS199" s="15" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="200" spans="17:71" x14ac:dyDescent="0.45">
+      <c r="BS200" s="15"/>
+    </row>
+    <row r="201" spans="17:71" x14ac:dyDescent="0.45">
       <c r="Q201" s="3" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="202" spans="17:17" x14ac:dyDescent="0.45">
+      <c r="BS201" s="12"/>
+    </row>
+    <row r="202" spans="17:71" x14ac:dyDescent="0.45">
       <c r="Q202" s="3" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="203" spans="17:17" x14ac:dyDescent="0.45">
+    <row r="203" spans="17:71" ht="37.200000000000003" x14ac:dyDescent="0.45">
       <c r="Q203" s="3" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="204" spans="17:17" x14ac:dyDescent="0.45">
+      <c r="BS203" s="14" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="204" spans="17:71" ht="54" x14ac:dyDescent="0.45">
       <c r="Q204" s="3" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="205" spans="17:17" x14ac:dyDescent="0.45">
+      <c r="BS204" s="15" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="205" spans="17:71" ht="138" x14ac:dyDescent="0.45">
       <c r="Q205" s="3" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="206" spans="17:17" x14ac:dyDescent="0.45">
+      <c r="BS205" s="15" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="206" spans="17:71" x14ac:dyDescent="0.45">
       <c r="Q206" s="3" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="207" spans="17:17" x14ac:dyDescent="0.45">
+      <c r="BS206" s="15"/>
+    </row>
+    <row r="207" spans="17:71" ht="54" x14ac:dyDescent="0.45">
       <c r="Q207" s="3" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="208" spans="17:17" x14ac:dyDescent="0.45">
+      <c r="BS207" s="15" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="208" spans="17:71" ht="110.4" x14ac:dyDescent="0.45">
       <c r="Q208" s="3" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="209" spans="17:17" x14ac:dyDescent="0.45">
+      <c r="BS208" s="15" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="209" spans="17:71" x14ac:dyDescent="0.45">
       <c r="Q209" s="3" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="210" spans="17:17" x14ac:dyDescent="0.45">
+      <c r="BS209" s="15"/>
+    </row>
+    <row r="210" spans="17:71" x14ac:dyDescent="0.45">
       <c r="Q210" s="3" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="211" spans="17:17" x14ac:dyDescent="0.45">
+      <c r="BS210" s="12"/>
+    </row>
+    <row r="211" spans="17:71" x14ac:dyDescent="0.45">
       <c r="Q211" s="3" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="215" spans="17:17" x14ac:dyDescent="0.45">
+      <c r="BS211" s="12"/>
+    </row>
+    <row r="213" spans="17:71" ht="54" x14ac:dyDescent="0.45">
+      <c r="BS213" s="15" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="214" spans="17:71" ht="82.8" x14ac:dyDescent="0.45">
+      <c r="BS214" s="15" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="215" spans="17:71" x14ac:dyDescent="0.45">
       <c r="Q215" s="3" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="216" spans="17:17" x14ac:dyDescent="0.45">
+      <c r="BS215" s="15"/>
+    </row>
+    <row r="216" spans="17:71" ht="54" x14ac:dyDescent="0.45">
       <c r="Q216" s="3" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="217" spans="17:17" x14ac:dyDescent="0.45">
+      <c r="BS216" s="16" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="217" spans="17:71" ht="124.2" x14ac:dyDescent="0.45">
       <c r="Q217" s="3" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="218" spans="17:17" x14ac:dyDescent="0.45">
+      <c r="BS217" s="15" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="218" spans="17:71" x14ac:dyDescent="0.45">
       <c r="Q218" s="3" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="219" spans="17:17" x14ac:dyDescent="0.45">
+    <row r="219" spans="17:71" x14ac:dyDescent="0.45">
       <c r="Q219" s="3" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="220" spans="17:17" x14ac:dyDescent="0.45">
+    <row r="220" spans="17:71" x14ac:dyDescent="0.45">
       <c r="Q220" s="3" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="221" spans="17:17" x14ac:dyDescent="0.45">
+    <row r="221" spans="17:71" x14ac:dyDescent="0.45">
       <c r="Q221" s="3" t="s">
         <v>190</v>
       </c>
@@ -5323,11 +9348,13 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="6">
+    <mergeCell ref="BP1:CN6"/>
     <mergeCell ref="C12:O79"/>
     <mergeCell ref="A1:Q7"/>
     <mergeCell ref="C8:O10"/>
     <mergeCell ref="Q8:Q11"/>
+    <mergeCell ref="T1:BN6"/>
   </mergeCells>
   <conditionalFormatting sqref="C12:O79">
     <cfRule type="colorScale" priority="1">
